--- a/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
+++ b/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgProjects/ChemML/static/mock/antibio_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A9D11-0F88-F048-B11D-F48E8B7D4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="10215" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="487">
   <si>
     <t>Table 1</t>
   </si>
@@ -8905,9 +8906,6 @@
     <t>(salt) d1</t>
   </si>
   <si>
-    <t>2.356</t>
-  </si>
-  <si>
     <t>R1 (Ln-N)</t>
   </si>
   <si>
@@ -9044,17 +9042,23 @@
   </si>
   <si>
     <t>Если значения через запятую, например "2,3" - это означает, что коммерческий образец представляет собой смесь структуры 2 и 3.</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>3;7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9141,6 +9145,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -10111,31 +10121,31 @@
     <xf numFmtId="49" fontId="3" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="56">
     <dxf>
@@ -11114,89 +11124,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CompoundsData" displayName="CompoundsData" ref="A1:AR24" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A1:AR24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CompoundsData" displayName="CompoundsData" ref="A1:AR24" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+  <autoFilter ref="A1:AR24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="44">
-    <tableColumn id="1" name="REE" dataDxfId="50"/>
-    <tableColumn id="2" name="Ionic radii" dataDxfId="49"/>
-    <tableColumn id="16" name="1st Ionization energy" dataDxfId="48"/>
-    <tableColumn id="17" name="2nd Ionization energy" dataDxfId="47"/>
-    <tableColumn id="18" name="3rd Ionization energy" dataDxfId="46"/>
-    <tableColumn id="19" name="4th Ionization energy" dataDxfId="45"/>
-    <tableColumn id="41" name="Crystal structure type" dataDxfId="44"/>
-    <tableColumn id="44" name="Crystal structure type (literat.)"/>
-    <tableColumn id="40" name="(salt)  d1-1H2O" dataDxfId="43"/>
-    <tableColumn id="39" name="(salt)  d1-2H2O  " dataDxfId="42"/>
-    <tableColumn id="38" name="(salt)  d1-3H2O  " dataDxfId="41"/>
-    <tableColumn id="35" name="(salt) d1-4H2O" dataDxfId="40"/>
-    <tableColumn id="21" name="(salt)  d1-5H2O " dataDxfId="39"/>
-    <tableColumn id="24" name="(salt) d1-1NO3" dataDxfId="38"/>
-    <tableColumn id="27" name="(salt) d1-2NO3 " dataDxfId="37"/>
-    <tableColumn id="23" name="(salt) d1-3NO3  " dataDxfId="36"/>
-    <tableColumn id="29" name="(salt) d1-4NO3    " dataDxfId="35"/>
-    <tableColumn id="33" name="(salt) d1-5NO3      " dataDxfId="34"/>
-    <tableColumn id="20" name="(salt) d1-6NO3   " dataDxfId="33"/>
-    <tableColumn id="30" name="(salt) d1"/>
-    <tableColumn id="26" name="(salt) d2-1NO3" dataDxfId="32"/>
-    <tableColumn id="32" name="(salt) d2-2NO3  " dataDxfId="31"/>
-    <tableColumn id="22" name="(salt) d2-3NO3     " dataDxfId="30"/>
-    <tableColumn id="12" name="(salt) d3-1H2O" dataDxfId="29"/>
-    <tableColumn id="28" name="(salt) d3-2H2O   " dataDxfId="28"/>
-    <tableColumn id="36" name="Coordination number (solid) Ln-O"/>
-    <tableColumn id="37" name="Coordination number (solid) Ln-N"/>
-    <tableColumn id="3" name="x" dataDxfId="27"/>
-    <tableColumn id="7" name="n"/>
-    <tableColumn id="4" name="Electronegativity, Oganov" dataDxfId="26"/>
-    <tableColumn id="5" name="Electronegativity, Malliken" dataDxfId="25"/>
-    <tableColumn id="6" name="Electronegativity, Poland" dataDxfId="24"/>
-    <tableColumn id="25" name="Electronegativity, Allred-Rochow" dataDxfId="23"/>
-    <tableColumn id="8" name="R1 (Ln-O)" dataDxfId="22"/>
-    <tableColumn id="9" name="R1 (Ln-N)" dataDxfId="21"/>
-    <tableColumn id="34" name="R2 (Ln-O)"/>
-    <tableColumn id="10" name="Coordination number solution 1(Ln-O)" dataDxfId="20"/>
-    <tableColumn id="11" name="Coordination number solution  1(Ln-N)" dataDxfId="19"/>
-    <tableColumn id="42" name="Coordination number solution 2(Ln-O)" dataDxfId="18"/>
-    <tableColumn id="31" name="pH (conc=133,98)" dataDxfId="17"/>
-    <tableColumn id="13" name="lgβ Ln(NO3)3" dataDxfId="16"/>
-    <tableColumn id="43" name="lgβ LnOH2-" dataDxfId="15"/>
-    <tableColumn id="14" name="Electronic structure RE3+" dataDxfId="14"/>
-    <tableColumn id="15" name="Price"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="REE" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ionic radii" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="1st Ionization energy" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2nd Ionization energy" dataDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="3rd Ionization energy" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="4th Ionization energy" dataDxfId="45"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Crystal structure type" dataDxfId="44"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Crystal structure type (literat.)"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="(salt)  d1-1H2O" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="(salt)  d1-2H2O  " dataDxfId="42"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="(salt)  d1-3H2O  " dataDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="(salt) d1-4H2O" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="(salt)  d1-5H2O " dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="(salt) d1-1NO3" dataDxfId="38"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="(salt) d1-2NO3 " dataDxfId="37"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="(salt) d1-3NO3  " dataDxfId="36"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="(salt) d1-4NO3    " dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="(salt) d1-5NO3      " dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="(salt) d1-6NO3   " dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="(salt) d1"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="(salt) d2-1NO3" dataDxfId="32"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="(salt) d2-2NO3  " dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="(salt) d2-3NO3     " dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="(salt) d3-1H2O" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="(salt) d3-2H2O   " dataDxfId="28"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coordination number (solid) Ln-O"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Coordination number (solid) Ln-N"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="x" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="n"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Electronegativity, Oganov" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Electronegativity, Malliken" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Electronegativity, Poland" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Electronegativity, Allred-Rochow" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="R1 (Ln-O)" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="R1 (Ln-N)" dataDxfId="21"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="R2 (Ln-O)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coordination number solution 1(Ln-O)" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coordination number solution  1(Ln-N)" dataDxfId="19"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Coordination number solution 2(Ln-O)" dataDxfId="18"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="pH (conc=133,98)" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="lgβ Ln(NO3)3" dataDxfId="16"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="lgβ LnOH2-" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Electronic structure RE3+" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Price"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="BacteriasData" displayName="BacteriasData" ref="A1:N12" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:N12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BacteriasData" displayName="BacteriasData" ref="A1:N12" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:N12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Gram-stain"/>
-    <tableColumn id="3" name="Wall thickness min"/>
-    <tableColumn id="4" name="Wall thickness max"/>
-    <tableColumn id="5" name="Wall structure"/>
-    <tableColumn id="6" name="Wall composition 1"/>
-    <tableColumn id="7" name="Wall composition 2"/>
-    <tableColumn id="8" name="Outer membrane"/>
-    <tableColumn id="9" name="Membrane pore diameter min"/>
-    <tableColumn id="10" name="Membrane pore diameter max"/>
-    <tableColumn id="11" name="Proteins"/>
-    <tableColumn id="12" name="Penicillin sensitivity"/>
-    <tableColumn id="13" name="Well layers"/>
-    <tableColumn id="14" name="Well composition" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Gram-stain"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Wall thickness min"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Wall thickness max"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Wall structure"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Wall composition 1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Wall composition 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Outer membrane"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Membrane pore diameter min"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Membrane pore diameter max"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Proteins"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Penicillin sensitivity"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Well layers"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Well composition" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExperimentsData" displayName="ExperimentsData" ref="A1:D196" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D196"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ExperimentsData" displayName="ExperimentsData" ref="A1:D196" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D196" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="REE" dataDxfId="3"/>
-    <tableColumn id="2" name="Bacteria" dataDxfId="2"/>
-    <tableColumn id="3" name="Is salt" dataDxfId="1"/>
-    <tableColumn id="4" name="Stunting diameter" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="REE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Bacteria" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Is salt" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Stunting diameter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12245,8 +12255,163 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C3C55812-161A-D44A-BF73-145E81EF1260}">
+  <we:reference id="c498607c-c07c-485c-a02d-2060bdb236e7" version="1.6.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200002161" version="1.6.0.0" store="ru-RU" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSVARIABLERATETYPE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCOUPONDESCRIPTION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMARGIN</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSREFERENCERATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTATUSNAME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCONVERTABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPAYMENTSNUMBER</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCURRENCY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMATURITYDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALLDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPUTDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCURRENTCOUPONRATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSNOMINAL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMINIMUMSETTLEMENTAMOUNT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSLIQUIDITY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINTEGRALMULTIPLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSOUTSTANDINGFACEVALUEAMOUNT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSAMOUNT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSBONDNAME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPLACEMENTDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSISSUERATINGSACRA</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSISSUERATINGSEXPERTRA</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSFLOATINGRATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSREGISTRATIONDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMORTGAGEBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINTERNATIONALBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCFI</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPERPETUAL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPRIVATEISSUE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSAMORTIZEDBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTRUCTUREDNOTE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSFOREIGNBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSUBORDINATEDDEBT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSECURITIZATION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCBRFLOMBARD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCOUPONPERIOD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSDAYCOUNTFRACTION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSUKUKBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDEXEDFACEVALUE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSGREENBONDS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSCOUPONDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSCOUPONSUM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSCOUPONRATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCOUPONDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSRECORDDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCOUPONSUM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCOUPONRATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSAMORTIZATIONDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSAMORTIZATIONSUM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSAMORTIZATIONDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSAMORTIZATIONSUM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSASKPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSASKYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSASKYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSBIDPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSBIDYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSBIDYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDICATIVEPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDICATIVEYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDICATIVEYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSDURATION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSDURATIONTOPUTCALL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSLASTPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSLASTYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSLASTYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCLOSEPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCLOSEYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCLOSEYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDICATIVECY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSTRADINGVOLUME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSDEALSNUMBER</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSAVGPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMARKETPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSADMITTEDPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMAXPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMINPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMAXOPENPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSOUTSTANDINGFACEVALUEINDEXED</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCLEANPRICECALCYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCLEANPRICECALCYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCGSPREAD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCZSPREAD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCMODIFIEDDURATIONTOPUTCALL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCMODIFIEDDURATIONTOMATURITY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCPVBPTOMATURITY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCPVBPTOPUTCALL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCCONV</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCCONVTOPUTCALL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSACI</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCCY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTP</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCDURATION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCDURATIONTOPUTCALL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTMNOM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTMSIMPLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTPNOM</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSCALCYTPSIMPLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSETFNAV</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSETFNAVUSD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSETFLASTPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSTRADINGFLOORNAME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSONLINEASKPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSONLINEBIDPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSONLINEINDICATIVEPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKNAME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKCURRENCY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKLASTPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKBIDPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKASKPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKAVGPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKDEALSNUMBER</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSSTOCKTRADINGVOLUME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSOUTSTANDINGFACEVALUE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDEXVALUE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDEXMEASURE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSINDEXVALUE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSINDEXDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSPREVIOUSINDEXDATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMUTUALFUNDSHARE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSMUTUALFUNDNAV</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTTYPE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTTIN</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTPSRN</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTLEI</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTINDUSTRY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTNAME</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSEMITENTCOUNTRY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_CBONDS_CBONDSRAS</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12259,44 +12424,44 @@
       <selection pane="bottomRight" activeCell="O2" sqref="O2:AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="28" width="16.28515625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="28" width="16.33203125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-    </row>
-    <row r="2" spans="1:27" ht="45.4" customHeight="1">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+    </row>
+    <row r="2" spans="1:27" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -12379,7 +12544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="63.4" customHeight="1">
+    <row r="3" spans="1:27" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -12454,7 +12619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="63" customHeight="1">
+    <row r="4" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -12537,7 +12702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="63" customHeight="1">
+    <row r="5" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
@@ -12618,7 +12783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="63" customHeight="1">
+    <row r="6" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -12701,7 +12866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="63" customHeight="1">
+    <row r="7" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -12784,7 +12949,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="63" customHeight="1">
+    <row r="8" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
@@ -12851,7 +13016,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="63" customHeight="1">
+    <row r="9" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>140</v>
       </c>
@@ -12932,7 +13097,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="63" customHeight="1">
+    <row r="10" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
@@ -13001,7 +13166,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="63" customHeight="1">
+    <row r="11" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -13084,7 +13249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="63" customHeight="1">
+    <row r="12" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>177</v>
       </c>
@@ -13167,7 +13332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="63" customHeight="1">
+    <row r="13" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>188</v>
       </c>
@@ -13248,7 +13413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="63" customHeight="1">
+    <row r="14" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>201</v>
       </c>
@@ -13325,7 +13490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="63" customHeight="1">
+    <row r="15" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>215</v>
       </c>
@@ -13406,7 +13571,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="63" customHeight="1">
+    <row r="16" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>229</v>
       </c>
@@ -13487,7 +13652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="63" customHeight="1">
+    <row r="17" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>238</v>
       </c>
@@ -13558,7 +13723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="63" customHeight="1">
+    <row r="18" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>244</v>
       </c>
@@ -13629,7 +13794,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="63" customHeight="1">
+    <row r="19" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>252</v>
       </c>
@@ -13699,44 +13864,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
-    <col min="5" max="7" width="12.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="5" max="7" width="12.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="11" customWidth="1"/>
     <col min="12" max="12" width="12" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="11" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="11" customWidth="1"/>
-    <col min="24" max="28" width="8.85546875" style="11"/>
-    <col min="29" max="29" width="9.5703125" style="11" customWidth="1"/>
-    <col min="30" max="38" width="8.85546875" style="11"/>
-    <col min="39" max="39" width="14.28515625" style="11" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="11"/>
+    <col min="13" max="13" width="12.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="11" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="11" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="11" customWidth="1"/>
+    <col min="24" max="25" width="8.83203125" style="11"/>
+    <col min="26" max="26" width="12" style="11" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="11"/>
+    <col min="29" max="29" width="9.5" style="11" customWidth="1"/>
+    <col min="30" max="38" width="8.83203125" style="11"/>
+    <col min="39" max="39" width="14.33203125" style="11" customWidth="1"/>
+    <col min="40" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="40.5" customHeight="1">
+    <row r="1" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>262</v>
       </c>
@@ -13759,7 +13926,7 @@
         <v>266</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I1" s="90" t="s">
         <v>421</v>
@@ -13816,7 +13983,7 @@
         <v>397</v>
       </c>
       <c r="AA1" s="98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB1" s="52" t="s">
         <v>416</v>
@@ -13840,28 +14007,28 @@
         <v>437</v>
       </c>
       <c r="AI1" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ1" s="101" t="s">
         <v>440</v>
       </c>
-      <c r="AJ1" s="101" t="s">
+      <c r="AK1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL1" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="AK1" s="91" t="s">
+      <c r="AM1" s="101" t="s">
         <v>443</v>
       </c>
-      <c r="AL1" s="91" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM1" s="101" t="s">
-        <v>444</v>
-      </c>
       <c r="AN1" s="131" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO1" s="131" t="s">
         <v>473</v>
       </c>
-      <c r="AO1" s="131" t="s">
+      <c r="AP1" s="131" t="s">
         <v>474</v>
-      </c>
-      <c r="AP1" s="131" t="s">
-        <v>475</v>
       </c>
       <c r="AQ1" s="52" t="s">
         <v>268</v>
@@ -13870,7 +14037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="25.5" customHeight="1">
+    <row r="2" spans="1:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>270</v>
       </c>
@@ -13990,7 +14157,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="25.5" customHeight="1">
+    <row r="3" spans="1:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>272</v>
       </c>
@@ -14122,7 +14289,7 @@
         <v>32790</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="24" customHeight="1">
+    <row r="4" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>274</v>
       </c>
@@ -14254,7 +14421,7 @@
         <v>98500</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="24" customHeight="1">
+    <row r="5" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>276</v>
       </c>
@@ -14386,7 +14553,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="18.75" customHeight="1">
+    <row r="6" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>278</v>
       </c>
@@ -14518,15 +14685,15 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A7" s="133" t="s">
+    <row r="7" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="79"/>
       <c r="H7" s="79">
         <v>3</v>
@@ -14590,7 +14757,7 @@
       <c r="AC7" s="14">
         <v>4</v>
       </c>
-      <c r="AD7" s="136"/>
+      <c r="AD7" s="134"/>
       <c r="AE7" s="83"/>
       <c r="AF7" s="83"/>
       <c r="AG7" s="83"/>
@@ -14599,14 +14766,14 @@
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="137"/>
-      <c r="AO7" s="134"/>
-      <c r="AP7" s="135"/>
-      <c r="AQ7" s="138"/>
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="135"/>
+      <c r="AO7" s="133"/>
+      <c r="AP7" s="133"/>
+      <c r="AQ7" s="136"/>
       <c r="AR7" s="48"/>
     </row>
-    <row r="8" spans="1:44" ht="26.25" customHeight="1">
+    <row r="8" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>280</v>
       </c>
@@ -14738,15 +14905,15 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="20.25" customHeight="1">
-      <c r="A9" s="133" t="s">
+    <row r="9" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="80"/>
       <c r="H9" s="80">
         <v>3</v>
@@ -14810,7 +14977,7 @@
       <c r="AC9" s="18">
         <v>4</v>
       </c>
-      <c r="AD9" s="136"/>
+      <c r="AD9" s="134"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
@@ -14819,14 +14986,14 @@
       <c r="AJ9" s="20"/>
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
-      <c r="AM9" s="137"/>
-      <c r="AN9" s="137"/>
-      <c r="AO9" s="134"/>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="138"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="136"/>
       <c r="AR9" s="49"/>
     </row>
-    <row r="10" spans="1:44" ht="18" customHeight="1">
+    <row r="10" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>282</v>
       </c>
@@ -14958,7 +15125,7 @@
         <v>78450</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="21" customHeight="1">
+    <row r="11" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>284</v>
       </c>
@@ -15090,7 +15257,7 @@
         <v>81650</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="22.5" customHeight="1">
+    <row r="12" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>286</v>
       </c>
@@ -15109,8 +15276,8 @@
       <c r="F12" s="81">
         <v>3990</v>
       </c>
-      <c r="G12" s="102">
-        <v>2.2999999999999998</v>
+      <c r="G12" s="138" t="s">
+        <v>485</v>
       </c>
       <c r="H12" s="102">
         <v>3</v>
@@ -15212,7 +15379,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="21.75" customHeight="1">
+    <row r="13" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>288</v>
       </c>
@@ -15231,8 +15398,8 @@
       <c r="F13" s="82">
         <v>4100</v>
       </c>
-      <c r="G13" s="102">
-        <v>2.2999999999999998</v>
+      <c r="G13" s="138" t="s">
+        <v>485</v>
       </c>
       <c r="H13" s="102">
         <v>3</v>
@@ -15342,7 +15509,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="27" customHeight="1">
+    <row r="14" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
         <v>290</v>
       </c>
@@ -15361,8 +15528,8 @@
       <c r="F14" s="81">
         <v>4120</v>
       </c>
-      <c r="G14" s="102">
-        <v>2.2999999999999998</v>
+      <c r="G14" s="138" t="s">
+        <v>485</v>
       </c>
       <c r="H14" s="102">
         <v>3</v>
@@ -15472,7 +15639,7 @@
         <v>89500</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="20.25" customHeight="1">
+    <row r="15" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>292</v>
       </c>
@@ -15602,15 +15769,15 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="20.25" customHeight="1">
-      <c r="A16" s="133" t="s">
+    <row r="16" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102">
         <v>2</v>
@@ -15676,7 +15843,7 @@
       <c r="AC16" s="18">
         <v>4</v>
       </c>
-      <c r="AD16" s="136"/>
+      <c r="AD16" s="134"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
@@ -15685,14 +15852,14 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
-      <c r="AM16" s="137"/>
-      <c r="AN16" s="137"/>
-      <c r="AO16" s="134"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="138"/>
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="135"/>
+      <c r="AO16" s="133"/>
+      <c r="AP16" s="133"/>
+      <c r="AQ16" s="136"/>
       <c r="AR16" s="49"/>
     </row>
-    <row r="17" spans="1:44" ht="22.5" customHeight="1">
+    <row r="17" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>293</v>
       </c>
@@ -15711,8 +15878,8 @@
       <c r="F17" s="81">
         <v>4203</v>
       </c>
-      <c r="G17" s="102">
-        <v>3.7</v>
+      <c r="G17" s="138" t="s">
+        <v>486</v>
       </c>
       <c r="H17" s="102">
         <v>3</v>
@@ -15816,15 +15983,15 @@
         <v>84040</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20.25" customHeight="1">
-      <c r="A18" s="133" t="s">
+    <row r="18" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102">
         <v>4</v>
@@ -15884,7 +16051,7 @@
       <c r="AC18" s="13">
         <v>3</v>
       </c>
-      <c r="AD18" s="136"/>
+      <c r="AD18" s="134"/>
       <c r="AE18" s="83"/>
       <c r="AF18" s="83"/>
       <c r="AG18" s="83"/>
@@ -15893,14 +16060,14 @@
       <c r="AJ18" s="15"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
-      <c r="AM18" s="137"/>
-      <c r="AN18" s="137"/>
-      <c r="AO18" s="134"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="138"/>
+      <c r="AM18" s="135"/>
+      <c r="AN18" s="135"/>
+      <c r="AO18" s="133"/>
+      <c r="AP18" s="133"/>
+      <c r="AQ18" s="136"/>
       <c r="AR18" s="48"/>
     </row>
-    <row r="19" spans="1:44" ht="20.25" customHeight="1">
+    <row r="19" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>295</v>
       </c>
@@ -15954,8 +16121,8 @@
       <c r="S19" s="84">
         <v>2.4740000000000002</v>
       </c>
-      <c r="T19" s="86" t="s">
-        <v>439</v>
+      <c r="T19" s="86">
+        <v>2.3559999999999999</v>
       </c>
       <c r="U19" s="84">
         <v>2.8029999999999999</v>
@@ -16028,15 +16195,15 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="19.5" customHeight="1">
-      <c r="A20" s="133" t="s">
+    <row r="20" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102">
         <v>6</v>
@@ -16096,7 +16263,7 @@
       <c r="AC20" s="18">
         <v>3</v>
       </c>
-      <c r="AD20" s="136"/>
+      <c r="AD20" s="134"/>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
@@ -16105,14 +16272,14 @@
       <c r="AJ20" s="20"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="137"/>
-      <c r="AN20" s="137"/>
-      <c r="AO20" s="134"/>
-      <c r="AP20" s="135"/>
-      <c r="AQ20" s="138"/>
+      <c r="AM20" s="135"/>
+      <c r="AN20" s="135"/>
+      <c r="AO20" s="133"/>
+      <c r="AP20" s="133"/>
+      <c r="AQ20" s="136"/>
       <c r="AR20" s="49"/>
     </row>
-    <row r="21" spans="1:44" ht="24.75" customHeight="1">
+    <row r="21" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
         <v>297</v>
       </c>
@@ -16228,15 +16395,15 @@
         <v>15260</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="21" customHeight="1">
-      <c r="A22" s="133" t="s">
+    <row r="22" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="103"/>
       <c r="H22" s="103">
         <v>3</v>
@@ -16300,7 +16467,7 @@
       <c r="AC22" s="13">
         <v>4</v>
       </c>
-      <c r="AD22" s="136"/>
+      <c r="AD22" s="134"/>
       <c r="AE22" s="83"/>
       <c r="AF22" s="83"/>
       <c r="AG22" s="83"/>
@@ -16309,14 +16476,14 @@
       <c r="AJ22" s="13"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
-      <c r="AM22" s="137"/>
-      <c r="AN22" s="137"/>
-      <c r="AO22" s="134"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="138"/>
+      <c r="AM22" s="135"/>
+      <c r="AN22" s="135"/>
+      <c r="AO22" s="133"/>
+      <c r="AP22" s="133"/>
+      <c r="AQ22" s="136"/>
       <c r="AR22" s="48"/>
     </row>
-    <row r="23" spans="1:44" ht="19.5" customHeight="1">
+    <row r="23" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>299</v>
       </c>
@@ -16390,7 +16557,7 @@
         <v>286300</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.35" customHeight="1">
+    <row r="24" spans="1:44" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>301</v>
       </c>
@@ -16473,32 +16640,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.45" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="20.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="11" customWidth="1"/>
     <col min="9" max="9" width="30" style="11" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="11" customWidth="1"/>
     <col min="12" max="12" width="21" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="11"/>
+    <col min="13" max="13" width="13.1640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.15" customHeight="1">
+    <row r="1" spans="1:14" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>304</v>
       </c>
@@ -16539,10 +16706,10 @@
         <v>316</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>317</v>
       </c>
@@ -16586,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>318</v>
       </c>
@@ -16630,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>319</v>
       </c>
@@ -16674,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>320</v>
       </c>
@@ -16718,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>22</v>
       </c>
@@ -16762,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
@@ -16806,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
@@ -16850,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>321</v>
       </c>
@@ -16882,7 +17049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>26</v>
       </c>
@@ -16914,7 +17081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
         <v>27</v>
       </c>
@@ -16946,7 +17113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.45" customHeight="1">
+    <row r="12" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -16974,39 +17141,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
         <v>471</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>467</v>
       </c>
-      <c r="C1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>468</v>
       </c>
-      <c r="E1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="130">
         <v>20</v>
       </c>
@@ -17023,7 +17190,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="130">
         <v>50</v>
       </c>
@@ -17040,7 +17207,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="130">
         <v>100</v>
       </c>
@@ -17057,7 +17224,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="130">
         <v>134</v>
       </c>
@@ -17074,9 +17241,9 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="128" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -17085,28 +17252,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.45" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="11" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" style="11"/>
-    <col min="8" max="8" width="18.85546875" style="11" customWidth="1"/>
-    <col min="9" max="13" width="10.85546875" style="11"/>
-    <col min="14" max="14" width="15.42578125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="11"/>
+    <col min="1" max="1" width="10.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="11" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="11"/>
+    <col min="8" max="8" width="18.83203125" style="11" customWidth="1"/>
+    <col min="9" max="13" width="10.83203125" style="11"/>
+    <col min="14" max="14" width="15.5" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>262</v>
       </c>
@@ -17120,34 +17287,34 @@
         <v>324</v>
       </c>
       <c r="G1" s="122" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" s="122" t="s">
         <v>460</v>
       </c>
-      <c r="H1" s="122" t="s">
-        <v>461</v>
-      </c>
       <c r="I1" s="123" t="s">
+        <v>452</v>
+      </c>
+      <c r="J1" s="123" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="K1" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="L1" s="123" t="s">
         <v>455</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="M1" s="123" t="s">
         <v>456</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="N1" s="123" t="s">
         <v>457</v>
       </c>
-      <c r="N1" s="123" t="s">
+      <c r="O1" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="O1" s="123" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>270</v>
       </c>
@@ -17161,7 +17328,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H2" s="123">
         <v>20</v>
@@ -17188,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>272</v>
       </c>
@@ -17229,7 +17396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>274</v>
       </c>
@@ -17243,7 +17410,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H4" s="123">
         <v>100</v>
@@ -17270,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>276</v>
       </c>
@@ -17284,7 +17451,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H5" s="123">
         <v>134</v>
@@ -17311,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>278</v>
       </c>
@@ -17325,7 +17492,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H6" s="123">
         <v>20</v>
@@ -17352,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>280</v>
       </c>
@@ -17366,7 +17533,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="122" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H7" s="123">
         <v>50</v>
@@ -17393,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>282</v>
       </c>
@@ -17407,7 +17574,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="122" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H8" s="123">
         <v>100</v>
@@ -17434,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>284</v>
       </c>
@@ -17448,7 +17615,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="122" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H9" s="123">
         <v>134</v>
@@ -17475,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>286</v>
       </c>
@@ -17489,7 +17656,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="122" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H10" s="123">
         <v>20</v>
@@ -17516,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>288</v>
       </c>
@@ -17530,7 +17697,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="122" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H11" s="123">
         <v>50</v>
@@ -17557,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
         <v>290</v>
       </c>
@@ -17571,7 +17738,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="122" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H12" s="123">
         <v>100</v>
@@ -17598,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>292</v>
       </c>
@@ -17612,7 +17779,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="122" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H13" s="123">
         <v>134</v>
@@ -17639,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
         <v>293</v>
       </c>
@@ -17653,7 +17820,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H14" s="123">
         <v>20</v>
@@ -17680,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
         <v>295</v>
       </c>
@@ -17694,7 +17861,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="122" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H15" s="123">
         <v>50</v>
@@ -17721,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
         <v>297</v>
       </c>
@@ -17735,7 +17902,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="122" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H16" s="123">
         <v>100</v>
@@ -17762,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
         <v>299</v>
       </c>
@@ -17776,7 +17943,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="122" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H17" s="123">
         <v>134</v>
@@ -17803,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
         <v>301</v>
       </c>
@@ -17817,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
         <v>270</v>
       </c>
@@ -17831,7 +17998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>272</v>
       </c>
@@ -17845,7 +18012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
         <v>274</v>
       </c>
@@ -17859,7 +18026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
         <v>276</v>
       </c>
@@ -17873,7 +18040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
         <v>278</v>
       </c>
@@ -17887,7 +18054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61" t="s">
         <v>280</v>
       </c>
@@ -17901,7 +18068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
         <v>282</v>
       </c>
@@ -17915,7 +18082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61" t="s">
         <v>284</v>
       </c>
@@ -17929,7 +18096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
         <v>286</v>
       </c>
@@ -17943,7 +18110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61" t="s">
         <v>290</v>
       </c>
@@ -17957,7 +18124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62" t="s">
         <v>292</v>
       </c>
@@ -17971,7 +18138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61" t="s">
         <v>293</v>
       </c>
@@ -17985,7 +18152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
         <v>295</v>
       </c>
@@ -17999,7 +18166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="61" t="s">
         <v>297</v>
       </c>
@@ -18013,7 +18180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="s">
         <v>299</v>
       </c>
@@ -18027,7 +18194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61" t="s">
         <v>301</v>
       </c>
@@ -18041,7 +18208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>270</v>
       </c>
@@ -18055,7 +18222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
         <v>272</v>
       </c>
@@ -18069,7 +18236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="s">
         <v>274</v>
       </c>
@@ -18083,7 +18250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61" t="s">
         <v>276</v>
       </c>
@@ -18097,7 +18264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62" t="s">
         <v>278</v>
       </c>
@@ -18111,7 +18278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
         <v>280</v>
       </c>
@@ -18125,7 +18292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62" t="s">
         <v>282</v>
       </c>
@@ -18139,7 +18306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
         <v>284</v>
       </c>
@@ -18153,7 +18320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="62" t="s">
         <v>286</v>
       </c>
@@ -18167,7 +18334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61" t="s">
         <v>288</v>
       </c>
@@ -18181,7 +18348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="s">
         <v>290</v>
       </c>
@@ -18195,7 +18362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61" t="s">
         <v>292</v>
       </c>
@@ -18209,7 +18376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62" t="s">
         <v>293</v>
       </c>
@@ -18223,7 +18390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="61" t="s">
         <v>295</v>
       </c>
@@ -18237,7 +18404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62" t="s">
         <v>297</v>
       </c>
@@ -18251,7 +18418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61" t="s">
         <v>299</v>
       </c>
@@ -18265,7 +18432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62" t="s">
         <v>301</v>
       </c>
@@ -18279,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61" t="s">
         <v>270</v>
       </c>
@@ -18293,7 +18460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="62" t="s">
         <v>272</v>
       </c>
@@ -18307,7 +18474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61" t="s">
         <v>274</v>
       </c>
@@ -18321,7 +18488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="62" t="s">
         <v>276</v>
       </c>
@@ -18335,7 +18502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="61" t="s">
         <v>278</v>
       </c>
@@ -18349,7 +18516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="62" t="s">
         <v>280</v>
       </c>
@@ -18363,7 +18530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="61" t="s">
         <v>282</v>
       </c>
@@ -18377,7 +18544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62" t="s">
         <v>284</v>
       </c>
@@ -18391,7 +18558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="61" t="s">
         <v>286</v>
       </c>
@@ -18405,7 +18572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62" t="s">
         <v>290</v>
       </c>
@@ -18419,7 +18586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="61" t="s">
         <v>292</v>
       </c>
@@ -18433,7 +18600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="62" t="s">
         <v>293</v>
       </c>
@@ -18447,7 +18614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="61" t="s">
         <v>295</v>
       </c>
@@ -18461,7 +18628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62" t="s">
         <v>297</v>
       </c>
@@ -18475,7 +18642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="61" t="s">
         <v>299</v>
       </c>
@@ -18489,7 +18656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="62" t="s">
         <v>301</v>
       </c>
@@ -18503,7 +18670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="61" t="s">
         <v>270</v>
       </c>
@@ -18517,7 +18684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="62" t="s">
         <v>272</v>
       </c>
@@ -18531,7 +18698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="61" t="s">
         <v>274</v>
       </c>
@@ -18545,7 +18712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="62" t="s">
         <v>276</v>
       </c>
@@ -18559,7 +18726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
         <v>278</v>
       </c>
@@ -18573,7 +18740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="62" t="s">
         <v>280</v>
       </c>
@@ -18587,7 +18754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="61" t="s">
         <v>282</v>
       </c>
@@ -18601,7 +18768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="62" t="s">
         <v>284</v>
       </c>
@@ -18615,7 +18782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="61" t="s">
         <v>286</v>
       </c>
@@ -18629,7 +18796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="62" t="s">
         <v>288</v>
       </c>
@@ -18643,7 +18810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="61" t="s">
         <v>290</v>
       </c>
@@ -18657,7 +18824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="62" t="s">
         <v>292</v>
       </c>
@@ -18671,7 +18838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="61" t="s">
         <v>293</v>
       </c>
@@ -18685,7 +18852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62" t="s">
         <v>295</v>
       </c>
@@ -18699,7 +18866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="61" t="s">
         <v>297</v>
       </c>
@@ -18713,7 +18880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="62" t="s">
         <v>299</v>
       </c>
@@ -18727,7 +18894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="61" t="s">
         <v>301</v>
       </c>
@@ -18741,7 +18908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="62" t="s">
         <v>270</v>
       </c>
@@ -18755,7 +18922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="61" t="s">
         <v>272</v>
       </c>
@@ -18769,7 +18936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="62" t="s">
         <v>274</v>
       </c>
@@ -18783,7 +18950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="61" t="s">
         <v>276</v>
       </c>
@@ -18797,7 +18964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="62" t="s">
         <v>278</v>
       </c>
@@ -18811,7 +18978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="61" t="s">
         <v>280</v>
       </c>
@@ -18825,7 +18992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="62" t="s">
         <v>282</v>
       </c>
@@ -18839,7 +19006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="61" t="s">
         <v>284</v>
       </c>
@@ -18853,7 +19020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="62" t="s">
         <v>286</v>
       </c>
@@ -18867,7 +19034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="61" t="s">
         <v>290</v>
       </c>
@@ -18881,7 +19048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="62" t="s">
         <v>292</v>
       </c>
@@ -18895,7 +19062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="61" t="s">
         <v>293</v>
       </c>
@@ -18909,7 +19076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="62" t="s">
         <v>295</v>
       </c>
@@ -18923,7 +19090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="61" t="s">
         <v>297</v>
       </c>
@@ -18937,7 +19104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="62" t="s">
         <v>299</v>
       </c>
@@ -18951,7 +19118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="61" t="s">
         <v>301</v>
       </c>
@@ -18965,7 +19132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="62" t="s">
         <v>270</v>
       </c>
@@ -18979,7 +19146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="61" t="s">
         <v>272</v>
       </c>
@@ -18993,7 +19160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="62" t="s">
         <v>274</v>
       </c>
@@ -19007,7 +19174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="61" t="s">
         <v>276</v>
       </c>
@@ -19021,7 +19188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="62" t="s">
         <v>278</v>
       </c>
@@ -19035,7 +19202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="61" t="s">
         <v>282</v>
       </c>
@@ -19049,7 +19216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="62" t="s">
         <v>286</v>
       </c>
@@ -19063,7 +19230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="61" t="s">
         <v>288</v>
       </c>
@@ -19077,7 +19244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="62" t="s">
         <v>290</v>
       </c>
@@ -19091,7 +19258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="61" t="s">
         <v>292</v>
       </c>
@@ -19105,7 +19272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="62" t="s">
         <v>293</v>
       </c>
@@ -19119,7 +19286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="61" t="s">
         <v>295</v>
       </c>
@@ -19133,7 +19300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="62" t="s">
         <v>297</v>
       </c>
@@ -19147,7 +19314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="61" t="s">
         <v>299</v>
       </c>
@@ -19161,7 +19328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="62" t="s">
         <v>270</v>
       </c>
@@ -19175,7 +19342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="61" t="s">
         <v>272</v>
       </c>
@@ -19189,7 +19356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="62" t="s">
         <v>274</v>
       </c>
@@ -19203,7 +19370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="61" t="s">
         <v>276</v>
       </c>
@@ -19217,7 +19384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="62" t="s">
         <v>278</v>
       </c>
@@ -19231,7 +19398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="61" t="s">
         <v>282</v>
       </c>
@@ -19245,7 +19412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="62" t="s">
         <v>286</v>
       </c>
@@ -19259,7 +19426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="61" t="s">
         <v>288</v>
       </c>
@@ -19273,7 +19440,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="62" t="s">
         <v>290</v>
       </c>
@@ -19287,7 +19454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="61" t="s">
         <v>292</v>
       </c>
@@ -19301,7 +19468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="62" t="s">
         <v>293</v>
       </c>
@@ -19315,7 +19482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="61" t="s">
         <v>295</v>
       </c>
@@ -19329,7 +19496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="62" t="s">
         <v>297</v>
       </c>
@@ -19343,7 +19510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="61" t="s">
         <v>299</v>
       </c>
@@ -19357,7 +19524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="62" t="s">
         <v>270</v>
       </c>
@@ -19371,7 +19538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="61" t="s">
         <v>272</v>
       </c>
@@ -19385,7 +19552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="62" t="s">
         <v>274</v>
       </c>
@@ -19399,7 +19566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="61" t="s">
         <v>276</v>
       </c>
@@ -19413,7 +19580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="62" t="s">
         <v>278</v>
       </c>
@@ -19427,7 +19594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="61" t="s">
         <v>282</v>
       </c>
@@ -19441,7 +19608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="62" t="s">
         <v>286</v>
       </c>
@@ -19455,7 +19622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="61" t="s">
         <v>288</v>
       </c>
@@ -19469,7 +19636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="62" t="s">
         <v>290</v>
       </c>
@@ -19483,7 +19650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="61" t="s">
         <v>293</v>
       </c>
@@ -19497,7 +19664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="62" t="s">
         <v>295</v>
       </c>
@@ -19511,7 +19678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="61" t="s">
         <v>297</v>
       </c>
@@ -19525,7 +19692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="62" t="s">
         <v>299</v>
       </c>
@@ -19539,7 +19706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="61" t="s">
         <v>270</v>
       </c>
@@ -19553,7 +19720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="62" t="s">
         <v>272</v>
       </c>
@@ -19567,7 +19734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="61" t="s">
         <v>274</v>
       </c>
@@ -19581,7 +19748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="62" t="s">
         <v>276</v>
       </c>
@@ -19595,7 +19762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="61" t="s">
         <v>278</v>
       </c>
@@ -19609,7 +19776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="62" t="s">
         <v>282</v>
       </c>
@@ -19623,7 +19790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="61" t="s">
         <v>286</v>
       </c>
@@ -19637,7 +19804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="62" t="s">
         <v>288</v>
       </c>
@@ -19651,7 +19818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="61" t="s">
         <v>290</v>
       </c>
@@ -19665,7 +19832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="62" t="s">
         <v>293</v>
       </c>
@@ -19679,7 +19846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="61" t="s">
         <v>295</v>
       </c>
@@ -19693,7 +19860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="62" t="s">
         <v>297</v>
       </c>
@@ -19707,7 +19874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
         <v>299</v>
       </c>
@@ -19721,7 +19888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="62" t="s">
         <v>270</v>
       </c>
@@ -19735,7 +19902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
         <v>272</v>
       </c>
@@ -19749,7 +19916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="62" t="s">
         <v>274</v>
       </c>
@@ -19763,7 +19930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
         <v>276</v>
       </c>
@@ -19777,7 +19944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="62" t="s">
         <v>278</v>
       </c>
@@ -19791,7 +19958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
         <v>282</v>
       </c>
@@ -19805,7 +19972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="62" t="s">
         <v>286</v>
       </c>
@@ -19819,7 +19986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
         <v>288</v>
       </c>
@@ -19833,7 +20000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="62" t="s">
         <v>290</v>
       </c>
@@ -19847,7 +20014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
         <v>292</v>
       </c>
@@ -19861,7 +20028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="62" t="s">
         <v>293</v>
       </c>
@@ -19875,7 +20042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
         <v>295</v>
       </c>
@@ -19889,7 +20056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="62" t="s">
         <v>297</v>
       </c>
@@ -19903,7 +20070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="61" t="s">
         <v>299</v>
       </c>
@@ -19917,7 +20084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="62" t="s">
         <v>270</v>
       </c>
@@ -19931,7 +20098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="61" t="s">
         <v>272</v>
       </c>
@@ -19945,7 +20112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="62" t="s">
         <v>274</v>
       </c>
@@ -19959,7 +20126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="61" t="s">
         <v>276</v>
       </c>
@@ -19973,7 +20140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="62" t="s">
         <v>278</v>
       </c>
@@ -19987,7 +20154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="61" t="s">
         <v>282</v>
       </c>
@@ -20001,7 +20168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="62" t="s">
         <v>286</v>
       </c>
@@ -20015,7 +20182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="61" t="s">
         <v>288</v>
       </c>
@@ -20029,7 +20196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="62" t="s">
         <v>290</v>
       </c>
@@ -20043,7 +20210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="61" t="s">
         <v>292</v>
       </c>
@@ -20057,7 +20224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="62" t="s">
         <v>293</v>
       </c>
@@ -20071,7 +20238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="61" t="s">
         <v>295</v>
       </c>
@@ -20085,7 +20252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="62" t="s">
         <v>297</v>
       </c>
@@ -20099,7 +20266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="61" t="s">
         <v>299</v>
       </c>
@@ -20113,7 +20280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="62" t="s">
         <v>270</v>
       </c>
@@ -20127,7 +20294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="61" t="s">
         <v>272</v>
       </c>
@@ -20141,7 +20308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="62" t="s">
         <v>274</v>
       </c>
@@ -20155,7 +20322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="61" t="s">
         <v>276</v>
       </c>
@@ -20169,7 +20336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="62" t="s">
         <v>278</v>
       </c>
@@ -20183,7 +20350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="61" t="s">
         <v>282</v>
       </c>
@@ -20197,7 +20364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="62" t="s">
         <v>286</v>
       </c>
@@ -20211,7 +20378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="61" t="s">
         <v>288</v>
       </c>
@@ -20225,7 +20392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="62" t="s">
         <v>290</v>
       </c>
@@ -20239,7 +20406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="61" t="s">
         <v>292</v>
       </c>
@@ -20253,7 +20420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="62" t="s">
         <v>293</v>
       </c>
@@ -20267,7 +20434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="61" t="s">
         <v>295</v>
       </c>
@@ -20281,7 +20448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="62" t="s">
         <v>297</v>
       </c>
@@ -20295,7 +20462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="75" t="s">
         <v>299</v>
       </c>
@@ -20322,28 +20489,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="70.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="70.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>327</v>
       </c>
@@ -20356,7 +20523,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="29.1" customHeight="1">
+    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
         <v>328</v>
       </c>
@@ -20383,7 +20550,7 @@
       </c>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
         <v>336</v>
       </c>
@@ -20410,7 +20577,7 @@
       </c>
       <c r="I3" s="104"/>
     </row>
-    <row r="4" spans="1:9" ht="15.95" customHeight="1">
+    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="108" t="s">
         <v>343</v>
@@ -20433,7 +20600,7 @@
       <c r="H4" s="110"/>
       <c r="I4" s="104"/>
     </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1">
+    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="111"/>
       <c r="B5" s="112" t="s">
         <v>349</v>
@@ -20452,7 +20619,7 @@
       <c r="H5" s="115"/>
       <c r="I5" s="104"/>
     </row>
-    <row r="6" spans="1:9" ht="32.1" customHeight="1">
+    <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="107"/>
       <c r="B6" s="108" t="s">
         <v>353</v>
@@ -20469,28 +20636,28 @@
         <v>356</v>
       </c>
       <c r="H6" s="110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I6" s="104"/>
     </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1">
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="107"/>
       <c r="B7" s="108" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
       <c r="G7" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H7" s="110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I7" s="104"/>
     </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1">
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="111"/>
       <c r="B8" s="112" t="s">
         <v>357</v>
@@ -20509,10 +20676,10 @@
       <c r="H8" s="115"/>
       <c r="I8" s="104"/>
     </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
       <c r="B9" s="108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="108" t="s">
         <v>361</v>
@@ -20523,15 +20690,15 @@
       <c r="E9" s="116"/>
       <c r="F9" s="116"/>
       <c r="G9" s="109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H9" s="110"/>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="107"/>
       <c r="B10" s="108" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C10" s="108"/>
       <c r="D10" s="108" t="s">
@@ -20540,15 +20707,15 @@
       <c r="E10" s="116"/>
       <c r="F10" s="116"/>
       <c r="G10" s="109" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H10" s="110"/>
       <c r="I10" s="104"/>
     </row>
-    <row r="11" spans="1:9" ht="15.95" customHeight="1">
+    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="108" t="s">
@@ -20557,12 +20724,12 @@
       <c r="E11" s="116"/>
       <c r="F11" s="116"/>
       <c r="G11" s="109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" s="110"/>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" ht="15.95" customHeight="1">
+    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="111"/>
       <c r="B12" s="112" t="s">
         <v>362</v>
@@ -20581,45 +20748,45 @@
       <c r="H12" s="115"/>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1">
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="107"/>
       <c r="B13" s="108" t="s">
         <v>365</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>366</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="116" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G13" s="109" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H13" s="110"/>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1">
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="107"/>
       <c r="B14" s="108" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="116"/>
       <c r="G14" s="109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1">
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="111"/>
       <c r="B15" s="112" t="s">
         <v>367</v>
@@ -20638,7 +20805,7 @@
       <c r="H15" s="115"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" ht="48" customHeight="1">
+    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
       <c r="B16" s="108" t="s">
         <v>371</v>
@@ -20657,7 +20824,7 @@
       <c r="H16" s="110"/>
       <c r="I16" s="104"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
       <c r="B17" s="117" t="s">
         <v>398</v>
@@ -20674,10 +20841,10 @@
       <c r="H17" s="117"/>
       <c r="I17" s="104"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="118"/>
       <c r="B18" s="119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
@@ -20692,7 +20859,7 @@
       </c>
       <c r="H18" s="118"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="118"/>
       <c r="B19" s="119" t="s">
         <v>426</v>
@@ -20710,10 +20877,10 @@
       </c>
       <c r="H19" s="118"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="118"/>
       <c r="B20" s="119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="118"/>
       <c r="D20" s="118"/>
@@ -20724,11 +20891,11 @@
         <v>347</v>
       </c>
       <c r="G20" s="118" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H20" s="118"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118"/>
       <c r="B21" s="119" t="s">
         <v>432</v>
@@ -20746,7 +20913,7 @@
       </c>
       <c r="H21" s="118"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="118"/>
       <c r="B22" s="119" t="s">
         <v>419</v>
@@ -20764,7 +20931,7 @@
       </c>
       <c r="H22" s="118"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="118"/>
       <c r="B23" s="120" t="s">
         <v>416</v>
@@ -20780,7 +20947,7 @@
       </c>
       <c r="H23" s="118"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="118"/>
       <c r="B24" s="120" t="s">
         <v>415</v>
@@ -20806,22 +20973,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>375</v>
       </c>
@@ -20832,7 +20999,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>336</v>
       </c>
@@ -20853,7 +21020,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -20874,7 +21041,7 @@
       </c>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42">
         <v>2</v>
       </c>
@@ -20895,7 +21062,7 @@
       </c>
       <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>3</v>
       </c>
@@ -20916,7 +21083,7 @@
       </c>
       <c r="G5" s="38"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
         <v>4</v>
       </c>
@@ -20937,7 +21104,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -20958,7 +21125,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -20967,7 +21134,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -20976,7 +21143,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>

--- a/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
+++ b/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgProjects/ChemML/static/mock/antibio_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgramProj/ChemML/static/mock/antibio_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A9D11-0F88-F048-B11D-F48E8B7D4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E49903-B2CE-734B-90C7-3B50021400AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -8452,9 +8452,6 @@
     <t>Bacteria</t>
   </si>
   <si>
-    <t>Is salt</t>
-  </si>
-  <si>
     <t>Stunting diameter</t>
   </si>
   <si>
@@ -8855,51 +8852,18 @@
     <t>(salt)  d1-1H2O</t>
   </si>
   <si>
-    <t xml:space="preserve">(salt)  d1-2H2O  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt)  d1-3H2O  </t>
-  </si>
-  <si>
     <t>(salt) d1-4H2O</t>
   </si>
   <si>
-    <t xml:space="preserve">(salt)  d1-5H2O </t>
-  </si>
-  <si>
     <t>(salt) d1-1NO3</t>
   </si>
   <si>
-    <t xml:space="preserve">(salt) d1-2NO3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt) d1-3NO3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt) d1-4NO3    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt) d1-5NO3      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt) d1-6NO3   </t>
-  </si>
-  <si>
     <t>(salt) d2-1NO3</t>
   </si>
   <si>
-    <t xml:space="preserve">(salt) d2-2NO3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(salt) d2-3NO3     </t>
-  </si>
-  <si>
     <t>(salt) d3-1H2O</t>
   </si>
   <si>
-    <t xml:space="preserve">(salt) d3-2H2O   </t>
-  </si>
-  <si>
     <t>R1 (Ln-O)</t>
   </si>
   <si>
@@ -9048,6 +9012,42 @@
   </si>
   <si>
     <t>3;7</t>
+  </si>
+  <si>
+    <t>Salt/Solution</t>
+  </si>
+  <si>
+    <t>(salt)  d1-3H2O</t>
+  </si>
+  <si>
+    <t>(salt)  d1-5H2O</t>
+  </si>
+  <si>
+    <t>(salt) d1-2NO3</t>
+  </si>
+  <si>
+    <t>(salt) d1-3NO3</t>
+  </si>
+  <si>
+    <t>(salt) d1-4NO3</t>
+  </si>
+  <si>
+    <t>(salt) d1-5NO3</t>
+  </si>
+  <si>
+    <t>(salt) d1-6NO3</t>
+  </si>
+  <si>
+    <t>(salt) d2-2NO3</t>
+  </si>
+  <si>
+    <t>(salt) d2-3NO3</t>
+  </si>
+  <si>
+    <t>(salt) d3-2H2O</t>
+  </si>
+  <si>
+    <t>(salt)  d1-2H2O</t>
   </si>
 </sst>
 </file>
@@ -10136,11 +10136,11 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11136,22 +11136,22 @@
     <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Crystal structure type" dataDxfId="44"/>
     <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Crystal structure type (literat.)"/>
     <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="(salt)  d1-1H2O" dataDxfId="43"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="(salt)  d1-2H2O  " dataDxfId="42"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="(salt)  d1-3H2O  " dataDxfId="41"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="(salt)  d1-2H2O" dataDxfId="42"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="(salt)  d1-3H2O" dataDxfId="41"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="(salt) d1-4H2O" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="(salt)  d1-5H2O " dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="(salt)  d1-5H2O" dataDxfId="39"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="(salt) d1-1NO3" dataDxfId="38"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="(salt) d1-2NO3 " dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="(salt) d1-3NO3  " dataDxfId="36"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="(salt) d1-4NO3    " dataDxfId="35"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="(salt) d1-5NO3      " dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="(salt) d1-6NO3   " dataDxfId="33"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="(salt) d1-2NO3" dataDxfId="37"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="(salt) d1-3NO3" dataDxfId="36"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="(salt) d1-4NO3" dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="(salt) d1-5NO3" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="(salt) d1-6NO3" dataDxfId="33"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="(salt) d1"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="(salt) d2-1NO3" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="(salt) d2-2NO3  " dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="(salt) d2-3NO3     " dataDxfId="30"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="(salt) d2-2NO3" dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="(salt) d2-3NO3" dataDxfId="30"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="(salt) d3-1H2O" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="(salt) d3-2H2O   " dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="(salt) d3-2H2O" dataDxfId="28"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coordination number (solid) Ln-O"/>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Coordination number (solid) Ln-N"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="x" dataDxfId="27"/>
@@ -11205,7 +11205,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="REE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Bacteria" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Is salt" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Salt/Solution" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Stunting diameter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12273,6 +12273,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_CBONDS_CBONDSVARIABLERATETYPE</we:customFunctionIds>
@@ -12431,35 +12434,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
     </row>
     <row r="2" spans="1:27" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -13186,7 +13189,7 @@
         <v>169</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>170</v>
@@ -13219,13 +13222,13 @@
         <v>82</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>41</v>
@@ -13269,7 +13272,7 @@
         <v>181</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>182</v>
@@ -13302,13 +13305,13 @@
         <v>83</v>
       </c>
       <c r="R12" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>103</v>
@@ -13350,7 +13353,7 @@
         <v>191</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>193</v>
@@ -13431,7 +13434,7 @@
         <v>205</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>206</v>
@@ -13508,7 +13511,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>219</v>
@@ -13589,7 +13592,7 @@
         <v>232</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>233</v>
@@ -13867,8 +13870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13908,88 +13911,88 @@
         <v>262</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" s="97" t="s">
         <v>392</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="97" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>393</v>
       </c>
       <c r="G1" s="52" t="s">
         <v>266</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I1" s="90" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>486</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>476</v>
+      </c>
+      <c r="L1" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="M1" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="O1" s="94" t="s">
+        <v>478</v>
+      </c>
+      <c r="P1" s="94" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q1" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="R1" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="S1" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="V1" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="W1" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="X1" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="M1" s="90" t="s">
-        <v>425</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>426</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>427</v>
-      </c>
-      <c r="P1" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q1" s="94" t="s">
-        <v>429</v>
-      </c>
-      <c r="R1" s="94" t="s">
-        <v>430</v>
-      </c>
-      <c r="S1" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="T1" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="U1" s="95" t="s">
-        <v>432</v>
-      </c>
-      <c r="V1" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="W1" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="X1" s="92" t="s">
-        <v>435</v>
-      </c>
       <c r="Y1" s="92" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="98" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AD1" s="93" t="s">
         <v>263</v>
@@ -14001,34 +14004,34 @@
         <v>265</v>
       </c>
       <c r="AG1" s="93" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AH1" s="91" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AI1" s="91" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="AJ1" s="101" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AK1" s="91" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="AL1" s="91" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AM1" s="101" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AN1" s="131" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="AO1" s="131" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AP1" s="131" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AQ1" s="52" t="s">
         <v>268</v>
@@ -15276,8 +15279,8 @@
       <c r="F12" s="81">
         <v>3990</v>
       </c>
-      <c r="G12" s="138" t="s">
-        <v>485</v>
+      <c r="G12" s="137" t="s">
+        <v>473</v>
       </c>
       <c r="H12" s="102">
         <v>3</v>
@@ -15398,8 +15401,8 @@
       <c r="F13" s="82">
         <v>4100</v>
       </c>
-      <c r="G13" s="138" t="s">
-        <v>485</v>
+      <c r="G13" s="137" t="s">
+        <v>473</v>
       </c>
       <c r="H13" s="102">
         <v>3</v>
@@ -15528,8 +15531,8 @@
       <c r="F14" s="81">
         <v>4120</v>
       </c>
-      <c r="G14" s="138" t="s">
-        <v>485</v>
+      <c r="G14" s="137" t="s">
+        <v>473</v>
       </c>
       <c r="H14" s="102">
         <v>3</v>
@@ -15878,8 +15881,8 @@
       <c r="F17" s="81">
         <v>4203</v>
       </c>
-      <c r="G17" s="138" t="s">
-        <v>486</v>
+      <c r="G17" s="137" t="s">
+        <v>474</v>
       </c>
       <c r="H17" s="102">
         <v>3</v>
@@ -16706,7 +16709,7 @@
         <v>316</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17158,19 +17161,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -17243,7 +17246,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="128" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -17255,8 +17258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17281,37 +17284,37 @@
         <v>322</v>
       </c>
       <c r="C1" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>324</v>
-      </c>
       <c r="G1" s="122" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H1" s="122" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I1" s="123" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="J1" s="123" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K1" s="123" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L1" s="123" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M1" s="123" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="N1" s="123" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="O1" s="123" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17328,7 +17331,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="122" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H2" s="123">
         <v>20</v>
@@ -17410,7 +17413,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H4" s="123">
         <v>100</v>
@@ -17451,7 +17454,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H5" s="123">
         <v>134</v>
@@ -17492,7 +17495,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H6" s="123">
         <v>20</v>
@@ -17533,7 +17536,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="122" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H7" s="123">
         <v>50</v>
@@ -17574,7 +17577,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="122" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H8" s="123">
         <v>100</v>
@@ -17615,7 +17618,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="122" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H9" s="123">
         <v>134</v>
@@ -17656,7 +17659,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="122" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H10" s="123">
         <v>20</v>
@@ -17697,7 +17700,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="122" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H11" s="123">
         <v>50</v>
@@ -17738,7 +17741,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="122" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H12" s="123">
         <v>100</v>
@@ -17779,7 +17782,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="122" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H13" s="123">
         <v>134</v>
@@ -17820,7 +17823,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H14" s="123">
         <v>20</v>
@@ -17861,7 +17864,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="122" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H15" s="123">
         <v>50</v>
@@ -17902,7 +17905,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="122" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H16" s="123">
         <v>100</v>
@@ -17943,7 +17946,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="122" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H17" s="123">
         <v>134</v>
@@ -19893,7 +19896,7 @@
         <v>270</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C155" s="30">
         <v>1</v>
@@ -19907,7 +19910,7 @@
         <v>272</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C156" s="29">
         <v>1</v>
@@ -19921,7 +19924,7 @@
         <v>274</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C157" s="30">
         <v>1</v>
@@ -19935,7 +19938,7 @@
         <v>276</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C158" s="29">
         <v>1</v>
@@ -19949,7 +19952,7 @@
         <v>278</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C159" s="30">
         <v>1</v>
@@ -19963,7 +19966,7 @@
         <v>282</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C160" s="29">
         <v>1</v>
@@ -19977,7 +19980,7 @@
         <v>286</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C161" s="30">
         <v>1</v>
@@ -19991,7 +19994,7 @@
         <v>288</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C162" s="29">
         <v>1</v>
@@ -20005,7 +20008,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C163" s="30">
         <v>1</v>
@@ -20019,7 +20022,7 @@
         <v>292</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C164" s="29">
         <v>1</v>
@@ -20033,7 +20036,7 @@
         <v>293</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C165" s="30">
         <v>1</v>
@@ -20047,7 +20050,7 @@
         <v>295</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C166" s="29">
         <v>1</v>
@@ -20061,7 +20064,7 @@
         <v>297</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C167" s="30">
         <v>1</v>
@@ -20075,7 +20078,7 @@
         <v>299</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C168" s="29">
         <v>1</v>
@@ -20089,7 +20092,7 @@
         <v>270</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C169" s="30">
         <v>1</v>
@@ -20103,7 +20106,7 @@
         <v>272</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C170" s="29">
         <v>1</v>
@@ -20117,7 +20120,7 @@
         <v>274</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C171" s="30">
         <v>1</v>
@@ -20131,7 +20134,7 @@
         <v>276</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C172" s="29">
         <v>1</v>
@@ -20145,7 +20148,7 @@
         <v>278</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C173" s="30">
         <v>1</v>
@@ -20159,7 +20162,7 @@
         <v>282</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C174" s="29">
         <v>1</v>
@@ -20173,7 +20176,7 @@
         <v>286</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C175" s="30">
         <v>1</v>
@@ -20187,7 +20190,7 @@
         <v>288</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C176" s="29">
         <v>1</v>
@@ -20201,7 +20204,7 @@
         <v>290</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C177" s="30">
         <v>1</v>
@@ -20215,7 +20218,7 @@
         <v>292</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C178" s="29">
         <v>1</v>
@@ -20229,7 +20232,7 @@
         <v>293</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C179" s="30">
         <v>1</v>
@@ -20243,7 +20246,7 @@
         <v>295</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C180" s="29">
         <v>1</v>
@@ -20257,7 +20260,7 @@
         <v>297</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C181" s="30">
         <v>1</v>
@@ -20271,7 +20274,7 @@
         <v>299</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C182" s="29">
         <v>1</v>
@@ -20512,7 +20515,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -20525,77 +20528,77 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="C2" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="D2" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="105" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="G2" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="H2" s="105" t="s">
         <v>334</v>
-      </c>
-      <c r="H2" s="105" t="s">
-        <v>335</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="106" t="s">
         <v>304</v>
       </c>
       <c r="C3" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="E3" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="F3" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="G3" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="H3" s="106" t="s">
         <v>341</v>
-      </c>
-      <c r="H3" s="106" t="s">
-        <v>342</v>
       </c>
       <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="D4" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="E4" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="F4" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="G4" s="109" t="s">
         <v>347</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>348</v>
       </c>
       <c r="H4" s="110"/>
       <c r="I4" s="104"/>
@@ -20603,18 +20606,18 @@
     <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="111"/>
       <c r="B5" s="112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="112" t="s">
         <v>349</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>350</v>
       </c>
       <c r="D5" s="112"/>
       <c r="E5" s="113"/>
       <c r="F5" s="112" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="114" t="s">
         <v>351</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>352</v>
       </c>
       <c r="H5" s="115"/>
       <c r="I5" s="104"/>
@@ -20622,56 +20625,56 @@
     <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="107"/>
       <c r="B6" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="108" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="D6" s="108" t="s">
         <v>354</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>355</v>
       </c>
       <c r="E6" s="116"/>
       <c r="F6" s="116"/>
       <c r="G6" s="109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H6" s="110" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="107"/>
       <c r="B7" s="108" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
       <c r="G7" s="109" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H7" s="110" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="111"/>
       <c r="B8" s="112" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="112" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="D8" s="112" t="s">
         <v>358</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>359</v>
       </c>
       <c r="E8" s="113"/>
       <c r="F8" s="113"/>
       <c r="G8" s="114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" s="115"/>
       <c r="I8" s="104"/>
@@ -20679,18 +20682,18 @@
     <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
       <c r="B9" s="108" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="116"/>
       <c r="F9" s="116"/>
       <c r="G9" s="109" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H9" s="110"/>
       <c r="I9" s="104"/>
@@ -20698,16 +20701,16 @@
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="107"/>
       <c r="B10" s="108" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C10" s="108"/>
       <c r="D10" s="108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="116"/>
       <c r="G10" s="109" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H10" s="110"/>
       <c r="I10" s="104"/>
@@ -20715,16 +20718,16 @@
     <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="108" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="116"/>
       <c r="G11" s="109" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H11" s="110"/>
       <c r="I11" s="104"/>
@@ -20732,10 +20735,10 @@
     <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="111"/>
       <c r="B12" s="112" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="112" t="s">
         <v>362</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>363</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>267</v>
@@ -20743,7 +20746,7 @@
       <c r="E12" s="113"/>
       <c r="F12" s="113"/>
       <c r="G12" s="114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H12" s="115"/>
       <c r="I12" s="104"/>
@@ -20751,20 +20754,20 @@
     <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="107"/>
       <c r="B13" s="108" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>365</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>366</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="116" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G13" s="109" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H13" s="110"/>
       <c r="I13" s="104"/>
@@ -20772,16 +20775,16 @@
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="107"/>
       <c r="B14" s="108" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="116"/>
       <c r="G14" s="109" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="104"/>
@@ -20789,18 +20792,18 @@
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="111"/>
       <c r="B15" s="112" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="112" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="D15" s="112" t="s">
         <v>368</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>369</v>
       </c>
       <c r="E15" s="113"/>
       <c r="F15" s="113"/>
       <c r="G15" s="114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15" s="115"/>
       <c r="I15" s="104"/>
@@ -20808,18 +20811,18 @@
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
       <c r="B16" s="108" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="D16" s="108" t="s">
         <v>372</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>373</v>
       </c>
       <c r="E16" s="116"/>
       <c r="F16" s="116"/>
       <c r="G16" s="109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H16" s="110"/>
       <c r="I16" s="104"/>
@@ -20827,16 +20830,16 @@
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
       <c r="B17" s="117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C17" s="117"/>
       <c r="D17" s="117"/>
       <c r="E17" s="117"/>
       <c r="F17" s="117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H17" s="117"/>
       <c r="I17" s="104"/>
@@ -20844,122 +20847,122 @@
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="118"/>
       <c r="B18" s="119" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
       <c r="E18" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="F18" s="118" t="s">
-        <v>347</v>
-      </c>
       <c r="G18" s="119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H18" s="118"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="118"/>
       <c r="B19" s="119" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C19" s="118"/>
       <c r="D19" s="118"/>
       <c r="E19" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="F19" s="119" t="s">
-        <v>347</v>
-      </c>
       <c r="G19" s="118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="118"/>
       <c r="B20" s="119" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C20" s="118"/>
       <c r="D20" s="118"/>
       <c r="E20" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="F20" s="119" t="s">
-        <v>347</v>
-      </c>
       <c r="G20" s="118" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118"/>
       <c r="B21" s="119" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C21" s="118"/>
       <c r="D21" s="118"/>
       <c r="E21" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="F21" s="118" t="s">
-        <v>347</v>
-      </c>
       <c r="G21" s="119" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="118"/>
       <c r="B22" s="119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C22" s="118"/>
       <c r="D22" s="118"/>
       <c r="E22" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="119" t="s">
-        <v>347</v>
-      </c>
       <c r="G22" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="118"/>
       <c r="B23" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="118"/>
       <c r="F23" s="118"/>
       <c r="G23" s="121" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="118"/>
       <c r="B24" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D24" s="118"/>
       <c r="E24" s="118"/>
       <c r="F24" s="118"/>
       <c r="G24" s="121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H24" s="118"/>
     </row>
@@ -20990,7 +20993,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -21001,22 +21004,22 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>378</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>379</v>
       </c>
       <c r="G2" s="38"/>
     </row>
@@ -21025,16 +21028,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>381</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>382</v>
       </c>
       <c r="F3" s="41">
         <v>1496</v>
@@ -21046,16 +21049,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>384</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>385</v>
       </c>
       <c r="F4" s="44">
         <v>585</v>
@@ -21067,16 +21070,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>387</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F5" s="41">
         <v>59201</v>
@@ -21088,16 +21091,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="D6" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>390</v>
-      </c>
       <c r="E6" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F6" s="44">
         <v>622</v>
@@ -21109,7 +21112,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>23</v>
@@ -21118,7 +21121,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F7" s="41">
         <v>470</v>

--- a/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
+++ b/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgramProj/ChemML/static/mock/antibio_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E49903-B2CE-734B-90C7-3B50021400AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EF600-6F10-9C46-9E2E-F4CD0420C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="14400" windowWidth="25600" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -9782,7 +9782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9957,9 +9957,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10141,6 +10138,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12434,35 +12437,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -13870,7 +13873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -13913,16 +13916,16 @@
       <c r="B1" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="96" t="s">
         <v>392</v>
       </c>
       <c r="G1" s="52" t="s">
@@ -13931,61 +13934,61 @@
       <c r="H1" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="89" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="93" t="s">
         <v>422</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="O1" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="93" t="s">
         <v>479</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="93" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="93" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="U1" s="95" t="s">
+      <c r="U1" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="V1" s="95" t="s">
+      <c r="V1" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="W1" s="95" t="s">
+      <c r="W1" s="94" t="s">
         <v>484</v>
       </c>
-      <c r="X1" s="92" t="s">
+      <c r="X1" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="Y1" s="92" t="s">
+      <c r="Y1" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="97" t="s">
         <v>396</v>
       </c>
-      <c r="AA1" s="98" t="s">
+      <c r="AA1" s="97" t="s">
         <v>439</v>
       </c>
       <c r="AB1" s="52" t="s">
@@ -13994,43 +13997,43 @@
       <c r="AC1" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="AD1" s="93" t="s">
+      <c r="AD1" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="AE1" s="93" t="s">
+      <c r="AE1" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="AF1" s="93" t="s">
+      <c r="AF1" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="AG1" s="93" t="s">
+      <c r="AG1" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="AH1" s="91" t="s">
+      <c r="AH1" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AI1" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="AJ1" s="101" t="s">
+      <c r="AJ1" s="100" t="s">
         <v>428</v>
       </c>
-      <c r="AK1" s="91" t="s">
+      <c r="AK1" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="AL1" s="91" t="s">
+      <c r="AL1" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="AM1" s="101" t="s">
+      <c r="AM1" s="100" t="s">
         <v>431</v>
       </c>
-      <c r="AN1" s="131" t="s">
+      <c r="AN1" s="130" t="s">
         <v>460</v>
       </c>
-      <c r="AO1" s="131" t="s">
+      <c r="AO1" s="130" t="s">
         <v>461</v>
       </c>
-      <c r="AP1" s="131" t="s">
+      <c r="AP1" s="130" t="s">
         <v>462</v>
       </c>
       <c r="AQ1" s="52" t="s">
@@ -14047,13 +14050,13 @@
       <c r="B2" s="15">
         <v>1.03</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="80">
         <v>538.1</v>
       </c>
       <c r="D2" s="15">
         <v>1067</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="80">
         <v>1850.3</v>
       </c>
       <c r="F2" s="15">
@@ -14065,55 +14068,55 @@
       <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="82">
         <v>2.5270000000000001</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="82">
         <v>2.5539999999999998</v>
       </c>
-      <c r="K2" s="83">
+      <c r="K2" s="82">
         <v>2.585</v>
       </c>
-      <c r="L2" s="83">
+      <c r="L2" s="82">
         <v>2.56</v>
       </c>
-      <c r="M2" s="83">
+      <c r="M2" s="82">
         <v>2.6680000000000001</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="84">
         <v>2.617</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="84">
         <v>2.6589999999999998</v>
       </c>
-      <c r="P2" s="85">
+      <c r="P2" s="84">
         <v>2.6869999999999998</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="84">
         <v>2.6989999999999998</v>
       </c>
-      <c r="R2" s="85">
+      <c r="R2" s="84">
         <v>2.8450000000000002</v>
       </c>
-      <c r="S2" s="83">
+      <c r="S2" s="82">
         <v>2.875</v>
       </c>
-      <c r="T2" s="83">
+      <c r="T2" s="82">
         <v>2.661</v>
       </c>
-      <c r="U2" s="83">
+      <c r="U2" s="82">
         <v>3.1240000000000001</v>
       </c>
-      <c r="V2" s="83">
+      <c r="V2" s="82">
         <v>3.177</v>
       </c>
-      <c r="W2" s="83">
+      <c r="W2" s="82">
         <v>3.194</v>
       </c>
-      <c r="X2" s="83">
+      <c r="X2" s="82">
         <v>4.7050000000000001</v>
       </c>
-      <c r="Y2" s="83"/>
+      <c r="Y2" s="82"/>
       <c r="Z2" s="13">
         <v>11</v>
       </c>
@@ -14126,16 +14129,16 @@
       <c r="AC2" s="14">
         <v>5</v>
       </c>
-      <c r="AD2" s="83">
+      <c r="AD2" s="82">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AE2" s="83">
+      <c r="AE2" s="82">
         <v>3.06</v>
       </c>
-      <c r="AF2" s="83">
+      <c r="AF2" s="82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG2" s="83">
+      <c r="AG2" s="82">
         <v>1.08</v>
       </c>
       <c r="AH2" s="15"/>
@@ -14167,77 +14170,77 @@
       <c r="B3" s="20">
         <v>1.01</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="81">
         <v>534.4</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="81">
         <v>1050</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="81">
         <v>1949</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="81">
         <v>3547</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="79">
         <v>1</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="79">
         <v>1</v>
       </c>
-      <c r="I3" s="84">
+      <c r="I3" s="83">
         <v>2.4940000000000002</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="83">
         <v>2.5249999999999999</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="83">
         <v>2.5289999999999999</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="83">
         <v>2.552</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="83">
         <v>2.64</v>
       </c>
-      <c r="N3" s="84">
+      <c r="N3" s="83">
         <v>2.5920000000000001</v>
       </c>
-      <c r="O3" s="84">
+      <c r="O3" s="83">
         <v>2.6320000000000001</v>
       </c>
-      <c r="P3" s="84">
+      <c r="P3" s="83">
         <v>2.6579999999999999</v>
       </c>
-      <c r="Q3" s="84">
+      <c r="Q3" s="83">
         <v>2.6680000000000001</v>
       </c>
-      <c r="R3" s="84">
+      <c r="R3" s="83">
         <v>2.8460000000000001</v>
       </c>
-      <c r="S3" s="84">
+      <c r="S3" s="83">
         <v>2.8820000000000001</v>
       </c>
-      <c r="T3" s="84">
+      <c r="T3" s="83">
         <v>2.6379999999999999</v>
       </c>
-      <c r="U3" s="84">
+      <c r="U3" s="83">
         <v>3.105</v>
       </c>
-      <c r="V3" s="86">
+      <c r="V3" s="85">
         <v>3.1589999999999998</v>
       </c>
-      <c r="W3" s="84">
+      <c r="W3" s="83">
         <v>3.181</v>
       </c>
-      <c r="X3" s="84">
+      <c r="X3" s="83">
         <v>5.48</v>
       </c>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="80">
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="79">
         <v>11</v>
       </c>
-      <c r="AA3" s="80">
+      <c r="AA3" s="79">
         <v>3</v>
       </c>
       <c r="AB3" s="19">
@@ -14317,53 +14320,53 @@
       <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="82">
         <v>2.4289999999999998</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="82">
         <v>2.4470000000000001</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="82">
         <v>2.456</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="82">
         <v>2.4580000000000002</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83">
+      <c r="M4" s="82"/>
+      <c r="N4" s="82">
         <v>2.5790000000000002</v>
       </c>
-      <c r="O4" s="83">
+      <c r="O4" s="82">
         <v>2.5680000000000001</v>
       </c>
-      <c r="P4" s="83">
+      <c r="P4" s="82">
         <v>2.6</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="82">
         <v>2.6160000000000001</v>
       </c>
-      <c r="R4" s="83">
+      <c r="R4" s="82">
         <v>2.6349999999999998</v>
       </c>
-      <c r="S4" s="83">
+      <c r="S4" s="82">
         <v>2.7309999999999999</v>
       </c>
-      <c r="T4" s="83">
+      <c r="T4" s="82">
         <v>2.552</v>
       </c>
-      <c r="U4" s="83">
+      <c r="U4" s="82">
         <v>3</v>
       </c>
-      <c r="V4" s="83">
+      <c r="V4" s="82">
         <v>3.0579999999999998</v>
       </c>
-      <c r="W4" s="83">
+      <c r="W4" s="82">
         <v>3.1019999999999999</v>
       </c>
-      <c r="X4" s="87">
+      <c r="X4" s="86">
         <v>6.06</v>
       </c>
-      <c r="Y4" s="87">
+      <c r="Y4" s="86">
         <v>6.0640000000000001</v>
       </c>
       <c r="Z4" s="13">
@@ -14372,22 +14375,22 @@
       <c r="AA4" s="13">
         <v>3</v>
       </c>
-      <c r="AB4" s="79">
+      <c r="AB4" s="78">
         <v>2</v>
       </c>
       <c r="AC4" s="13">
         <v>4</v>
       </c>
-      <c r="AD4" s="83">
+      <c r="AD4" s="82">
         <v>2.2400000000000002</v>
       </c>
-      <c r="AE4" s="83">
+      <c r="AE4" s="82">
         <v>3.21</v>
       </c>
-      <c r="AF4" s="83">
+      <c r="AF4" s="82">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AG4" s="83">
+      <c r="AG4" s="82">
         <v>1.07</v>
       </c>
       <c r="AH4" s="15">
@@ -14431,77 +14434,77 @@
       <c r="B5" s="20">
         <v>0.98</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="81">
         <v>533.1</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="81">
         <v>1040</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="81">
         <v>2130</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="81">
         <v>3900</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="79">
         <v>2</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="79">
         <v>2</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="83">
         <v>2.4289999999999998</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="83">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="83">
         <v>2.4510000000000001</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="83">
         <v>2.4630000000000001</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84">
+      <c r="M5" s="83"/>
+      <c r="N5" s="83">
         <v>2.548</v>
       </c>
-      <c r="O5" s="84">
+      <c r="O5" s="83">
         <v>2.6040000000000001</v>
       </c>
-      <c r="P5" s="84">
+      <c r="P5" s="83">
         <v>2.62</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="83">
         <v>2.7170000000000001</v>
       </c>
-      <c r="R5" s="84">
+      <c r="R5" s="83">
         <v>2.7309999999999999</v>
       </c>
-      <c r="S5" s="84">
+      <c r="S5" s="83">
         <v>2.8</v>
       </c>
-      <c r="T5" s="84">
+      <c r="T5" s="83">
         <v>2.548</v>
       </c>
-      <c r="U5" s="84">
+      <c r="U5" s="83">
         <v>2.9870000000000001</v>
       </c>
-      <c r="V5" s="84">
+      <c r="V5" s="83">
         <v>3.04</v>
       </c>
-      <c r="W5" s="84">
+      <c r="W5" s="83">
         <v>3.09</v>
       </c>
-      <c r="X5" s="84">
+      <c r="X5" s="83">
         <v>4.5570000000000004</v>
       </c>
-      <c r="Y5" s="84">
+      <c r="Y5" s="83">
         <v>4.5970000000000004</v>
       </c>
-      <c r="Z5" s="80">
+      <c r="Z5" s="79">
         <v>10</v>
       </c>
-      <c r="AA5" s="80">
+      <c r="AA5" s="79">
         <v>3</v>
       </c>
       <c r="AB5" s="19">
@@ -14563,77 +14566,77 @@
       <c r="B6" s="15">
         <v>0.96</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>544.5</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="80">
         <v>1070</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80">
         <v>2260</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="80">
         <v>3990</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="78">
         <v>2</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="78">
         <v>2</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="87">
         <v>2.395</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="87">
         <v>2.42</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="87">
         <v>2.4209999999999998</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="87">
         <v>2.427</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88">
+      <c r="M6" s="87"/>
+      <c r="N6" s="87">
         <v>2.5169999999999999</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="87">
         <v>2.5419999999999998</v>
       </c>
-      <c r="P6" s="88">
+      <c r="P6" s="87">
         <v>2.544</v>
       </c>
-      <c r="Q6" s="88">
+      <c r="Q6" s="87">
         <v>2.58</v>
       </c>
-      <c r="R6" s="88">
+      <c r="R6" s="87">
         <v>2.5979999999999999</v>
       </c>
-      <c r="S6" s="88">
+      <c r="S6" s="87">
         <v>2.714</v>
       </c>
-      <c r="T6" s="88">
+      <c r="T6" s="87">
         <v>2.516</v>
       </c>
-      <c r="U6" s="88">
+      <c r="U6" s="87">
         <v>2.964</v>
       </c>
-      <c r="V6" s="88">
+      <c r="V6" s="87">
         <v>3.0150000000000001</v>
       </c>
-      <c r="W6" s="88">
+      <c r="W6" s="87">
         <v>3.073</v>
       </c>
-      <c r="X6" s="88">
+      <c r="X6" s="87">
         <v>4.5209999999999999</v>
       </c>
-      <c r="Y6" s="88">
+      <c r="Y6" s="87">
         <v>4.5609999999999999</v>
       </c>
-      <c r="Z6" s="79">
+      <c r="Z6" s="78">
         <v>10</v>
       </c>
-      <c r="AA6" s="79">
+      <c r="AA6" s="78">
         <v>3</v>
       </c>
       <c r="AB6" s="14">
@@ -14642,16 +14645,16 @@
       <c r="AC6" s="14">
         <v>4</v>
       </c>
-      <c r="AD6" s="83">
+      <c r="AD6" s="82">
         <v>1.9</v>
       </c>
-      <c r="AE6" s="83">
+      <c r="AE6" s="82">
         <v>2.9</v>
       </c>
-      <c r="AF6" s="83">
+      <c r="AF6" s="82">
         <v>1.17</v>
       </c>
-      <c r="AG6" s="83">
+      <c r="AG6" s="82">
         <v>1.07</v>
       </c>
       <c r="AH6" s="15">
@@ -14689,69 +14692,69 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79">
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78">
         <v>3</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="87">
         <v>2.4039999999999999</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="87">
         <v>2.419</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="87">
         <v>2.4380000000000002</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="87">
         <v>2.4969999999999999</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88">
+      <c r="M7" s="87"/>
+      <c r="N7" s="87">
         <v>2.4670000000000001</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O7" s="87">
         <v>2.4969999999999999</v>
       </c>
-      <c r="P7" s="88">
+      <c r="P7" s="87">
         <v>2.516</v>
       </c>
-      <c r="Q7" s="88">
+      <c r="Q7" s="87">
         <v>2.5470000000000002</v>
       </c>
-      <c r="R7" s="88">
+      <c r="R7" s="87">
         <v>2.5710000000000002</v>
       </c>
-      <c r="S7" s="88">
+      <c r="S7" s="87">
         <v>2.633</v>
       </c>
-      <c r="T7" s="88">
+      <c r="T7" s="87">
         <v>2.4990000000000001</v>
       </c>
-      <c r="U7" s="88">
+      <c r="U7" s="87">
         <v>2.944</v>
       </c>
-      <c r="V7" s="88">
+      <c r="V7" s="87">
         <v>2.9670000000000001</v>
       </c>
-      <c r="W7" s="88">
+      <c r="W7" s="87">
         <v>3.016</v>
       </c>
-      <c r="X7" s="88">
+      <c r="X7" s="87">
         <v>5.1059999999999999</v>
       </c>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="79">
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="78">
         <v>10</v>
       </c>
-      <c r="AA7" s="79">
+      <c r="AA7" s="78">
         <v>3</v>
       </c>
       <c r="AB7" s="14">
@@ -14760,20 +14763,20 @@
       <c r="AC7" s="14">
         <v>4</v>
       </c>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
-      <c r="AM7" s="135"/>
-      <c r="AN7" s="135"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="136"/>
+      <c r="AM7" s="134"/>
+      <c r="AN7" s="134"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="135"/>
       <c r="AR7" s="48"/>
     </row>
     <row r="8" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14783,77 +14786,77 @@
       <c r="B8" s="20">
         <v>0.95</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <v>547.1</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="81">
         <v>1085</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="81">
         <v>2404</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>4120</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="79">
         <v>2</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="79">
         <v>2</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="83">
         <v>2.379</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="83">
         <v>2.403</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="83">
         <v>2.4060000000000001</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="83">
         <v>2.4119999999999999</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84">
+      <c r="M8" s="83"/>
+      <c r="N8" s="83">
         <v>2.5110000000000001</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="83">
         <v>2.5369999999999999</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="83">
         <v>2.5390000000000001</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="83">
         <v>2.5670000000000002</v>
       </c>
-      <c r="R8" s="84">
+      <c r="R8" s="83">
         <v>2.589</v>
       </c>
-      <c r="S8" s="84">
+      <c r="S8" s="83">
         <v>2.7410000000000001</v>
       </c>
-      <c r="T8" s="84">
+      <c r="T8" s="83">
         <v>2.508</v>
       </c>
-      <c r="U8" s="84">
+      <c r="U8" s="83">
         <v>2.9529999999999998</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="83">
         <v>2.9990000000000001</v>
       </c>
-      <c r="W8" s="84">
+      <c r="W8" s="83">
         <v>3.0779999999999998</v>
       </c>
-      <c r="X8" s="84">
+      <c r="X8" s="83">
         <v>4.4829999999999997</v>
       </c>
-      <c r="Y8" s="84">
+      <c r="Y8" s="83">
         <v>4.5449999999999999</v>
       </c>
-      <c r="Z8" s="80">
+      <c r="Z8" s="79">
         <v>10</v>
       </c>
-      <c r="AA8" s="80">
+      <c r="AA8" s="79">
         <v>3</v>
       </c>
       <c r="AB8" s="18">
@@ -14909,69 +14912,69 @@
       </c>
     </row>
     <row r="9" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79">
         <v>3</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="83">
         <v>2.3809999999999998</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="83">
         <v>2.3849999999999998</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="83">
         <v>2.4260000000000002</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="83">
         <v>2.48</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84">
+      <c r="M9" s="83"/>
+      <c r="N9" s="83">
         <v>2.4580000000000002</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="83">
         <v>2.472</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="83">
         <v>2.5169999999999999</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="83">
         <v>2.5369999999999999</v>
       </c>
-      <c r="R9" s="84">
+      <c r="R9" s="83">
         <v>2.5920000000000001</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="83">
         <v>2.617</v>
       </c>
-      <c r="T9" s="84">
+      <c r="T9" s="83">
         <v>2.4860000000000002</v>
       </c>
-      <c r="U9" s="84">
+      <c r="U9" s="83">
         <v>2.95</v>
       </c>
-      <c r="V9" s="84">
+      <c r="V9" s="83">
         <v>2.97</v>
       </c>
-      <c r="W9" s="84">
+      <c r="W9" s="83">
         <v>3.01</v>
       </c>
-      <c r="X9" s="84">
+      <c r="X9" s="83">
         <v>4.55</v>
       </c>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="80">
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="79">
         <v>10</v>
       </c>
-      <c r="AA9" s="80">
+      <c r="AA9" s="79">
         <v>3</v>
       </c>
       <c r="AB9" s="18">
@@ -14980,7 +14983,7 @@
       <c r="AC9" s="18">
         <v>4</v>
       </c>
-      <c r="AD9" s="134"/>
+      <c r="AD9" s="133"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
@@ -14989,11 +14992,11 @@
       <c r="AJ9" s="20"/>
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="136"/>
+      <c r="AM9" s="134"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="132"/>
+      <c r="AP9" s="132"/>
+      <c r="AQ9" s="135"/>
       <c r="AR9" s="49"/>
     </row>
     <row r="10" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -15003,77 +15006,77 @@
       <c r="B10" s="15">
         <v>0.94</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="80">
         <v>593.4</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="80">
         <v>1170</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <v>1990</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="80">
         <v>4250</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="78">
         <v>2</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="78">
         <v>2</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="87">
         <v>2.3639999999999999</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="87">
         <v>2.3889999999999998</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="87">
         <v>2.3919999999999999</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="87">
         <v>2.3980000000000001</v>
       </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88">
+      <c r="M10" s="87"/>
+      <c r="N10" s="87">
         <v>2.4940000000000002</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="87">
         <v>2.5179999999999998</v>
       </c>
-      <c r="P10" s="88">
+      <c r="P10" s="87">
         <v>2.528</v>
       </c>
-      <c r="Q10" s="88">
+      <c r="Q10" s="87">
         <v>2.552</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10" s="87">
         <v>2.5779999999999998</v>
       </c>
-      <c r="S10" s="88">
+      <c r="S10" s="87">
         <v>2.754</v>
       </c>
-      <c r="T10" s="88">
+      <c r="T10" s="87">
         <v>2.4969999999999999</v>
       </c>
-      <c r="U10" s="88">
+      <c r="U10" s="87">
         <v>2.94</v>
       </c>
-      <c r="V10" s="88">
+      <c r="V10" s="87">
         <v>2.9809999999999999</v>
       </c>
-      <c r="W10" s="88">
+      <c r="W10" s="87">
         <v>3.0790000000000002</v>
       </c>
-      <c r="X10" s="88">
+      <c r="X10" s="87">
         <v>4.4850000000000003</v>
       </c>
-      <c r="Y10" s="88">
+      <c r="Y10" s="87">
         <v>4.53</v>
       </c>
-      <c r="Z10" s="79">
+      <c r="Z10" s="78">
         <v>10</v>
       </c>
-      <c r="AA10" s="79">
+      <c r="AA10" s="78">
         <v>3</v>
       </c>
       <c r="AB10" s="13">
@@ -15082,16 +15085,16 @@
       <c r="AC10" s="13">
         <v>4</v>
       </c>
-      <c r="AD10" s="83">
+      <c r="AD10" s="82">
         <v>2.4</v>
       </c>
-      <c r="AE10" s="83">
+      <c r="AE10" s="82">
         <v>3.14</v>
       </c>
-      <c r="AF10" s="83">
+      <c r="AF10" s="82">
         <v>1.2</v>
       </c>
-      <c r="AG10" s="83">
+      <c r="AG10" s="82">
         <v>1.1100000000000001</v>
       </c>
       <c r="AH10" s="15">
@@ -15135,77 +15138,77 @@
       <c r="B11" s="20">
         <v>0.92</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="81">
         <v>565.79999999999995</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="81">
         <v>1110</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="81">
         <v>2114</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="81">
         <v>3839</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="79">
         <v>2</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="79">
         <v>2</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="83">
         <v>2.35</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="83">
         <v>2.3759999999999999</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="83">
         <v>2.38</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="83">
         <v>2.3879999999999999</v>
       </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84">
+      <c r="M11" s="83"/>
+      <c r="N11" s="83">
         <v>2.48</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="83">
         <v>2.508</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="83">
         <v>2.52</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="83">
         <v>2.524</v>
       </c>
-      <c r="R11" s="84">
+      <c r="R11" s="83">
         <v>2.5670000000000002</v>
       </c>
-      <c r="S11" s="84">
+      <c r="S11" s="83">
         <v>2.7440000000000002</v>
       </c>
-      <c r="T11" s="84">
+      <c r="T11" s="83">
         <v>2.484</v>
       </c>
-      <c r="U11" s="84">
+      <c r="U11" s="83">
         <v>2.92</v>
       </c>
-      <c r="V11" s="84">
+      <c r="V11" s="83">
         <v>2.95</v>
       </c>
-      <c r="W11" s="84">
+      <c r="W11" s="83">
         <v>3.0640000000000001</v>
       </c>
-      <c r="X11" s="84">
+      <c r="X11" s="83">
         <v>4.5199999999999996</v>
       </c>
-      <c r="Y11" s="84">
+      <c r="Y11" s="83">
         <v>4.5350000000000001</v>
       </c>
-      <c r="Z11" s="80">
+      <c r="Z11" s="79">
         <v>10</v>
       </c>
-      <c r="AA11" s="80">
+      <c r="AA11" s="79">
         <v>3</v>
       </c>
       <c r="AB11" s="19">
@@ -15267,67 +15270,67 @@
       <c r="B12" s="15">
         <v>0.91</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="80">
         <v>573</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <v>1130</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="80">
         <v>2200</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="80">
         <v>3990</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="101">
         <v>3</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="87">
         <v>2.351</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="87">
         <v>2.3580000000000001</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="87">
         <v>2.4009999999999998</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="87">
         <v>2.448</v>
       </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88">
+      <c r="M12" s="87"/>
+      <c r="N12" s="87">
         <v>2.423</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="87">
         <v>2.4390000000000001</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="87">
         <v>2.4809999999999999</v>
       </c>
-      <c r="Q12" s="88">
+      <c r="Q12" s="87">
         <v>2.5139999999999998</v>
       </c>
-      <c r="R12" s="88">
+      <c r="R12" s="87">
         <v>2.5640000000000001</v>
       </c>
-      <c r="S12" s="88">
+      <c r="S12" s="87">
         <v>2.597</v>
       </c>
-      <c r="T12" s="88">
+      <c r="T12" s="87">
         <v>2.4580000000000002</v>
       </c>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="79">
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="78">
         <v>10</v>
       </c>
-      <c r="AA12" s="79">
+      <c r="AA12" s="78">
         <v>3</v>
       </c>
       <c r="AB12" s="14">
@@ -15336,16 +15339,16 @@
       <c r="AC12" s="14">
         <v>4</v>
       </c>
-      <c r="AD12" s="83">
+      <c r="AD12" s="82">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AE12" s="83">
+      <c r="AE12" s="82">
         <v>3.15</v>
       </c>
-      <c r="AF12" s="83">
+      <c r="AF12" s="82">
         <v>1.22</v>
       </c>
-      <c r="AG12" s="83">
+      <c r="AG12" s="82">
         <v>1.1000000000000001</v>
       </c>
       <c r="AH12" s="15">
@@ -15389,75 +15392,75 @@
       <c r="B13" s="20">
         <v>0.9</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="81">
         <v>581</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <v>1140</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <v>2204</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="81">
         <v>4100</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="101">
         <v>3</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="83">
         <v>2.3370000000000002</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="83">
         <v>2.3410000000000002</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="83">
         <v>2.3730000000000002</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="83">
         <v>2.4350000000000001</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84">
+      <c r="M13" s="83"/>
+      <c r="N13" s="83">
         <v>2.419</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="83">
         <v>2.4300000000000002</v>
       </c>
-      <c r="P13" s="84">
+      <c r="P13" s="83">
         <v>2.4590000000000001</v>
       </c>
-      <c r="Q13" s="84">
+      <c r="Q13" s="83">
         <v>2.504</v>
       </c>
-      <c r="R13" s="84">
+      <c r="R13" s="83">
         <v>2.5630000000000002</v>
       </c>
-      <c r="S13" s="84">
+      <c r="S13" s="83">
         <v>2.5960000000000001</v>
       </c>
-      <c r="T13" s="84">
+      <c r="T13" s="83">
         <v>2.4460000000000002</v>
       </c>
-      <c r="U13" s="84">
+      <c r="U13" s="83">
         <v>2.9089999999999998</v>
       </c>
-      <c r="V13" s="84">
+      <c r="V13" s="83">
         <v>2.9220000000000002</v>
       </c>
-      <c r="W13" s="84">
+      <c r="W13" s="83">
         <v>2.9660000000000002</v>
       </c>
-      <c r="X13" s="84">
+      <c r="X13" s="83">
         <v>4.47</v>
       </c>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="80">
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="79">
         <v>10</v>
       </c>
-      <c r="AA13" s="80">
+      <c r="AA13" s="79">
         <v>3</v>
       </c>
       <c r="AB13" s="19">
@@ -15519,75 +15522,75 @@
       <c r="B14" s="15">
         <v>0.89</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="80">
         <v>589.29999999999995</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="80">
         <v>1150</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="80">
         <v>2194</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="80">
         <v>4120</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="101">
         <v>3</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="87">
         <v>2.3340000000000001</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="87">
         <v>2.339</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="87">
         <v>2.3650000000000002</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="87">
         <v>2.423</v>
       </c>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88">
+      <c r="M14" s="87"/>
+      <c r="N14" s="87">
         <v>2.4079999999999999</v>
       </c>
-      <c r="O14" s="88">
+      <c r="O14" s="87">
         <v>2.4249999999999998</v>
       </c>
-      <c r="P14" s="88">
+      <c r="P14" s="87">
         <v>2.4550000000000001</v>
       </c>
-      <c r="Q14" s="88">
+      <c r="Q14" s="87">
         <v>2.504</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14" s="87">
         <v>2.5680000000000001</v>
       </c>
-      <c r="S14" s="88">
+      <c r="S14" s="87">
         <v>2.6070000000000002</v>
       </c>
-      <c r="T14" s="88">
+      <c r="T14" s="87">
         <v>2.4430000000000001</v>
       </c>
-      <c r="U14" s="88">
+      <c r="U14" s="87">
         <v>2.9049999999999998</v>
       </c>
-      <c r="V14" s="88">
+      <c r="V14" s="87">
         <v>2.9209999999999998</v>
       </c>
-      <c r="W14" s="88">
+      <c r="W14" s="87">
         <v>2.9689999999999999</v>
       </c>
-      <c r="X14" s="88">
+      <c r="X14" s="87">
         <v>4.8460000000000001</v>
       </c>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="79">
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="78">
         <v>10</v>
       </c>
-      <c r="AA14" s="79">
+      <c r="AA14" s="78">
         <v>3</v>
       </c>
       <c r="AB14" s="13">
@@ -15596,16 +15599,16 @@
       <c r="AC14" s="13">
         <v>4</v>
       </c>
-      <c r="AD14" s="83">
+      <c r="AD14" s="82">
         <v>2.02</v>
       </c>
-      <c r="AE14" s="83">
+      <c r="AE14" s="82">
         <v>3.21</v>
       </c>
-      <c r="AF14" s="83">
+      <c r="AF14" s="82">
         <v>1.24</v>
       </c>
-      <c r="AG14" s="83">
+      <c r="AG14" s="82">
         <v>1.1100000000000001</v>
       </c>
       <c r="AH14" s="15">
@@ -15649,75 +15652,75 @@
       <c r="B15" s="20">
         <v>0.88</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="81">
         <v>596.70000000000005</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="81">
         <v>1160</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="81">
         <v>2285</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="81">
         <v>4120</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="101">
         <v>3</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="101">
         <v>3</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="83">
         <v>2.323</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="83">
         <v>2.3239999999999998</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="83">
         <v>2.3530000000000002</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="83">
         <v>2.4089999999999998</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84">
+      <c r="M15" s="83"/>
+      <c r="N15" s="83">
         <v>2.3980000000000001</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="83">
         <v>2.4180000000000001</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="83">
         <v>2.448</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="83">
         <v>2.508</v>
       </c>
-      <c r="R15" s="84">
+      <c r="R15" s="83">
         <v>2.5680000000000001</v>
       </c>
-      <c r="S15" s="84">
+      <c r="S15" s="83">
         <v>2.6190000000000002</v>
       </c>
-      <c r="T15" s="84">
+      <c r="T15" s="83">
         <v>2.4380000000000002</v>
       </c>
-      <c r="U15" s="84">
+      <c r="U15" s="83">
         <v>2.903</v>
       </c>
-      <c r="V15" s="84">
+      <c r="V15" s="83">
         <v>2.9209999999999998</v>
       </c>
-      <c r="W15" s="84">
+      <c r="W15" s="83">
         <v>2.9689999999999999</v>
       </c>
-      <c r="X15" s="84">
+      <c r="X15" s="83">
         <v>5.53</v>
       </c>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="80">
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="79">
         <v>10</v>
       </c>
-      <c r="AA15" s="80">
+      <c r="AA15" s="79">
         <v>3</v>
       </c>
       <c r="AB15" s="18">
@@ -15773,71 +15776,71 @@
       </c>
     </row>
     <row r="16" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102">
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101">
         <v>2</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="83">
         <v>2.29</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="83">
         <v>2.3250000000000002</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="83">
         <v>2.3279999999999998</v>
       </c>
-      <c r="L16" s="84">
+      <c r="L16" s="83">
         <v>2.3359999999999999</v>
       </c>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84">
+      <c r="M16" s="83"/>
+      <c r="N16" s="83">
         <v>2.4039999999999999</v>
       </c>
-      <c r="O16" s="84">
+      <c r="O16" s="83">
         <v>2.4180000000000001</v>
       </c>
-      <c r="P16" s="84">
+      <c r="P16" s="83">
         <v>2.468</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="83">
         <v>2.504</v>
       </c>
-      <c r="R16" s="84">
+      <c r="R16" s="83">
         <v>2.5249999999999999</v>
       </c>
-      <c r="S16" s="84">
+      <c r="S16" s="83">
         <v>2.9910000000000001</v>
       </c>
-      <c r="T16" s="84">
+      <c r="T16" s="83">
         <v>2.4590000000000001</v>
       </c>
-      <c r="U16" s="84">
+      <c r="U16" s="83">
         <v>2.9009999999999998</v>
       </c>
-      <c r="V16" s="84">
+      <c r="V16" s="83">
         <v>2.879</v>
       </c>
-      <c r="W16" s="84">
+      <c r="W16" s="83">
         <v>3.145</v>
       </c>
-      <c r="X16" s="84">
+      <c r="X16" s="83">
         <v>4.43</v>
       </c>
-      <c r="Y16" s="84">
+      <c r="Y16" s="83">
         <v>4.4530000000000003</v>
       </c>
-      <c r="Z16" s="80">
+      <c r="Z16" s="79">
         <v>10</v>
       </c>
-      <c r="AA16" s="80">
+      <c r="AA16" s="79">
         <v>3</v>
       </c>
       <c r="AB16" s="18">
@@ -15846,7 +15849,7 @@
       <c r="AC16" s="18">
         <v>4</v>
       </c>
-      <c r="AD16" s="134"/>
+      <c r="AD16" s="133"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
@@ -15855,11 +15858,11 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
-      <c r="AM16" s="135"/>
-      <c r="AN16" s="135"/>
-      <c r="AO16" s="133"/>
-      <c r="AP16" s="133"/>
-      <c r="AQ16" s="136"/>
+      <c r="AM16" s="134"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="132"/>
+      <c r="AP16" s="132"/>
+      <c r="AQ16" s="135"/>
       <c r="AR16" s="49"/>
     </row>
     <row r="17" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15869,69 +15872,69 @@
       <c r="B17" s="15">
         <v>0.87</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="80">
         <v>603.4</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="80">
         <v>1174.8</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="80">
         <v>2417</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="80">
         <v>4203</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G17" s="136" t="s">
         <v>474</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="101">
         <v>3</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="87">
         <v>2.3010000000000002</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="87">
         <v>2.3079999999999998</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="87">
         <v>2.3370000000000002</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="87">
         <v>2.3879999999999999</v>
       </c>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88">
+      <c r="M17" s="87"/>
+      <c r="N17" s="87">
         <v>2.3769999999999998</v>
       </c>
-      <c r="O17" s="88">
+      <c r="O17" s="87">
         <v>2.4</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="87">
         <v>2.4239999999999999</v>
       </c>
-      <c r="Q17" s="88">
+      <c r="Q17" s="87">
         <v>2.4969999999999999</v>
       </c>
-      <c r="R17" s="88">
+      <c r="R17" s="87">
         <v>2.5739999999999998</v>
       </c>
-      <c r="S17" s="88">
+      <c r="S17" s="87">
         <v>2.6419999999999999</v>
       </c>
-      <c r="T17" s="88">
+      <c r="T17" s="87">
         <v>2.4249999999999998</v>
       </c>
-      <c r="U17" s="88">
+      <c r="U17" s="87">
         <v>2.8</v>
       </c>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="79">
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="78">
         <v>10</v>
       </c>
-      <c r="AA17" s="79">
+      <c r="AA17" s="78">
         <v>3</v>
       </c>
       <c r="AB17" s="13">
@@ -15940,16 +15943,16 @@
       <c r="AC17" s="13">
         <v>4</v>
       </c>
-      <c r="AD17" s="83">
+      <c r="AD17" s="82">
         <v>1.78</v>
       </c>
-      <c r="AE17" s="83">
+      <c r="AE17" s="82">
         <v>3.12</v>
       </c>
-      <c r="AF17" s="83">
+      <c r="AF17" s="82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG17" s="83">
+      <c r="AG17" s="82">
         <v>1.06</v>
       </c>
       <c r="AH17" s="15">
@@ -15987,65 +15990,65 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102">
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101">
         <v>4</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="87">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J18" s="88">
+      <c r="J18" s="87">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="87">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88">
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87">
         <v>2.3940000000000001</v>
       </c>
-      <c r="O18" s="88">
+      <c r="O18" s="87">
         <v>2.3940000000000001</v>
       </c>
-      <c r="P18" s="88">
+      <c r="P18" s="87">
         <v>2.3940000000000001</v>
       </c>
-      <c r="Q18" s="88">
+      <c r="Q18" s="87">
         <v>2.4350000000000001</v>
       </c>
-      <c r="R18" s="88">
+      <c r="R18" s="87">
         <v>2.4350000000000001</v>
       </c>
-      <c r="S18" s="88">
+      <c r="S18" s="87">
         <v>2.4350000000000001</v>
       </c>
-      <c r="T18" s="88">
+      <c r="T18" s="87">
         <v>2.3690000000000002</v>
       </c>
-      <c r="U18" s="88">
+      <c r="U18" s="87">
         <v>2.8330000000000002</v>
       </c>
-      <c r="V18" s="88">
+      <c r="V18" s="87">
         <v>2.8330000000000002</v>
       </c>
-      <c r="W18" s="88">
+      <c r="W18" s="87">
         <v>2.8330000000000002</v>
       </c>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="79">
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="78">
         <v>9</v>
       </c>
-      <c r="AA18" s="79">
+      <c r="AA18" s="78">
         <v>3</v>
       </c>
       <c r="AB18" s="13">
@@ -16054,20 +16057,20 @@
       <c r="AC18" s="13">
         <v>3</v>
       </c>
-      <c r="AD18" s="134"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
-      <c r="AM18" s="135"/>
-      <c r="AN18" s="135"/>
-      <c r="AO18" s="133"/>
-      <c r="AP18" s="133"/>
-      <c r="AQ18" s="136"/>
+      <c r="AM18" s="134"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="132"/>
+      <c r="AP18" s="132"/>
+      <c r="AQ18" s="135"/>
       <c r="AR18" s="48"/>
     </row>
     <row r="19" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16077,73 +16080,73 @@
       <c r="B19" s="20">
         <v>0.86</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="81">
         <v>523.5</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="81">
         <v>1340</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="81">
         <v>2022.3</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="81">
         <v>4370</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="101">
         <v>8</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="101">
         <v>5</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="83">
         <v>2.2320000000000002</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="83">
         <v>2.27</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="83">
         <v>2.274</v>
       </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84">
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83">
         <v>2.3650000000000002</v>
       </c>
-      <c r="O19" s="84">
+      <c r="O19" s="83">
         <v>2.3580000000000001</v>
       </c>
-      <c r="P19" s="84">
+      <c r="P19" s="83">
         <v>2.3780000000000001</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="83">
         <v>2.4140000000000001</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="83">
         <v>2.44</v>
       </c>
-      <c r="S19" s="84">
+      <c r="S19" s="83">
         <v>2.4740000000000002</v>
       </c>
-      <c r="T19" s="86">
+      <c r="T19" s="85">
         <v>2.3559999999999999</v>
       </c>
-      <c r="U19" s="84">
+      <c r="U19" s="83">
         <v>2.8029999999999999</v>
       </c>
-      <c r="V19" s="84">
+      <c r="V19" s="83">
         <v>2.827</v>
       </c>
-      <c r="W19" s="84">
+      <c r="W19" s="83">
         <v>2.8730000000000002</v>
       </c>
-      <c r="X19" s="84">
+      <c r="X19" s="83">
         <v>4.742</v>
       </c>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="99">
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="98">
         <v>9</v>
       </c>
-      <c r="AA19" s="99">
+      <c r="AA19" s="98">
         <v>3</v>
       </c>
       <c r="AB19" s="18">
@@ -16199,65 +16202,65 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102">
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101">
         <v>6</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="83">
         <v>2.2690000000000001</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="83">
         <v>2.27</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="83">
         <v>2.294</v>
       </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84">
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83">
         <v>2.343</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="83">
         <v>2.375</v>
       </c>
-      <c r="P20" s="84">
+      <c r="P20" s="83">
         <v>2.3860000000000001</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="83">
         <v>2.4</v>
       </c>
-      <c r="R20" s="84">
+      <c r="R20" s="83">
         <v>2.42</v>
       </c>
-      <c r="S20" s="84">
+      <c r="S20" s="83">
         <v>2.44</v>
       </c>
-      <c r="T20" s="86">
+      <c r="T20" s="85">
         <v>2.355</v>
       </c>
-      <c r="U20" s="84">
+      <c r="U20" s="83">
         <v>2.12</v>
       </c>
-      <c r="V20" s="84">
+      <c r="V20" s="83">
         <v>2.8050000000000002</v>
       </c>
-      <c r="W20" s="84">
+      <c r="W20" s="83">
         <v>3.3889999999999998</v>
       </c>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="99">
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="98">
         <v>9</v>
       </c>
-      <c r="AA20" s="99">
+      <c r="AA20" s="98">
         <v>3</v>
       </c>
       <c r="AB20" s="18">
@@ -16266,7 +16269,7 @@
       <c r="AC20" s="18">
         <v>3</v>
       </c>
-      <c r="AD20" s="134"/>
+      <c r="AD20" s="133"/>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
@@ -16275,11 +16278,11 @@
       <c r="AJ20" s="20"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="135"/>
-      <c r="AN20" s="135"/>
-      <c r="AO20" s="133"/>
-      <c r="AP20" s="133"/>
-      <c r="AQ20" s="136"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="132"/>
+      <c r="AP20" s="132"/>
+      <c r="AQ20" s="135"/>
       <c r="AR20" s="49"/>
     </row>
     <row r="21" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16301,59 +16304,59 @@
       <c r="F21" s="15">
         <v>5847</v>
       </c>
-      <c r="G21" s="103">
+      <c r="G21" s="102">
         <v>2</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="102">
         <v>2</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="82">
         <v>2.3330000000000002</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="82">
         <v>2.3530000000000002</v>
       </c>
-      <c r="K21" s="83">
+      <c r="K21" s="82">
         <v>2.3540000000000001</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="82">
         <v>2.3679999999999999</v>
       </c>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83">
+      <c r="M21" s="82"/>
+      <c r="N21" s="82">
         <v>2.44</v>
       </c>
-      <c r="O21" s="83">
+      <c r="O21" s="82">
         <v>2.4580000000000002</v>
       </c>
-      <c r="P21" s="83">
+      <c r="P21" s="82">
         <v>2.4990000000000001</v>
       </c>
-      <c r="Q21" s="83">
+      <c r="Q21" s="82">
         <v>2.5049999999999999</v>
       </c>
-      <c r="R21" s="83">
+      <c r="R21" s="82">
         <v>2.5499999999999998</v>
       </c>
-      <c r="S21" s="83">
+      <c r="S21" s="82">
         <v>2.84</v>
       </c>
-      <c r="T21" s="83">
+      <c r="T21" s="82">
         <v>2.4700000000000002</v>
       </c>
-      <c r="U21" s="83">
+      <c r="U21" s="82">
         <v>2.9169999999999998</v>
       </c>
-      <c r="V21" s="83">
+      <c r="V21" s="82">
         <v>2.9319999999999999</v>
       </c>
-      <c r="W21" s="83">
+      <c r="W21" s="82">
         <v>3.1</v>
       </c>
-      <c r="X21" s="83">
+      <c r="X21" s="82">
         <v>5.09</v>
       </c>
-      <c r="Y21" s="83">
+      <c r="Y21" s="82">
         <v>5.79</v>
       </c>
       <c r="Z21" s="13">
@@ -16368,16 +16371,16 @@
       <c r="AC21" s="13">
         <v>4</v>
       </c>
-      <c r="AD21" s="83">
+      <c r="AD21" s="82">
         <v>2.52</v>
       </c>
-      <c r="AE21" s="83">
+      <c r="AE21" s="82">
         <v>3.26</v>
       </c>
-      <c r="AF21" s="83">
+      <c r="AF21" s="82">
         <v>1.22</v>
       </c>
-      <c r="AG21" s="83">
+      <c r="AG21" s="82">
         <v>1.1100000000000001</v>
       </c>
       <c r="AH21" s="15"/>
@@ -16399,65 +16402,65 @@
       </c>
     </row>
     <row r="22" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103">
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102">
         <v>3</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="82">
         <v>2.3359999999999999</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="82">
         <v>2.343</v>
       </c>
-      <c r="K22" s="83">
+      <c r="K22" s="82">
         <v>2.37</v>
       </c>
-      <c r="L22" s="83">
+      <c r="L22" s="82">
         <v>2.4249999999999998</v>
       </c>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83">
+      <c r="M22" s="82"/>
+      <c r="N22" s="82">
         <v>2.4239999999999999</v>
       </c>
-      <c r="O22" s="83">
+      <c r="O22" s="82">
         <v>2.448</v>
       </c>
-      <c r="P22" s="83">
+      <c r="P22" s="82">
         <v>2.468</v>
       </c>
-      <c r="Q22" s="83">
+      <c r="Q22" s="82">
         <v>2.5150000000000001</v>
       </c>
-      <c r="R22" s="83">
+      <c r="R22" s="82">
         <v>2.5790000000000002</v>
       </c>
-      <c r="S22" s="83">
+      <c r="S22" s="82">
         <v>2.609</v>
       </c>
-      <c r="T22" s="83">
+      <c r="T22" s="82">
         <v>2.452</v>
       </c>
-      <c r="U22" s="83">
+      <c r="U22" s="82">
         <v>2.9159999999999999</v>
       </c>
-      <c r="V22" s="83">
+      <c r="V22" s="82">
         <v>2.9449999999999998</v>
       </c>
-      <c r="W22" s="83">
+      <c r="W22" s="82">
         <v>2.976</v>
       </c>
-      <c r="X22" s="83">
+      <c r="X22" s="82">
         <v>5.54</v>
       </c>
-      <c r="Y22" s="83"/>
+      <c r="Y22" s="82"/>
       <c r="Z22" s="13">
         <v>10</v>
       </c>
@@ -16470,20 +16473,20 @@
       <c r="AC22" s="13">
         <v>4</v>
       </c>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
-      <c r="AM22" s="135"/>
-      <c r="AN22" s="135"/>
-      <c r="AO22" s="133"/>
-      <c r="AP22" s="133"/>
-      <c r="AQ22" s="136"/>
+      <c r="AM22" s="134"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="132"/>
+      <c r="AQ22" s="135"/>
       <c r="AR22" s="48"/>
     </row>
     <row r="23" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16505,10 +16508,10 @@
       <c r="F23" s="20">
         <v>7090.6</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="102">
         <v>9</v>
       </c>
-      <c r="H23" s="103"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -16517,7 +16520,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="89"/>
+      <c r="Q23" s="88"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -16615,10 +16618,10 @@
       <c r="AH24" s="58"/>
       <c r="AI24" s="55"/>
       <c r="AJ24" s="55"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100">
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99">
         <v>5.63</v>
       </c>
       <c r="AO24" s="58"/>
@@ -16646,8 +16649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17053,8 +17056,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>26</v>
+      <c r="A10" s="138" t="s">
+        <v>325</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="24">
@@ -17085,51 +17088,51 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="124">
+      <c r="B11" s="70"/>
+      <c r="C11" s="123">
         <v>100</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="123">
         <v>250</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="123">
         <v>2</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="123">
         <v>0</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="123">
         <v>0</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124">
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123">
         <v>3</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17160,7 +17163,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="128" t="s">
         <v>458</v>
       </c>
       <c r="B1" t="s">
@@ -17177,75 +17180,75 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="130">
+      <c r="A2" s="129">
         <v>20</v>
       </c>
-      <c r="B2" s="127">
+      <c r="B2" s="126">
         <v>5.76</v>
       </c>
-      <c r="C2" s="127">
+      <c r="C2" s="126">
         <v>5.56</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="126">
         <v>5.55</v>
       </c>
-      <c r="E2" s="127">
+      <c r="E2" s="126">
         <v>5.86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="130">
+      <c r="A3" s="129">
         <v>50</v>
       </c>
-      <c r="B3" s="127">
+      <c r="B3" s="126">
         <v>5.42</v>
       </c>
-      <c r="C3" s="127">
+      <c r="C3" s="126">
         <v>5.39</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="126">
         <v>5.31</v>
       </c>
-      <c r="E3" s="127">
+      <c r="E3" s="126">
         <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="130">
+      <c r="A4" s="129">
         <v>100</v>
       </c>
-      <c r="B4" s="127">
+      <c r="B4" s="126">
         <v>5.03</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <v>5.35</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="126">
         <v>5.01</v>
       </c>
-      <c r="E4" s="127">
+      <c r="E4" s="126">
         <v>6.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="130">
+      <c r="A5" s="129">
         <v>134</v>
       </c>
-      <c r="B5" s="127">
+      <c r="B5" s="126">
         <v>4.8600000000000003</v>
       </c>
-      <c r="C5" s="127">
+      <c r="C5" s="126">
         <v>5.52</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="126">
         <v>4.91</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="126">
         <v>6.02</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="127" t="s">
         <v>457</v>
       </c>
     </row>
@@ -17289,31 +17292,31 @@
       <c r="D1" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="121" t="s">
         <v>448</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="122" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="122" t="s">
         <v>441</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="122" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="L1" s="122" t="s">
         <v>443</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="M1" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="N1" s="123" t="s">
+      <c r="N1" s="122" t="s">
         <v>445</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="122" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17327,34 +17330,34 @@
       <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <v>25</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="123">
+      <c r="H2" s="122">
         <v>20</v>
       </c>
-      <c r="I2" s="123">
+      <c r="I2" s="122">
         <v>0</v>
       </c>
-      <c r="J2" s="123">
+      <c r="J2" s="122">
         <v>0</v>
       </c>
-      <c r="K2" s="123">
+      <c r="K2" s="122">
         <v>0</v>
       </c>
-      <c r="L2" s="123">
+      <c r="L2" s="122">
         <v>0</v>
       </c>
-      <c r="M2" s="123">
+      <c r="M2" s="122">
         <v>0</v>
       </c>
-      <c r="N2" s="123">
+      <c r="N2" s="122">
         <v>0</v>
       </c>
-      <c r="O2" s="123">
+      <c r="O2" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17368,34 +17371,34 @@
       <c r="C3" s="30">
         <v>0</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="73">
         <v>23</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="122">
         <v>50</v>
       </c>
-      <c r="I3" s="123">
+      <c r="I3" s="122">
         <v>12</v>
       </c>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <v>16</v>
       </c>
-      <c r="K3" s="123">
+      <c r="K3" s="122">
         <v>16</v>
       </c>
-      <c r="L3" s="123">
+      <c r="L3" s="122">
         <v>16</v>
       </c>
-      <c r="M3" s="123">
+      <c r="M3" s="122">
         <v>16</v>
       </c>
-      <c r="N3" s="123">
+      <c r="N3" s="122">
         <v>0</v>
       </c>
-      <c r="O3" s="123">
+      <c r="O3" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17409,34 +17412,34 @@
       <c r="C4" s="29">
         <v>0</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <v>22</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="H4" s="123">
+      <c r="H4" s="122">
         <v>100</v>
       </c>
-      <c r="I4" s="123">
+      <c r="I4" s="122">
         <v>20</v>
       </c>
-      <c r="J4" s="123">
+      <c r="J4" s="122">
         <v>20</v>
       </c>
-      <c r="K4" s="123">
+      <c r="K4" s="122">
         <v>22</v>
       </c>
-      <c r="L4" s="123">
+      <c r="L4" s="122">
         <v>16</v>
       </c>
-      <c r="M4" s="123">
+      <c r="M4" s="122">
         <v>20</v>
       </c>
-      <c r="N4" s="123">
+      <c r="N4" s="122">
         <v>0</v>
       </c>
-      <c r="O4" s="123">
+      <c r="O4" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17450,34 +17453,34 @@
       <c r="C5" s="30">
         <v>0</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>16</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="122">
         <v>134</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="122">
         <v>22</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="122">
         <v>22</v>
       </c>
-      <c r="K5" s="123">
+      <c r="K5" s="122">
         <v>24</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="122">
         <v>20</v>
       </c>
-      <c r="M5" s="123">
+      <c r="M5" s="122">
         <v>20</v>
       </c>
-      <c r="N5" s="123">
+      <c r="N5" s="122">
         <v>0</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17491,34 +17494,34 @@
       <c r="C6" s="29">
         <v>0</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>20</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="121" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="122">
         <v>20</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="122">
         <v>0</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="122">
         <v>0</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="122">
         <v>0</v>
       </c>
-      <c r="L6" s="123">
+      <c r="L6" s="122">
         <v>0</v>
       </c>
-      <c r="M6" s="123">
+      <c r="M6" s="122">
         <v>0</v>
       </c>
-      <c r="N6" s="123">
+      <c r="N6" s="122">
         <v>0</v>
       </c>
-      <c r="O6" s="123">
+      <c r="O6" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17532,34 +17535,34 @@
       <c r="C7" s="30">
         <v>0</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>22</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="121" t="s">
         <v>450</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="122">
         <v>50</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="122">
         <v>11</v>
       </c>
-      <c r="J7" s="123">
+      <c r="J7" s="122">
         <v>14</v>
       </c>
-      <c r="K7" s="123">
+      <c r="K7" s="122">
         <v>18</v>
       </c>
-      <c r="L7" s="123">
+      <c r="L7" s="122">
         <v>15</v>
       </c>
-      <c r="M7" s="123">
+      <c r="M7" s="122">
         <v>15</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="122">
         <v>0</v>
       </c>
-      <c r="O7" s="123">
+      <c r="O7" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17573,34 +17576,34 @@
       <c r="C8" s="29">
         <v>0</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>24</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="121" t="s">
         <v>450</v>
       </c>
-      <c r="H8" s="123">
+      <c r="H8" s="122">
         <v>100</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="122">
         <v>17</v>
       </c>
-      <c r="J8" s="123">
+      <c r="J8" s="122">
         <v>19</v>
       </c>
-      <c r="K8" s="123">
+      <c r="K8" s="122">
         <v>18</v>
       </c>
-      <c r="L8" s="123">
+      <c r="L8" s="122">
         <v>18</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="122">
         <v>19</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="122">
         <v>0</v>
       </c>
-      <c r="O8" s="123">
+      <c r="O8" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17614,34 +17617,34 @@
       <c r="C9" s="30">
         <v>0</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <v>21</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="121" t="s">
         <v>450</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="122">
         <v>134</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="122">
         <v>22</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="122">
         <v>22</v>
       </c>
-      <c r="K9" s="123">
+      <c r="K9" s="122">
         <v>20</v>
       </c>
-      <c r="L9" s="123">
+      <c r="L9" s="122">
         <v>25</v>
       </c>
-      <c r="M9" s="123">
+      <c r="M9" s="122">
         <v>22</v>
       </c>
-      <c r="N9" s="123">
+      <c r="N9" s="122">
         <v>0</v>
       </c>
-      <c r="O9" s="123">
+      <c r="O9" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17655,34 +17658,34 @@
       <c r="C10" s="29">
         <v>0</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <v>21</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="121" t="s">
         <v>451</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="122">
         <v>20</v>
       </c>
-      <c r="I10" s="123">
+      <c r="I10" s="122">
         <v>0</v>
       </c>
-      <c r="J10" s="123">
+      <c r="J10" s="122">
         <v>0</v>
       </c>
-      <c r="K10" s="123">
+      <c r="K10" s="122">
         <v>0</v>
       </c>
-      <c r="L10" s="123">
+      <c r="L10" s="122">
         <v>0</v>
       </c>
-      <c r="M10" s="123">
+      <c r="M10" s="122">
         <v>0</v>
       </c>
-      <c r="N10" s="123">
+      <c r="N10" s="122">
         <v>0</v>
       </c>
-      <c r="O10" s="123">
+      <c r="O10" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17696,34 +17699,34 @@
       <c r="C11" s="30">
         <v>0</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="73">
         <v>20</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="121" t="s">
         <v>451</v>
       </c>
-      <c r="H11" s="123">
+      <c r="H11" s="122">
         <v>50</v>
       </c>
-      <c r="I11" s="123">
+      <c r="I11" s="122">
         <v>12</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="122">
         <v>12</v>
       </c>
-      <c r="K11" s="123">
+      <c r="K11" s="122">
         <v>12</v>
       </c>
-      <c r="L11" s="123">
+      <c r="L11" s="122">
         <v>13</v>
       </c>
-      <c r="M11" s="123">
+      <c r="M11" s="122">
         <v>12</v>
       </c>
-      <c r="N11" s="123">
+      <c r="N11" s="122">
         <v>0</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17737,34 +17740,34 @@
       <c r="C12" s="29">
         <v>0</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>21</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="121" t="s">
         <v>451</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="122">
         <v>100</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="122">
         <v>12</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="122">
         <v>15</v>
       </c>
-      <c r="K12" s="123">
+      <c r="K12" s="122">
         <v>20</v>
       </c>
-      <c r="L12" s="123">
+      <c r="L12" s="122">
         <v>17</v>
       </c>
-      <c r="M12" s="123">
+      <c r="M12" s="122">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="122">
         <v>0</v>
       </c>
-      <c r="O12" s="123">
+      <c r="O12" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17778,34 +17781,34 @@
       <c r="C13" s="30">
         <v>0</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="73">
         <v>24</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="121" t="s">
         <v>451</v>
       </c>
-      <c r="H13" s="123">
+      <c r="H13" s="122">
         <v>134</v>
       </c>
-      <c r="I13" s="123">
+      <c r="I13" s="122">
         <v>23</v>
       </c>
-      <c r="J13" s="123">
+      <c r="J13" s="122">
         <v>23</v>
       </c>
-      <c r="K13" s="123">
+      <c r="K13" s="122">
         <v>23</v>
       </c>
-      <c r="L13" s="123">
+      <c r="L13" s="122">
         <v>22</v>
       </c>
-      <c r="M13" s="123">
+      <c r="M13" s="122">
         <v>21</v>
       </c>
-      <c r="N13" s="123">
+      <c r="N13" s="122">
         <v>0</v>
       </c>
-      <c r="O13" s="123">
+      <c r="O13" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17819,34 +17822,34 @@
       <c r="C14" s="29">
         <v>0</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="72">
         <v>20</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="H14" s="123">
+      <c r="H14" s="122">
         <v>20</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="122">
         <v>0</v>
       </c>
-      <c r="J14" s="123">
+      <c r="J14" s="122">
         <v>10</v>
       </c>
-      <c r="K14" s="123">
+      <c r="K14" s="122">
         <v>0</v>
       </c>
-      <c r="L14" s="123">
+      <c r="L14" s="122">
         <v>12</v>
       </c>
-      <c r="M14" s="123">
+      <c r="M14" s="122">
         <v>20</v>
       </c>
-      <c r="N14" s="123">
+      <c r="N14" s="122">
         <v>0</v>
       </c>
-      <c r="O14" s="123">
+      <c r="O14" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17860,34 +17863,34 @@
       <c r="C15" s="30">
         <v>0</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="73">
         <v>20</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="122">
         <v>50</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="122">
         <v>14</v>
       </c>
-      <c r="J15" s="123">
+      <c r="J15" s="122">
         <v>16</v>
       </c>
-      <c r="K15" s="123">
+      <c r="K15" s="122">
         <v>14</v>
       </c>
-      <c r="L15" s="123">
+      <c r="L15" s="122">
         <v>15</v>
       </c>
-      <c r="M15" s="123">
+      <c r="M15" s="122">
         <v>16</v>
       </c>
-      <c r="N15" s="123">
+      <c r="N15" s="122">
         <v>0</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17901,34 +17904,34 @@
       <c r="C16" s="29">
         <v>0</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <v>22</v>
       </c>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="122">
         <v>100</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="122">
         <v>18</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J16" s="122">
         <v>20</v>
       </c>
-      <c r="K16" s="123">
+      <c r="K16" s="122">
         <v>18</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="122">
         <v>19</v>
       </c>
-      <c r="M16" s="123">
+      <c r="M16" s="122">
         <v>20</v>
       </c>
-      <c r="N16" s="123">
+      <c r="N16" s="122">
         <v>0</v>
       </c>
-      <c r="O16" s="123">
+      <c r="O16" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17942,34 +17945,34 @@
       <c r="C17" s="30">
         <v>0</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="73">
         <v>25</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="122">
         <v>134</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="122">
         <v>20</v>
       </c>
-      <c r="J17" s="123">
+      <c r="J17" s="122">
         <v>22</v>
       </c>
-      <c r="K17" s="123">
+      <c r="K17" s="122">
         <v>22</v>
       </c>
-      <c r="L17" s="123">
+      <c r="L17" s="122">
         <v>21</v>
       </c>
-      <c r="M17" s="123">
+      <c r="M17" s="122">
         <v>23</v>
       </c>
-      <c r="N17" s="123">
+      <c r="N17" s="122">
         <v>0</v>
       </c>
-      <c r="O17" s="123">
+      <c r="O17" s="122">
         <v>0</v>
       </c>
     </row>
@@ -17983,7 +17986,7 @@
       <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17997,7 +18000,7 @@
       <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <v>38</v>
       </c>
     </row>
@@ -18011,7 +18014,7 @@
       <c r="C20" s="29">
         <v>1</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>40</v>
       </c>
     </row>
@@ -18025,7 +18028,7 @@
       <c r="C21" s="30">
         <v>1</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <v>45</v>
       </c>
     </row>
@@ -18039,7 +18042,7 @@
       <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="72">
         <v>46</v>
       </c>
     </row>
@@ -18053,7 +18056,7 @@
       <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <v>33</v>
       </c>
     </row>
@@ -18067,7 +18070,7 @@
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="72">
         <v>43</v>
       </c>
     </row>
@@ -18081,7 +18084,7 @@
       <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="73">
         <v>50</v>
       </c>
     </row>
@@ -18095,7 +18098,7 @@
       <c r="C26" s="29">
         <v>1</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="72">
         <v>45</v>
       </c>
     </row>
@@ -18109,7 +18112,7 @@
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <v>42</v>
       </c>
     </row>
@@ -18123,7 +18126,7 @@
       <c r="C28" s="29">
         <v>1</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="72">
         <v>48</v>
       </c>
     </row>
@@ -18137,7 +18140,7 @@
       <c r="C29" s="30">
         <v>1</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="73">
         <v>42</v>
       </c>
     </row>
@@ -18151,7 +18154,7 @@
       <c r="C30" s="29">
         <v>1</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="72">
         <v>28</v>
       </c>
     </row>
@@ -18165,7 +18168,7 @@
       <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="73">
         <v>42</v>
       </c>
     </row>
@@ -18179,7 +18182,7 @@
       <c r="C32" s="29">
         <v>1</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="72">
         <v>32</v>
       </c>
     </row>
@@ -18193,7 +18196,7 @@
       <c r="C33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="73">
         <v>46</v>
       </c>
     </row>
@@ -18207,7 +18210,7 @@
       <c r="C34" s="29">
         <v>1</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="72">
         <v>12</v>
       </c>
     </row>
@@ -18221,7 +18224,7 @@
       <c r="C35" s="30">
         <v>0</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="73">
         <v>20</v>
       </c>
     </row>
@@ -18235,7 +18238,7 @@
       <c r="C36" s="29">
         <v>0</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="72">
         <v>26</v>
       </c>
     </row>
@@ -18249,7 +18252,7 @@
       <c r="C37" s="30">
         <v>0</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="73">
         <v>23</v>
       </c>
     </row>
@@ -18263,7 +18266,7 @@
       <c r="C38" s="29">
         <v>0</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="72">
         <v>24</v>
       </c>
     </row>
@@ -18277,7 +18280,7 @@
       <c r="C39" s="30">
         <v>0</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="73">
         <v>21</v>
       </c>
     </row>
@@ -18291,7 +18294,7 @@
       <c r="C40" s="29">
         <v>0</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="72">
         <v>22</v>
       </c>
     </row>
@@ -18305,7 +18308,7 @@
       <c r="C41" s="30">
         <v>0</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="73">
         <v>21</v>
       </c>
     </row>
@@ -18319,7 +18322,7 @@
       <c r="C42" s="29">
         <v>0</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="72">
         <v>16</v>
       </c>
     </row>
@@ -18333,7 +18336,7 @@
       <c r="C43" s="30">
         <v>0</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="73">
         <v>18</v>
       </c>
     </row>
@@ -18347,7 +18350,7 @@
       <c r="C44" s="29">
         <v>0</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <v>20</v>
       </c>
     </row>
@@ -18361,7 +18364,7 @@
       <c r="C45" s="30">
         <v>0</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="73">
         <v>18</v>
       </c>
     </row>
@@ -18375,7 +18378,7 @@
       <c r="C46" s="29">
         <v>0</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <v>21</v>
       </c>
     </row>
@@ -18389,7 +18392,7 @@
       <c r="C47" s="30">
         <v>0</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="73">
         <v>17</v>
       </c>
     </row>
@@ -18403,7 +18406,7 @@
       <c r="C48" s="29">
         <v>0</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="72">
         <v>18</v>
       </c>
     </row>
@@ -18417,7 +18420,7 @@
       <c r="C49" s="30">
         <v>0</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="73">
         <v>21</v>
       </c>
     </row>
@@ -18431,7 +18434,7 @@
       <c r="C50" s="29">
         <v>0</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="72">
         <v>23</v>
       </c>
     </row>
@@ -18445,7 +18448,7 @@
       <c r="C51" s="30">
         <v>0</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="73">
         <v>0</v>
       </c>
     </row>
@@ -18459,7 +18462,7 @@
       <c r="C52" s="29">
         <v>1</v>
       </c>
-      <c r="D52" s="73">
+      <c r="D52" s="72">
         <v>38</v>
       </c>
     </row>
@@ -18473,7 +18476,7 @@
       <c r="C53" s="30">
         <v>1</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="73">
         <v>40</v>
       </c>
     </row>
@@ -18487,7 +18490,7 @@
       <c r="C54" s="29">
         <v>1</v>
       </c>
-      <c r="D54" s="73">
+      <c r="D54" s="72">
         <v>38</v>
       </c>
     </row>
@@ -18501,7 +18504,7 @@
       <c r="C55" s="30">
         <v>1</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="73">
         <v>37</v>
       </c>
     </row>
@@ -18515,7 +18518,7 @@
       <c r="C56" s="29">
         <v>1</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="72">
         <v>31</v>
       </c>
     </row>
@@ -18529,7 +18532,7 @@
       <c r="C57" s="30">
         <v>1</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="73">
         <v>36</v>
       </c>
     </row>
@@ -18543,7 +18546,7 @@
       <c r="C58" s="29">
         <v>1</v>
       </c>
-      <c r="D58" s="73">
+      <c r="D58" s="72">
         <v>33</v>
       </c>
     </row>
@@ -18557,7 +18560,7 @@
       <c r="C59" s="30">
         <v>1</v>
       </c>
-      <c r="D59" s="74">
+      <c r="D59" s="73">
         <v>38</v>
       </c>
     </row>
@@ -18571,7 +18574,7 @@
       <c r="C60" s="29">
         <v>1</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D60" s="72">
         <v>42</v>
       </c>
     </row>
@@ -18585,7 +18588,7 @@
       <c r="C61" s="30">
         <v>1</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="73">
         <v>42</v>
       </c>
     </row>
@@ -18599,7 +18602,7 @@
       <c r="C62" s="29">
         <v>1</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D62" s="72">
         <v>38</v>
       </c>
     </row>
@@ -18613,7 +18616,7 @@
       <c r="C63" s="30">
         <v>1</v>
       </c>
-      <c r="D63" s="74">
+      <c r="D63" s="73">
         <v>30</v>
       </c>
     </row>
@@ -18627,7 +18630,7 @@
       <c r="C64" s="29">
         <v>1</v>
       </c>
-      <c r="D64" s="73">
+      <c r="D64" s="72">
         <v>36</v>
       </c>
     </row>
@@ -18641,7 +18644,7 @@
       <c r="C65" s="30">
         <v>1</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="73">
         <v>23</v>
       </c>
     </row>
@@ -18655,7 +18658,7 @@
       <c r="C66" s="29">
         <v>1</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D66" s="72">
         <v>32</v>
       </c>
     </row>
@@ -18669,7 +18672,7 @@
       <c r="C67" s="30">
         <v>1</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="73">
         <v>27</v>
       </c>
     </row>
@@ -18683,7 +18686,7 @@
       <c r="C68" s="29">
         <v>0</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="72">
         <v>24</v>
       </c>
     </row>
@@ -18697,7 +18700,7 @@
       <c r="C69" s="30">
         <v>0</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="73">
         <v>24</v>
       </c>
     </row>
@@ -18711,7 +18714,7 @@
       <c r="C70" s="29">
         <v>0</v>
       </c>
-      <c r="D70" s="73">
+      <c r="D70" s="72">
         <v>21</v>
       </c>
     </row>
@@ -18725,7 +18728,7 @@
       <c r="C71" s="30">
         <v>0</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="73">
         <v>24</v>
       </c>
     </row>
@@ -18739,7 +18742,7 @@
       <c r="C72" s="29">
         <v>0</v>
       </c>
-      <c r="D72" s="73">
+      <c r="D72" s="72">
         <v>20</v>
       </c>
     </row>
@@ -18753,7 +18756,7 @@
       <c r="C73" s="30">
         <v>0</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="73">
         <v>20</v>
       </c>
     </row>
@@ -18767,7 +18770,7 @@
       <c r="C74" s="29">
         <v>0</v>
       </c>
-      <c r="D74" s="73">
+      <c r="D74" s="72">
         <v>22</v>
       </c>
     </row>
@@ -18781,7 +18784,7 @@
       <c r="C75" s="30">
         <v>0</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="73">
         <v>17</v>
       </c>
     </row>
@@ -18795,7 +18798,7 @@
       <c r="C76" s="29">
         <v>0</v>
       </c>
-      <c r="D76" s="73">
+      <c r="D76" s="72">
         <v>23</v>
       </c>
     </row>
@@ -18809,7 +18812,7 @@
       <c r="C77" s="30">
         <v>0</v>
       </c>
-      <c r="D77" s="74">
+      <c r="D77" s="73">
         <v>21</v>
       </c>
     </row>
@@ -18823,7 +18826,7 @@
       <c r="C78" s="29">
         <v>0</v>
       </c>
-      <c r="D78" s="73">
+      <c r="D78" s="72">
         <v>20</v>
       </c>
     </row>
@@ -18837,7 +18840,7 @@
       <c r="C79" s="30">
         <v>0</v>
       </c>
-      <c r="D79" s="74">
+      <c r="D79" s="73">
         <v>20</v>
       </c>
     </row>
@@ -18851,7 +18854,7 @@
       <c r="C80" s="29">
         <v>0</v>
       </c>
-      <c r="D80" s="73">
+      <c r="D80" s="72">
         <v>25</v>
       </c>
     </row>
@@ -18865,7 +18868,7 @@
       <c r="C81" s="30">
         <v>0</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D81" s="73">
         <v>22</v>
       </c>
     </row>
@@ -18879,7 +18882,7 @@
       <c r="C82" s="29">
         <v>0</v>
       </c>
-      <c r="D82" s="73">
+      <c r="D82" s="72">
         <v>25</v>
       </c>
     </row>
@@ -18893,7 +18896,7 @@
       <c r="C83" s="30">
         <v>0</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="73">
         <v>25</v>
       </c>
     </row>
@@ -18907,7 +18910,7 @@
       <c r="C84" s="29">
         <v>0</v>
       </c>
-      <c r="D84" s="73">
+      <c r="D84" s="72">
         <v>46</v>
       </c>
     </row>
@@ -18921,7 +18924,7 @@
       <c r="C85" s="30">
         <v>1</v>
       </c>
-      <c r="D85" s="74">
+      <c r="D85" s="73">
         <v>40</v>
       </c>
     </row>
@@ -18935,7 +18938,7 @@
       <c r="C86" s="29">
         <v>1</v>
       </c>
-      <c r="D86" s="73">
+      <c r="D86" s="72">
         <v>40</v>
       </c>
     </row>
@@ -18949,7 +18952,7 @@
       <c r="C87" s="30">
         <v>1</v>
       </c>
-      <c r="D87" s="74">
+      <c r="D87" s="73">
         <v>45</v>
       </c>
     </row>
@@ -18963,7 +18966,7 @@
       <c r="C88" s="29">
         <v>1</v>
       </c>
-      <c r="D88" s="73">
+      <c r="D88" s="72">
         <v>37</v>
       </c>
     </row>
@@ -18977,7 +18980,7 @@
       <c r="C89" s="30">
         <v>1</v>
       </c>
-      <c r="D89" s="74">
+      <c r="D89" s="73">
         <v>40</v>
       </c>
     </row>
@@ -18991,7 +18994,7 @@
       <c r="C90" s="29">
         <v>1</v>
       </c>
-      <c r="D90" s="73">
+      <c r="D90" s="72">
         <v>40</v>
       </c>
     </row>
@@ -19005,7 +19008,7 @@
       <c r="C91" s="30">
         <v>1</v>
       </c>
-      <c r="D91" s="74">
+      <c r="D91" s="73">
         <v>28</v>
       </c>
     </row>
@@ -19019,7 +19022,7 @@
       <c r="C92" s="29">
         <v>1</v>
       </c>
-      <c r="D92" s="73">
+      <c r="D92" s="72">
         <v>39</v>
       </c>
     </row>
@@ -19033,7 +19036,7 @@
       <c r="C93" s="30">
         <v>1</v>
       </c>
-      <c r="D93" s="74">
+      <c r="D93" s="73">
         <v>39</v>
       </c>
     </row>
@@ -19047,7 +19050,7 @@
       <c r="C94" s="29">
         <v>1</v>
       </c>
-      <c r="D94" s="73">
+      <c r="D94" s="72">
         <v>46</v>
       </c>
     </row>
@@ -19061,7 +19064,7 @@
       <c r="C95" s="30">
         <v>1</v>
       </c>
-      <c r="D95" s="74">
+      <c r="D95" s="73">
         <v>30</v>
       </c>
     </row>
@@ -19075,7 +19078,7 @@
       <c r="C96" s="29">
         <v>1</v>
       </c>
-      <c r="D96" s="73">
+      <c r="D96" s="72">
         <v>36</v>
       </c>
     </row>
@@ -19089,7 +19092,7 @@
       <c r="C97" s="30">
         <v>1</v>
       </c>
-      <c r="D97" s="74">
+      <c r="D97" s="73">
         <v>36</v>
       </c>
     </row>
@@ -19103,7 +19106,7 @@
       <c r="C98" s="29">
         <v>1</v>
       </c>
-      <c r="D98" s="73">
+      <c r="D98" s="72">
         <v>28</v>
       </c>
     </row>
@@ -19117,7 +19120,7 @@
       <c r="C99" s="30">
         <v>1</v>
       </c>
-      <c r="D99" s="74">
+      <c r="D99" s="73">
         <v>40</v>
       </c>
     </row>
@@ -19131,7 +19134,7 @@
       <c r="C100" s="29">
         <v>1</v>
       </c>
-      <c r="D100" s="73">
+      <c r="D100" s="72">
         <v>27</v>
       </c>
     </row>
@@ -19145,7 +19148,7 @@
       <c r="C101" s="30">
         <v>1</v>
       </c>
-      <c r="D101" s="74">
+      <c r="D101" s="73">
         <v>42</v>
       </c>
     </row>
@@ -19159,7 +19162,7 @@
       <c r="C102" s="29">
         <v>1</v>
       </c>
-      <c r="D102" s="73">
+      <c r="D102" s="72">
         <v>38</v>
       </c>
     </row>
@@ -19173,7 +19176,7 @@
       <c r="C103" s="30">
         <v>1</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="73">
         <v>41</v>
       </c>
     </row>
@@ -19187,7 +19190,7 @@
       <c r="C104" s="29">
         <v>1</v>
       </c>
-      <c r="D104" s="73">
+      <c r="D104" s="72">
         <v>42</v>
       </c>
     </row>
@@ -19201,7 +19204,7 @@
       <c r="C105" s="30">
         <v>1</v>
       </c>
-      <c r="D105" s="74">
+      <c r="D105" s="73">
         <v>35</v>
       </c>
     </row>
@@ -19215,7 +19218,7 @@
       <c r="C106" s="29">
         <v>1</v>
       </c>
-      <c r="D106" s="73">
+      <c r="D106" s="72">
         <v>38</v>
       </c>
     </row>
@@ -19229,7 +19232,7 @@
       <c r="C107" s="30">
         <v>1</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="73">
         <v>38</v>
       </c>
     </row>
@@ -19243,7 +19246,7 @@
       <c r="C108" s="29">
         <v>1</v>
       </c>
-      <c r="D108" s="73">
+      <c r="D108" s="72">
         <v>37</v>
       </c>
     </row>
@@ -19257,7 +19260,7 @@
       <c r="C109" s="30">
         <v>1</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="73">
         <v>38</v>
       </c>
     </row>
@@ -19271,7 +19274,7 @@
       <c r="C110" s="29">
         <v>1</v>
       </c>
-      <c r="D110" s="73">
+      <c r="D110" s="72">
         <v>32</v>
       </c>
     </row>
@@ -19285,7 +19288,7 @@
       <c r="C111" s="30">
         <v>1</v>
       </c>
-      <c r="D111" s="74">
+      <c r="D111" s="73">
         <v>37</v>
       </c>
     </row>
@@ -19299,7 +19302,7 @@
       <c r="C112" s="29">
         <v>1</v>
       </c>
-      <c r="D112" s="73">
+      <c r="D112" s="72">
         <v>40</v>
       </c>
     </row>
@@ -19313,7 +19316,7 @@
       <c r="C113" s="30">
         <v>1</v>
       </c>
-      <c r="D113" s="74">
+      <c r="D113" s="73">
         <v>42</v>
       </c>
     </row>
@@ -19327,7 +19330,7 @@
       <c r="C114" s="29">
         <v>1</v>
       </c>
-      <c r="D114" s="73">
+      <c r="D114" s="72">
         <v>40</v>
       </c>
     </row>
@@ -19341,7 +19344,7 @@
       <c r="C115" s="30">
         <v>1</v>
       </c>
-      <c r="D115" s="74">
+      <c r="D115" s="73">
         <v>53</v>
       </c>
     </row>
@@ -19355,7 +19358,7 @@
       <c r="C116" s="29">
         <v>1</v>
       </c>
-      <c r="D116" s="73">
+      <c r="D116" s="72">
         <v>50</v>
       </c>
     </row>
@@ -19369,7 +19372,7 @@
       <c r="C117" s="30">
         <v>1</v>
       </c>
-      <c r="D117" s="74">
+      <c r="D117" s="73">
         <v>52</v>
       </c>
     </row>
@@ -19383,7 +19386,7 @@
       <c r="C118" s="29">
         <v>1</v>
       </c>
-      <c r="D118" s="73">
+      <c r="D118" s="72">
         <v>53</v>
       </c>
     </row>
@@ -19397,7 +19400,7 @@
       <c r="C119" s="30">
         <v>1</v>
       </c>
-      <c r="D119" s="74">
+      <c r="D119" s="73">
         <v>48</v>
       </c>
     </row>
@@ -19411,7 +19414,7 @@
       <c r="C120" s="29">
         <v>1</v>
       </c>
-      <c r="D120" s="73">
+      <c r="D120" s="72">
         <v>43</v>
       </c>
     </row>
@@ -19425,7 +19428,7 @@
       <c r="C121" s="30">
         <v>1</v>
       </c>
-      <c r="D121" s="74">
+      <c r="D121" s="73">
         <v>52</v>
       </c>
     </row>
@@ -19439,7 +19442,7 @@
       <c r="C122" s="29">
         <v>1</v>
       </c>
-      <c r="D122" s="73">
+      <c r="D122" s="72">
         <v>48</v>
       </c>
     </row>
@@ -19453,7 +19456,7 @@
       <c r="C123" s="30">
         <v>1</v>
       </c>
-      <c r="D123" s="74">
+      <c r="D123" s="73">
         <v>52</v>
       </c>
     </row>
@@ -19467,7 +19470,7 @@
       <c r="C124" s="29">
         <v>1</v>
       </c>
-      <c r="D124" s="73">
+      <c r="D124" s="72">
         <v>44</v>
       </c>
     </row>
@@ -19481,7 +19484,7 @@
       <c r="C125" s="30">
         <v>1</v>
       </c>
-      <c r="D125" s="74">
+      <c r="D125" s="73">
         <v>45</v>
       </c>
     </row>
@@ -19495,7 +19498,7 @@
       <c r="C126" s="29">
         <v>1</v>
       </c>
-      <c r="D126" s="73">
+      <c r="D126" s="72">
         <v>53</v>
       </c>
     </row>
@@ -19509,7 +19512,7 @@
       <c r="C127" s="30">
         <v>1</v>
       </c>
-      <c r="D127" s="74">
+      <c r="D127" s="73">
         <v>50</v>
       </c>
     </row>
@@ -19523,7 +19526,7 @@
       <c r="C128" s="29">
         <v>1</v>
       </c>
-      <c r="D128" s="73">
+      <c r="D128" s="72">
         <v>43</v>
       </c>
     </row>
@@ -19537,7 +19540,7 @@
       <c r="C129" s="30">
         <v>1</v>
       </c>
-      <c r="D129" s="74">
+      <c r="D129" s="73">
         <v>48</v>
       </c>
     </row>
@@ -19551,7 +19554,7 @@
       <c r="C130" s="29">
         <v>1</v>
       </c>
-      <c r="D130" s="73">
+      <c r="D130" s="72">
         <v>44</v>
       </c>
     </row>
@@ -19565,7 +19568,7 @@
       <c r="C131" s="30">
         <v>1</v>
       </c>
-      <c r="D131" s="74">
+      <c r="D131" s="73">
         <v>42</v>
       </c>
     </row>
@@ -19579,7 +19582,7 @@
       <c r="C132" s="29">
         <v>1</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="72">
         <v>38</v>
       </c>
     </row>
@@ -19593,7 +19596,7 @@
       <c r="C133" s="30">
         <v>1</v>
       </c>
-      <c r="D133" s="74">
+      <c r="D133" s="73">
         <v>38</v>
       </c>
     </row>
@@ -19607,7 +19610,7 @@
       <c r="C134" s="29">
         <v>1</v>
       </c>
-      <c r="D134" s="73">
+      <c r="D134" s="72">
         <v>40</v>
       </c>
     </row>
@@ -19621,7 +19624,7 @@
       <c r="C135" s="30">
         <v>1</v>
       </c>
-      <c r="D135" s="74">
+      <c r="D135" s="73">
         <v>42</v>
       </c>
     </row>
@@ -19635,7 +19638,7 @@
       <c r="C136" s="29">
         <v>1</v>
       </c>
-      <c r="D136" s="73">
+      <c r="D136" s="72">
         <v>43</v>
       </c>
     </row>
@@ -19649,7 +19652,7 @@
       <c r="C137" s="30">
         <v>1</v>
       </c>
-      <c r="D137" s="74">
+      <c r="D137" s="73">
         <v>47</v>
       </c>
     </row>
@@ -19663,7 +19666,7 @@
       <c r="C138" s="29">
         <v>1</v>
       </c>
-      <c r="D138" s="73">
+      <c r="D138" s="72">
         <v>42</v>
       </c>
     </row>
@@ -19677,7 +19680,7 @@
       <c r="C139" s="30">
         <v>1</v>
       </c>
-      <c r="D139" s="74">
+      <c r="D139" s="73">
         <v>40</v>
       </c>
     </row>
@@ -19691,7 +19694,7 @@
       <c r="C140" s="29">
         <v>1</v>
       </c>
-      <c r="D140" s="73">
+      <c r="D140" s="72">
         <v>48</v>
       </c>
     </row>
@@ -19705,7 +19708,7 @@
       <c r="C141" s="30">
         <v>1</v>
       </c>
-      <c r="D141" s="74">
+      <c r="D141" s="73">
         <v>40</v>
       </c>
     </row>
@@ -19719,7 +19722,7 @@
       <c r="C142" s="29">
         <v>1</v>
       </c>
-      <c r="D142" s="73">
+      <c r="D142" s="72">
         <v>45</v>
       </c>
     </row>
@@ -19733,7 +19736,7 @@
       <c r="C143" s="30">
         <v>1</v>
       </c>
-      <c r="D143" s="74">
+      <c r="D143" s="73">
         <v>47</v>
       </c>
     </row>
@@ -19747,7 +19750,7 @@
       <c r="C144" s="29">
         <v>1</v>
       </c>
-      <c r="D144" s="73">
+      <c r="D144" s="72">
         <v>52</v>
       </c>
     </row>
@@ -19761,7 +19764,7 @@
       <c r="C145" s="30">
         <v>1</v>
       </c>
-      <c r="D145" s="74">
+      <c r="D145" s="73">
         <v>42</v>
       </c>
     </row>
@@ -19775,7 +19778,7 @@
       <c r="C146" s="29">
         <v>1</v>
       </c>
-      <c r="D146" s="73">
+      <c r="D146" s="72">
         <v>52</v>
       </c>
     </row>
@@ -19789,7 +19792,7 @@
       <c r="C147" s="30">
         <v>1</v>
       </c>
-      <c r="D147" s="74">
+      <c r="D147" s="73">
         <v>50</v>
       </c>
     </row>
@@ -19803,7 +19806,7 @@
       <c r="C148" s="29">
         <v>1</v>
       </c>
-      <c r="D148" s="73">
+      <c r="D148" s="72">
         <v>48</v>
       </c>
     </row>
@@ -19817,7 +19820,7 @@
       <c r="C149" s="30">
         <v>1</v>
       </c>
-      <c r="D149" s="74">
+      <c r="D149" s="73">
         <v>46</v>
       </c>
     </row>
@@ -19831,7 +19834,7 @@
       <c r="C150" s="29">
         <v>1</v>
       </c>
-      <c r="D150" s="73">
+      <c r="D150" s="72">
         <v>47</v>
       </c>
     </row>
@@ -19845,7 +19848,7 @@
       <c r="C151" s="30">
         <v>1</v>
       </c>
-      <c r="D151" s="74">
+      <c r="D151" s="73">
         <v>45</v>
       </c>
     </row>
@@ -19859,7 +19862,7 @@
       <c r="C152" s="29">
         <v>1</v>
       </c>
-      <c r="D152" s="73">
+      <c r="D152" s="72">
         <v>43</v>
       </c>
     </row>
@@ -19873,7 +19876,7 @@
       <c r="C153" s="30">
         <v>1</v>
       </c>
-      <c r="D153" s="74">
+      <c r="D153" s="73">
         <v>52</v>
       </c>
     </row>
@@ -19887,7 +19890,7 @@
       <c r="C154" s="29">
         <v>1</v>
       </c>
-      <c r="D154" s="73">
+      <c r="D154" s="72">
         <v>43</v>
       </c>
     </row>
@@ -19901,7 +19904,7 @@
       <c r="C155" s="30">
         <v>1</v>
       </c>
-      <c r="D155" s="74">
+      <c r="D155" s="73">
         <v>56</v>
       </c>
     </row>
@@ -19915,7 +19918,7 @@
       <c r="C156" s="29">
         <v>1</v>
       </c>
-      <c r="D156" s="73">
+      <c r="D156" s="72">
         <v>63</v>
       </c>
     </row>
@@ -19929,7 +19932,7 @@
       <c r="C157" s="30">
         <v>1</v>
       </c>
-      <c r="D157" s="74">
+      <c r="D157" s="73">
         <v>53</v>
       </c>
     </row>
@@ -19943,7 +19946,7 @@
       <c r="C158" s="29">
         <v>1</v>
       </c>
-      <c r="D158" s="73">
+      <c r="D158" s="72">
         <v>52</v>
       </c>
     </row>
@@ -19957,7 +19960,7 @@
       <c r="C159" s="30">
         <v>1</v>
       </c>
-      <c r="D159" s="74">
+      <c r="D159" s="73">
         <v>47</v>
       </c>
     </row>
@@ -19971,7 +19974,7 @@
       <c r="C160" s="29">
         <v>1</v>
       </c>
-      <c r="D160" s="73">
+      <c r="D160" s="72">
         <v>45</v>
       </c>
     </row>
@@ -19985,7 +19988,7 @@
       <c r="C161" s="30">
         <v>1</v>
       </c>
-      <c r="D161" s="74">
+      <c r="D161" s="73">
         <v>60</v>
       </c>
     </row>
@@ -19999,7 +20002,7 @@
       <c r="C162" s="29">
         <v>1</v>
       </c>
-      <c r="D162" s="73">
+      <c r="D162" s="72">
         <v>50</v>
       </c>
     </row>
@@ -20013,7 +20016,7 @@
       <c r="C163" s="30">
         <v>1</v>
       </c>
-      <c r="D163" s="74">
+      <c r="D163" s="73">
         <v>62</v>
       </c>
     </row>
@@ -20027,7 +20030,7 @@
       <c r="C164" s="29">
         <v>1</v>
       </c>
-      <c r="D164" s="73">
+      <c r="D164" s="72">
         <v>47</v>
       </c>
     </row>
@@ -20041,7 +20044,7 @@
       <c r="C165" s="30">
         <v>1</v>
       </c>
-      <c r="D165" s="74">
+      <c r="D165" s="73">
         <v>43</v>
       </c>
     </row>
@@ -20055,7 +20058,7 @@
       <c r="C166" s="29">
         <v>1</v>
       </c>
-      <c r="D166" s="73">
+      <c r="D166" s="72">
         <v>48</v>
       </c>
     </row>
@@ -20069,7 +20072,7 @@
       <c r="C167" s="30">
         <v>1</v>
       </c>
-      <c r="D167" s="74">
+      <c r="D167" s="73">
         <v>51</v>
       </c>
     </row>
@@ -20083,7 +20086,7 @@
       <c r="C168" s="29">
         <v>1</v>
       </c>
-      <c r="D168" s="73">
+      <c r="D168" s="72">
         <v>45</v>
       </c>
     </row>
@@ -20097,7 +20100,7 @@
       <c r="C169" s="30">
         <v>1</v>
       </c>
-      <c r="D169" s="74">
+      <c r="D169" s="73">
         <v>52</v>
       </c>
     </row>
@@ -20111,7 +20114,7 @@
       <c r="C170" s="29">
         <v>1</v>
       </c>
-      <c r="D170" s="73">
+      <c r="D170" s="72">
         <v>55</v>
       </c>
     </row>
@@ -20125,7 +20128,7 @@
       <c r="C171" s="30">
         <v>1</v>
       </c>
-      <c r="D171" s="74">
+      <c r="D171" s="73">
         <v>44</v>
       </c>
     </row>
@@ -20139,7 +20142,7 @@
       <c r="C172" s="29">
         <v>1</v>
       </c>
-      <c r="D172" s="73">
+      <c r="D172" s="72">
         <v>50</v>
       </c>
     </row>
@@ -20153,7 +20156,7 @@
       <c r="C173" s="30">
         <v>1</v>
       </c>
-      <c r="D173" s="74">
+      <c r="D173" s="73">
         <v>48</v>
       </c>
     </row>
@@ -20167,7 +20170,7 @@
       <c r="C174" s="29">
         <v>1</v>
       </c>
-      <c r="D174" s="73">
+      <c r="D174" s="72">
         <v>53</v>
       </c>
     </row>
@@ -20181,7 +20184,7 @@
       <c r="C175" s="30">
         <v>1</v>
       </c>
-      <c r="D175" s="74">
+      <c r="D175" s="73">
         <v>52</v>
       </c>
     </row>
@@ -20195,7 +20198,7 @@
       <c r="C176" s="29">
         <v>1</v>
       </c>
-      <c r="D176" s="73">
+      <c r="D176" s="72">
         <v>50</v>
       </c>
     </row>
@@ -20209,7 +20212,7 @@
       <c r="C177" s="30">
         <v>1</v>
       </c>
-      <c r="D177" s="74">
+      <c r="D177" s="73">
         <v>60</v>
       </c>
     </row>
@@ -20223,7 +20226,7 @@
       <c r="C178" s="29">
         <v>1</v>
       </c>
-      <c r="D178" s="73">
+      <c r="D178" s="72">
         <v>42</v>
       </c>
     </row>
@@ -20237,7 +20240,7 @@
       <c r="C179" s="30">
         <v>1</v>
       </c>
-      <c r="D179" s="74">
+      <c r="D179" s="73">
         <v>37</v>
       </c>
     </row>
@@ -20251,7 +20254,7 @@
       <c r="C180" s="29">
         <v>1</v>
       </c>
-      <c r="D180" s="73">
+      <c r="D180" s="72">
         <v>60</v>
       </c>
     </row>
@@ -20265,7 +20268,7 @@
       <c r="C181" s="30">
         <v>1</v>
       </c>
-      <c r="D181" s="74">
+      <c r="D181" s="73">
         <v>50</v>
       </c>
     </row>
@@ -20279,7 +20282,7 @@
       <c r="C182" s="29">
         <v>1</v>
       </c>
-      <c r="D182" s="73">
+      <c r="D182" s="72">
         <v>41</v>
       </c>
     </row>
@@ -20293,7 +20296,7 @@
       <c r="C183" s="30">
         <v>1</v>
       </c>
-      <c r="D183" s="74">
+      <c r="D183" s="73">
         <v>49</v>
       </c>
     </row>
@@ -20307,7 +20310,7 @@
       <c r="C184" s="29">
         <v>1</v>
       </c>
-      <c r="D184" s="73">
+      <c r="D184" s="72">
         <v>55</v>
       </c>
     </row>
@@ -20321,7 +20324,7 @@
       <c r="C185" s="30">
         <v>1</v>
       </c>
-      <c r="D185" s="74">
+      <c r="D185" s="73">
         <v>50</v>
       </c>
     </row>
@@ -20335,7 +20338,7 @@
       <c r="C186" s="29">
         <v>1</v>
       </c>
-      <c r="D186" s="73">
+      <c r="D186" s="72">
         <v>49</v>
       </c>
     </row>
@@ -20349,7 +20352,7 @@
       <c r="C187" s="30">
         <v>1</v>
       </c>
-      <c r="D187" s="74">
+      <c r="D187" s="73">
         <v>58</v>
       </c>
     </row>
@@ -20363,7 +20366,7 @@
       <c r="C188" s="29">
         <v>1</v>
       </c>
-      <c r="D188" s="73">
+      <c r="D188" s="72">
         <v>47</v>
       </c>
     </row>
@@ -20377,7 +20380,7 @@
       <c r="C189" s="30">
         <v>1</v>
       </c>
-      <c r="D189" s="74">
+      <c r="D189" s="73">
         <v>58</v>
       </c>
     </row>
@@ -20391,7 +20394,7 @@
       <c r="C190" s="29">
         <v>1</v>
       </c>
-      <c r="D190" s="73">
+      <c r="D190" s="72">
         <v>47</v>
       </c>
     </row>
@@ -20405,7 +20408,7 @@
       <c r="C191" s="30">
         <v>1</v>
       </c>
-      <c r="D191" s="74">
+      <c r="D191" s="73">
         <v>52</v>
       </c>
     </row>
@@ -20419,7 +20422,7 @@
       <c r="C192" s="29">
         <v>1</v>
       </c>
-      <c r="D192" s="73">
+      <c r="D192" s="72">
         <v>52</v>
       </c>
     </row>
@@ -20433,7 +20436,7 @@
       <c r="C193" s="30">
         <v>1</v>
       </c>
-      <c r="D193" s="74">
+      <c r="D193" s="73">
         <v>41</v>
       </c>
     </row>
@@ -20447,7 +20450,7 @@
       <c r="C194" s="29">
         <v>1</v>
       </c>
-      <c r="D194" s="73">
+      <c r="D194" s="72">
         <v>55</v>
       </c>
     </row>
@@ -20461,21 +20464,21 @@
       <c r="C195" s="30">
         <v>1</v>
       </c>
-      <c r="D195" s="74">
+      <c r="D195" s="73">
         <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="75" t="s">
+      <c r="A196" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="B196" s="76" t="s">
+      <c r="B196" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C196" s="77">
+      <c r="C196" s="76">
         <v>1</v>
       </c>
-      <c r="D196" s="78">
+      <c r="D196" s="77">
         <v>39</v>
       </c>
     </row>
@@ -20527,444 +20530,444 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="104" t="s">
         <v>334</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>346</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="112" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="107" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="109" t="s">
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="108" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="109" t="s">
         <v>472</v>
       </c>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="107" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="109" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="108" t="s">
         <v>464</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="109" t="s">
         <v>471</v>
       </c>
-      <c r="I7" s="104"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="111" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="111" t="s">
         <v>358</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="104"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="108" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="107" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="109" t="s">
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="108" t="s">
         <v>436</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="104"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="109" t="s">
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="104"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="107" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="109" t="s">
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="104"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="111" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114" t="s">
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="104"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="103"/>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="107" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116" t="s">
+      <c r="E13" s="115"/>
+      <c r="F13" s="115" t="s">
         <v>470</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="108" t="s">
         <v>469</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="104"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107" t="s">
         <v>467</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="109" t="s">
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="108" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="104"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="111" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="111" t="s">
         <v>367</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="111" t="s">
         <v>368</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114" t="s">
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113" t="s">
         <v>369</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="104"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="103"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="107" t="s">
         <v>370</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="109" t="s">
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="104"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
-      <c r="B17" s="117" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="116" t="s">
         <v>397</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117" t="s">
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116" t="s">
         <v>398</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="116" t="s">
         <v>406</v>
       </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="104"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118" t="s">
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="H18" s="118"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="117"/>
+      <c r="B19" s="118" t="s">
         <v>422</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="117" t="s">
         <v>403</v>
       </c>
-      <c r="H19" s="118"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="117"/>
+      <c r="B20" s="118" t="s">
         <v>433</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="G20" s="118" t="s">
+      <c r="G20" s="117" t="s">
         <v>434</v>
       </c>
-      <c r="H20" s="118"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119" t="s">
+      <c r="A21" s="117"/>
+      <c r="B21" s="118" t="s">
         <v>423</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="118" t="s">
+      <c r="F21" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="118" t="s">
         <v>404</v>
       </c>
-      <c r="H21" s="118"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="117"/>
+      <c r="B22" s="118" t="s">
         <v>418</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119" t="s">
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118" t="s">
         <v>345</v>
       </c>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="118" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="118"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="120" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="119" t="s">
         <v>415</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="117" t="s">
         <v>415</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="121" t="s">
+      <c r="D23" s="120"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="120" t="s">
         <v>416</v>
       </c>
-      <c r="H23" s="118"/>
+      <c r="H23" s="117"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120" t="s">
+      <c r="A24" s="117"/>
+      <c r="B24" s="119" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="121" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="118"/>
+      <c r="H24" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
+++ b/static/mock/antibio_data/20.02.2024 AntiBio_дополнено.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgramProj/ChemML/static/mock/antibio_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EF600-6F10-9C46-9E2E-F4CD0420C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB6980-BB42-6342-913E-C2965F3AECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="14400" windowWidth="25600" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="487">
   <si>
     <t>Table 1</t>
   </si>
@@ -9058,7 +9058,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9152,8 +9152,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9295,6 +9302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9782,7 +9795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10136,13 +10149,31 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="25" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10150,7 +10181,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="13"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11127,52 +11182,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CompoundsData" displayName="CompoundsData" ref="A1:AR24" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CompoundsData" displayName="CompoundsData" ref="A1:AR24" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:AR24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="REE" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ionic radii" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="1st Ionization energy" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2nd Ionization energy" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="3rd Ionization energy" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="4th Ionization energy" dataDxfId="45"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Crystal structure type" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="REE" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ionic radii" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="1st Ionization energy" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2nd Ionization energy" dataDxfId="48"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="3rd Ionization energy" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="4th Ionization energy" dataDxfId="46"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Crystal structure type" dataDxfId="45"/>
     <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Crystal structure type (literat.)"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="(salt)  d1-1H2O" dataDxfId="43"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="(salt)  d1-2H2O" dataDxfId="42"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="(salt)  d1-3H2O" dataDxfId="41"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="(salt) d1-4H2O" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="(salt)  d1-5H2O" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="(salt) d1-1NO3" dataDxfId="38"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="(salt) d1-2NO3" dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="(salt) d1-3NO3" dataDxfId="36"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="(salt) d1-4NO3" dataDxfId="35"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="(salt) d1-5NO3" dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="(salt) d1-6NO3" dataDxfId="33"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="(salt)  d1-1H2O" dataDxfId="44"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="(salt)  d1-2H2O" dataDxfId="43"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="(salt)  d1-3H2O" dataDxfId="42"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="(salt) d1-4H2O" dataDxfId="41"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="(salt)  d1-5H2O" dataDxfId="40"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="(salt) d1-1NO3" dataDxfId="39"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="(salt) d1-2NO3" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="(salt) d1-3NO3" dataDxfId="37"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="(salt) d1-4NO3" dataDxfId="36"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="(salt) d1-5NO3" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="(salt) d1-6NO3" dataDxfId="34"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="(salt) d1"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="(salt) d2-1NO3" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="(salt) d2-2NO3" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="(salt) d2-3NO3" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="(salt) d3-1H2O" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="(salt) d3-2H2O" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="(salt) d2-1NO3" dataDxfId="33"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="(salt) d2-2NO3" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="(salt) d2-3NO3" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="(salt) d3-1H2O" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="(salt) d3-2H2O" dataDxfId="29"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coordination number (solid) Ln-O"/>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Coordination number (solid) Ln-N"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="x" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="x" dataDxfId="28"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="n"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Electronegativity, Oganov" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Electronegativity, Malliken" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Electronegativity, Poland" dataDxfId="24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Electronegativity, Allred-Rochow" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="R1 (Ln-O)" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="R1 (Ln-N)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Electronegativity, Oganov" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Electronegativity, Malliken" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Electronegativity, Poland" dataDxfId="25"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Electronegativity, Allred-Rochow" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="R1 (Ln-O)" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="R1 (Ln-N)" dataDxfId="22"/>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="R2 (Ln-O)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coordination number solution 1(Ln-O)" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coordination number solution  1(Ln-N)" dataDxfId="19"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Coordination number solution 2(Ln-O)" dataDxfId="18"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="pH (conc=133,98)" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="lgβ Ln(NO3)3" dataDxfId="16"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="lgβ LnOH2-" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Electronic structure RE3+" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coordination number solution 1(Ln-O)" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coordination number solution  1(Ln-N)" dataDxfId="20"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Coordination number solution 2(Ln-O)" dataDxfId="19"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="pH (conc=133,98)" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="lgβ Ln(NO3)3" dataDxfId="17"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="lgβ LnOH2-" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Electronic structure RE3+" dataDxfId="15"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Price"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11180,10 +11235,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BacteriasData" displayName="BacteriasData" ref="A1:N12" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BacteriasData" displayName="BacteriasData" ref="A1:N12" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:N12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Gram-stain"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Wall thickness min"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Wall thickness max"/>
@@ -11196,20 +11251,21 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Proteins"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Penicillin sensitivity"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Well layers"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Well composition" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Well composition" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ExperimentsData" displayName="ExperimentsData" ref="A1:D196" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D196" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="REE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Bacteria" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Salt/Solution" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Stunting diameter" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ExperimentsData" displayName="ExperimentsData" ref="A1:E276" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E276" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="REE" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Bacteria" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Salt/Solution" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D9E020B8-EE6F-DE4A-8763-725CE4B56D91}" name="Stunting diameter" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Concentration, mM" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12437,35 +12493,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="1:27" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -13874,7 +13930,7 @@
   <dimension ref="A1:AR24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16649,7 +16705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="103" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -17056,7 +17112,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="137" t="s">
         <v>325</v>
       </c>
       <c r="B10" s="28"/>
@@ -17088,7 +17144,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="138" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="70"/>
@@ -17259,27 +17315,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:T276"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="11" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="11"/>
-    <col min="8" max="8" width="18.83203125" style="11" customWidth="1"/>
-    <col min="9" max="13" width="10.83203125" style="11"/>
-    <col min="14" max="14" width="15.5" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="11"/>
+    <col min="3" max="4" width="13.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="11" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="11"/>
+    <col min="9" max="9" width="18.83203125" style="11" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="11"/>
+    <col min="15" max="15" width="15.5" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>262</v>
       </c>
@@ -17292,35 +17348,11 @@
       <c r="D1" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="121" t="s">
-        <v>447</v>
-      </c>
-      <c r="H1" s="121" t="s">
+      <c r="E1" s="140" t="s">
         <v>448</v>
       </c>
-      <c r="I1" s="122" t="s">
-        <v>440</v>
-      </c>
-      <c r="J1" s="122" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" s="122" t="s">
-        <v>442</v>
-      </c>
-      <c r="L1" s="122" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" s="122" t="s">
-        <v>444</v>
-      </c>
-      <c r="N1" s="122" t="s">
-        <v>445</v>
-      </c>
-      <c r="O1" s="122" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>270</v>
       </c>
@@ -17333,201 +17365,81 @@
       <c r="D2" s="72">
         <v>25</v>
       </c>
-      <c r="G2" s="121" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" s="122">
-        <v>20</v>
-      </c>
-      <c r="I2" s="122">
-        <v>0</v>
-      </c>
-      <c r="J2" s="122">
-        <v>0</v>
-      </c>
-      <c r="K2" s="122">
-        <v>0</v>
-      </c>
-      <c r="L2" s="122">
-        <v>0</v>
-      </c>
-      <c r="M2" s="122">
-        <v>0</v>
-      </c>
-      <c r="N2" s="122">
-        <v>0</v>
-      </c>
-      <c r="O2" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="142">
         <v>0</v>
       </c>
-      <c r="D3" s="73">
-        <v>23</v>
-      </c>
-      <c r="G3" s="121" t="s">
+      <c r="D3" s="143">
+        <v>0</v>
+      </c>
+      <c r="E3" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
         <v>272</v>
-      </c>
-      <c r="H3" s="122">
-        <v>50</v>
-      </c>
-      <c r="I3" s="122">
-        <v>12</v>
-      </c>
-      <c r="J3" s="122">
-        <v>16</v>
-      </c>
-      <c r="K3" s="122">
-        <v>16</v>
-      </c>
-      <c r="L3" s="122">
-        <v>16</v>
-      </c>
-      <c r="M3" s="122">
-        <v>16</v>
-      </c>
-      <c r="N3" s="122">
-        <v>0</v>
-      </c>
-      <c r="O3" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>274</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="142">
         <v>0</v>
       </c>
-      <c r="D4" s="72">
-        <v>22</v>
-      </c>
-      <c r="G4" s="121" t="s">
-        <v>449</v>
-      </c>
-      <c r="H4" s="122">
+      <c r="D4" s="143">
+        <v>12</v>
+      </c>
+      <c r="E4" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="142">
+        <v>0</v>
+      </c>
+      <c r="D5" s="143">
+        <v>20</v>
+      </c>
+      <c r="E5" s="144">
         <v>100</v>
       </c>
-      <c r="I4" s="122">
-        <v>20</v>
-      </c>
-      <c r="J4" s="122">
-        <v>20</v>
-      </c>
-      <c r="K4" s="122">
-        <v>22</v>
-      </c>
-      <c r="L4" s="122">
-        <v>16</v>
-      </c>
-      <c r="M4" s="122">
-        <v>20</v>
-      </c>
-      <c r="N4" s="122">
-        <v>0</v>
-      </c>
-      <c r="O4" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="73">
-        <v>16</v>
-      </c>
-      <c r="G5" s="121" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="122">
-        <v>134</v>
-      </c>
-      <c r="I5" s="122">
-        <v>22</v>
-      </c>
-      <c r="J5" s="122">
-        <v>22</v>
-      </c>
-      <c r="K5" s="122">
-        <v>24</v>
-      </c>
-      <c r="L5" s="122">
-        <v>20</v>
-      </c>
-      <c r="M5" s="122">
-        <v>20</v>
-      </c>
-      <c r="N5" s="122">
-        <v>0</v>
-      </c>
-      <c r="O5" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>278</v>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>272</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="142">
         <v>0</v>
       </c>
-      <c r="D6" s="72">
-        <v>20</v>
-      </c>
-      <c r="G6" s="121" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" s="122">
-        <v>20</v>
-      </c>
-      <c r="I6" s="122">
-        <v>0</v>
-      </c>
-      <c r="J6" s="122">
-        <v>0</v>
-      </c>
-      <c r="K6" s="122">
-        <v>0</v>
-      </c>
-      <c r="L6" s="122">
-        <v>0</v>
-      </c>
-      <c r="M6" s="122">
-        <v>0</v>
-      </c>
-      <c r="N6" s="122">
-        <v>0</v>
-      </c>
-      <c r="O6" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="143">
+        <v>22</v>
+      </c>
+      <c r="E6" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>317</v>
@@ -17536,39 +17448,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="73">
-        <v>22</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" s="122">
-        <v>50</v>
-      </c>
-      <c r="I7" s="122">
-        <v>11</v>
-      </c>
-      <c r="J7" s="122">
-        <v>14</v>
-      </c>
-      <c r="K7" s="122">
-        <v>18</v>
-      </c>
-      <c r="L7" s="122">
-        <v>15</v>
-      </c>
-      <c r="M7" s="122">
-        <v>15</v>
-      </c>
-      <c r="N7" s="122">
-        <v>0</v>
-      </c>
-      <c r="O7" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>317</v>
@@ -17577,39 +17465,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="72">
-        <v>24</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>450</v>
-      </c>
-      <c r="H8" s="122">
-        <v>100</v>
-      </c>
-      <c r="I8" s="122">
-        <v>17</v>
-      </c>
-      <c r="J8" s="122">
-        <v>19</v>
-      </c>
-      <c r="K8" s="122">
-        <v>18</v>
-      </c>
-      <c r="L8" s="122">
-        <v>18</v>
-      </c>
-      <c r="M8" s="122">
-        <v>19</v>
-      </c>
-      <c r="N8" s="122">
-        <v>0</v>
-      </c>
-      <c r="O8" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E8" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>317</v>
@@ -17618,39 +17482,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="73">
-        <v>21</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>450</v>
-      </c>
-      <c r="H9" s="122">
+        <v>16</v>
+      </c>
+      <c r="E9" s="72">
         <v>134</v>
       </c>
-      <c r="I9" s="122">
-        <v>22</v>
-      </c>
-      <c r="J9" s="122">
-        <v>22</v>
-      </c>
-      <c r="K9" s="122">
-        <v>20</v>
-      </c>
-      <c r="L9" s="122">
-        <v>25</v>
-      </c>
-      <c r="M9" s="122">
-        <v>22</v>
-      </c>
-      <c r="N9" s="122">
-        <v>0</v>
-      </c>
-      <c r="O9" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>317</v>
@@ -17658,81 +17498,33 @@
       <c r="C10" s="29">
         <v>0</v>
       </c>
-      <c r="D10" s="72">
-        <v>21</v>
-      </c>
-      <c r="G10" s="121" t="s">
-        <v>451</v>
-      </c>
-      <c r="H10" s="122">
+      <c r="D10" s="143">
+        <v>0</v>
+      </c>
+      <c r="E10" s="144">
         <v>20</v>
       </c>
-      <c r="I10" s="122">
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="29">
         <v>0</v>
       </c>
-      <c r="J10" s="122">
-        <v>0</v>
-      </c>
-      <c r="K10" s="122">
-        <v>0</v>
-      </c>
-      <c r="L10" s="122">
-        <v>0</v>
-      </c>
-      <c r="M10" s="122">
-        <v>0</v>
-      </c>
-      <c r="N10" s="122">
-        <v>0</v>
-      </c>
-      <c r="O10" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <v>20</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>451</v>
-      </c>
-      <c r="H11" s="122">
+      <c r="D11" s="143">
+        <v>11</v>
+      </c>
+      <c r="E11" s="144">
         <v>50</v>
       </c>
-      <c r="I11" s="122">
-        <v>12</v>
-      </c>
-      <c r="J11" s="122">
-        <v>12</v>
-      </c>
-      <c r="K11" s="122">
-        <v>12</v>
-      </c>
-      <c r="L11" s="122">
-        <v>13</v>
-      </c>
-      <c r="M11" s="122">
-        <v>12</v>
-      </c>
-      <c r="N11" s="122">
-        <v>0</v>
-      </c>
-      <c r="O11" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>317</v>
@@ -17740,81 +17532,61 @@
       <c r="C12" s="29">
         <v>0</v>
       </c>
-      <c r="D12" s="72">
-        <v>21</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12" s="122">
+      <c r="D12" s="143">
+        <v>17</v>
+      </c>
+      <c r="E12" s="144">
         <v>100</v>
       </c>
-      <c r="I12" s="122">
-        <v>12</v>
-      </c>
-      <c r="J12" s="122">
-        <v>15</v>
-      </c>
-      <c r="K12" s="122">
-        <v>20</v>
-      </c>
-      <c r="L12" s="122">
-        <v>17</v>
-      </c>
-      <c r="M12" s="122">
-        <v>18</v>
-      </c>
-      <c r="N12" s="122">
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="29">
         <v>0</v>
       </c>
-      <c r="O12" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="73">
-        <v>24</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>451</v>
-      </c>
-      <c r="H13" s="122">
+      <c r="D13" s="143">
+        <v>22</v>
+      </c>
+      <c r="E13" s="144">
         <v>134</v>
       </c>
-      <c r="I13" s="122">
-        <v>23</v>
-      </c>
-      <c r="J13" s="122">
-        <v>23</v>
-      </c>
-      <c r="K13" s="122">
-        <v>23</v>
-      </c>
-      <c r="L13" s="122">
-        <v>22</v>
-      </c>
-      <c r="M13" s="122">
-        <v>21</v>
-      </c>
-      <c r="N13" s="122">
-        <v>0</v>
-      </c>
-      <c r="O13" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>317</v>
@@ -17825,37 +17597,27 @@
       <c r="D14" s="72">
         <v>20</v>
       </c>
-      <c r="G14" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" s="122">
-        <v>20</v>
-      </c>
-      <c r="I14" s="122">
-        <v>0</v>
-      </c>
-      <c r="J14" s="122">
-        <v>10</v>
-      </c>
-      <c r="K14" s="122">
-        <v>0</v>
-      </c>
-      <c r="L14" s="122">
-        <v>12</v>
-      </c>
-      <c r="M14" s="122">
-        <v>20</v>
-      </c>
-      <c r="N14" s="122">
-        <v>0</v>
-      </c>
-      <c r="O14" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="72">
+        <v>134</v>
+      </c>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>317</v>
@@ -17864,39 +17626,29 @@
         <v>0</v>
       </c>
       <c r="D15" s="73">
-        <v>20</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="122">
-        <v>50</v>
-      </c>
-      <c r="I15" s="122">
-        <v>14</v>
-      </c>
-      <c r="J15" s="122">
-        <v>16</v>
-      </c>
-      <c r="K15" s="122">
-        <v>14</v>
-      </c>
-      <c r="L15" s="122">
-        <v>15</v>
-      </c>
-      <c r="M15" s="122">
-        <v>16</v>
-      </c>
-      <c r="N15" s="122">
-        <v>0</v>
-      </c>
-      <c r="O15" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="72">
+        <v>134</v>
+      </c>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>317</v>
@@ -17904,81 +17656,61 @@
       <c r="C16" s="29">
         <v>0</v>
       </c>
-      <c r="D16" s="72">
-        <v>22</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="122">
-        <v>100</v>
-      </c>
-      <c r="I16" s="122">
-        <v>18</v>
-      </c>
-      <c r="J16" s="122">
+      <c r="D16" s="143">
+        <v>0</v>
+      </c>
+      <c r="E16" s="144">
         <v>20</v>
       </c>
-      <c r="K16" s="122">
-        <v>18</v>
-      </c>
-      <c r="L16" s="122">
-        <v>19</v>
-      </c>
-      <c r="M16" s="122">
-        <v>20</v>
-      </c>
-      <c r="N16" s="122">
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="29">
         <v>0</v>
       </c>
-      <c r="O16" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73">
-        <v>25</v>
-      </c>
-      <c r="G17" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="H17" s="122">
-        <v>134</v>
-      </c>
-      <c r="I17" s="122">
-        <v>20</v>
-      </c>
-      <c r="J17" s="122">
-        <v>22</v>
-      </c>
-      <c r="K17" s="122">
-        <v>22</v>
-      </c>
-      <c r="L17" s="122">
-        <v>21</v>
-      </c>
-      <c r="M17" s="122">
-        <v>23</v>
-      </c>
-      <c r="N17" s="122">
-        <v>0</v>
-      </c>
-      <c r="O17" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="143">
+        <v>12</v>
+      </c>
+      <c r="E17" s="144">
+        <v>50</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>317</v>
@@ -17986,165 +17718,369 @@
       <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="143">
+        <v>12</v>
+      </c>
+      <c r="E18" s="144">
+        <v>100</v>
+      </c>
+      <c r="G18" s="125"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="30">
-        <v>1</v>
-      </c>
-      <c r="D19" s="73">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="143">
+        <v>23</v>
+      </c>
+      <c r="E19" s="144">
+        <v>134</v>
+      </c>
+      <c r="G19" s="125"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E20" s="72">
+        <v>134</v>
+      </c>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>317</v>
       </c>
       <c r="C21" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E21" s="72">
+        <v>134</v>
+      </c>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C22" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="72">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E22" s="72">
+        <v>134</v>
+      </c>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>317</v>
       </c>
       <c r="C23" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="73">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="72">
+        <v>134</v>
+      </c>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C24" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E24" s="72">
+        <v>134</v>
+      </c>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>317</v>
       </c>
       <c r="C25" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E25" s="72">
+        <v>134</v>
+      </c>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="29">
-        <v>1</v>
-      </c>
-      <c r="D26" s="72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="C26" s="142">
+        <v>0</v>
+      </c>
+      <c r="D26" s="143">
+        <v>0</v>
+      </c>
+      <c r="E26" s="144">
+        <v>20</v>
+      </c>
+      <c r="G26" s="125"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="30">
-        <v>1</v>
-      </c>
-      <c r="D27" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="142">
+        <v>0</v>
+      </c>
+      <c r="D27" s="143">
+        <v>14</v>
+      </c>
+      <c r="E27" s="144">
+        <v>50</v>
+      </c>
+      <c r="G27" s="125"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="C28" s="142">
+        <v>0</v>
+      </c>
+      <c r="D28" s="143">
+        <v>18</v>
+      </c>
+      <c r="E28" s="144">
+        <v>100</v>
+      </c>
+      <c r="G28" s="125"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="30">
-        <v>1</v>
-      </c>
-      <c r="D29" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="142">
+        <v>0</v>
+      </c>
+      <c r="D29" s="143">
+        <v>20</v>
+      </c>
+      <c r="E29" s="144">
+        <v>134</v>
+      </c>
+      <c r="G29" s="125"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61" t="s">
         <v>293</v>
       </c>
@@ -18152,13 +18088,30 @@
         <v>317</v>
       </c>
       <c r="C30" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E30" s="72">
+        <v>134</v>
+      </c>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
         <v>295</v>
       </c>
@@ -18166,13 +18119,30 @@
         <v>317</v>
       </c>
       <c r="C31" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E31" s="72">
+        <v>134</v>
+      </c>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="61" t="s">
         <v>297</v>
       </c>
@@ -18180,13 +18150,30 @@
         <v>317</v>
       </c>
       <c r="C32" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E32" s="72">
+        <v>134</v>
+      </c>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="s">
         <v>299</v>
       </c>
@@ -18194,13 +18181,30 @@
         <v>317</v>
       </c>
       <c r="C33" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="73">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E33" s="72">
+        <v>134</v>
+      </c>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61" t="s">
         <v>301</v>
       </c>
@@ -18208,239 +18212,412 @@
         <v>317</v>
       </c>
       <c r="C34" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="72">
+        <v>134</v>
+      </c>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>270</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
         <v>272</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="72">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="s">
         <v>274</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="73">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="125"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+    </row>
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61" t="s">
         <v>276</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="72">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E38" s="72"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+    </row>
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62" t="s">
         <v>278</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="73">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
         <v>280</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C40" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="72">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E40" s="72"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62" t="s">
         <v>282</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="73">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+    </row>
+    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
         <v>284</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="72">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+    </row>
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="62" t="s">
         <v>286</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E43" s="73"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+    </row>
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E45" s="73"/>
+    </row>
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="72">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E46" s="72"/>
+    </row>
+    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C47" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="73">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E47" s="73"/>
+    </row>
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E48" s="72"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C49" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="73">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E49" s="73"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="72">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="72"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>318</v>
@@ -18449,477 +18626,577 @@
         <v>0</v>
       </c>
       <c r="D51" s="73">
+        <v>20</v>
+      </c>
+      <c r="E51" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C52" s="29">
-        <v>1</v>
-      </c>
-      <c r="D52" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62" t="s">
+      <c r="D52" s="143">
+        <v>0</v>
+      </c>
+      <c r="E52" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="61" t="s">
         <v>272</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C53" s="30">
-        <v>1</v>
-      </c>
-      <c r="D53" s="73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="143">
+        <v>16</v>
+      </c>
+      <c r="E53" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C54" s="29">
-        <v>1</v>
-      </c>
-      <c r="D54" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="s">
-        <v>276</v>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="143">
+        <v>22</v>
+      </c>
+      <c r="E54" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="61" t="s">
+        <v>272</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C55" s="30">
-        <v>1</v>
-      </c>
-      <c r="D55" s="73">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="143">
+        <v>24</v>
+      </c>
+      <c r="E55" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C56" s="29">
-        <v>1</v>
+      <c r="C56" s="30">
+        <v>0</v>
       </c>
       <c r="D56" s="72">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E56" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="62" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C57" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="73">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E57" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B58" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C58" s="29">
-        <v>1</v>
+      <c r="C58" s="30">
+        <v>0</v>
       </c>
       <c r="D58" s="72">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E58" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C59" s="30">
-        <v>1</v>
-      </c>
-      <c r="D59" s="73">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B60" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="143">
+        <v>0</v>
+      </c>
+      <c r="E59" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C60" s="29">
-        <v>1</v>
-      </c>
-      <c r="D60" s="72">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="30">
+        <v>0</v>
+      </c>
+      <c r="D60" s="143">
+        <v>18</v>
+      </c>
+      <c r="E60" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C61" s="30">
-        <v>1</v>
-      </c>
-      <c r="D61" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="143">
+        <v>18</v>
+      </c>
+      <c r="E61" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C62" s="29">
-        <v>1</v>
-      </c>
-      <c r="D62" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="143">
+        <v>20</v>
+      </c>
+      <c r="E62" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="62" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C63" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E63" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B64" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C64" s="29">
-        <v>1</v>
+      <c r="C64" s="30">
+        <v>0</v>
       </c>
       <c r="D64" s="72">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E64" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C65" s="30">
-        <v>1</v>
-      </c>
-      <c r="D65" s="73">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="143">
+        <v>0</v>
+      </c>
+      <c r="E65" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C66" s="29">
-        <v>1</v>
-      </c>
-      <c r="D66" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="30">
+        <v>0</v>
+      </c>
+      <c r="D66" s="143">
+        <v>12</v>
+      </c>
+      <c r="E66" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="62" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>318</v>
       </c>
       <c r="C67" s="30">
-        <v>1</v>
-      </c>
-      <c r="D67" s="73">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C68" s="29">
         <v>0</v>
       </c>
-      <c r="D68" s="72">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="143">
+        <v>20</v>
+      </c>
+      <c r="E67" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="30">
+        <v>0</v>
+      </c>
+      <c r="D68" s="143">
+        <v>23</v>
+      </c>
+      <c r="E68" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="62" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C69" s="30">
         <v>0</v>
       </c>
       <c r="D69" s="73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E69" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" s="29">
+        <v>284</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="30">
         <v>0</v>
       </c>
       <c r="D70" s="72">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E70" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="62" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C71" s="30">
         <v>0</v>
       </c>
       <c r="D71" s="73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E71" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C72" s="29">
+        <v>288</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" s="30">
         <v>0</v>
       </c>
       <c r="D72" s="72">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="62" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C73" s="30">
         <v>0</v>
       </c>
       <c r="D73" s="73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E73" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C74" s="29">
+        <v>292</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C74" s="30">
         <v>0</v>
       </c>
       <c r="D74" s="72">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E74" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="62" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C75" s="30">
         <v>0</v>
       </c>
-      <c r="D75" s="73">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" s="29">
+      <c r="D75" s="143">
         <v>0</v>
       </c>
-      <c r="D76" s="72">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="30">
+        <v>0</v>
+      </c>
+      <c r="D76" s="143">
+        <v>14</v>
+      </c>
+      <c r="E76" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="62" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C77" s="30">
         <v>0</v>
       </c>
-      <c r="D77" s="73">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="29">
+      <c r="D77" s="143">
+        <v>18</v>
+      </c>
+      <c r="E77" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" s="30">
         <v>0</v>
       </c>
-      <c r="D78" s="72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="143">
+        <v>22</v>
+      </c>
+      <c r="E78" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C79" s="30">
         <v>0</v>
       </c>
       <c r="D79" s="73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E79" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C80" s="29">
         <v>0</v>
       </c>
       <c r="D80" s="72">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E80" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C81" s="30">
         <v>0</v>
       </c>
       <c r="D81" s="73">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E81" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="61" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" s="29">
         <v>0</v>
       </c>
       <c r="D82" s="72">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E82" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="62" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="30">
         <v>0</v>
       </c>
       <c r="D83" s="73">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="61" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C84" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="72">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E84" s="72"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C85" s="30">
         <v>1</v>
@@ -18927,139 +19204,149 @@
       <c r="D85" s="73">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="73"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="61" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
       </c>
       <c r="D86" s="72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E86" s="72"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87" s="30">
         <v>1</v>
       </c>
       <c r="D87" s="73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E87" s="73"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
       </c>
       <c r="D88" s="72">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E88" s="72"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C89" s="30">
         <v>1</v>
       </c>
       <c r="D89" s="73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E89" s="73"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C90" s="29">
         <v>1</v>
       </c>
       <c r="D90" s="72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E90" s="72"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="62" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C91" s="30">
         <v>1</v>
       </c>
       <c r="D91" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E91" s="73"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="61" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="29">
         <v>1</v>
       </c>
       <c r="D92" s="72">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E92" s="72"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="62" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C93" s="30">
         <v>1</v>
       </c>
       <c r="D93" s="73">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E93" s="73"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="61" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C94" s="29">
         <v>1</v>
       </c>
       <c r="D94" s="72">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E94" s="72"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C95" s="30">
         <v>1</v>
@@ -19067,13 +19354,14 @@
       <c r="D95" s="73">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="73"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C96" s="29">
         <v>1</v>
@@ -19081,531 +19369,635 @@
       <c r="D96" s="72">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="72"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C97" s="30">
         <v>1</v>
       </c>
       <c r="D97" s="73">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E97" s="73"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="61" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C98" s="29">
         <v>1</v>
       </c>
       <c r="D98" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E98" s="72"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="62" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C99" s="30">
         <v>1</v>
       </c>
       <c r="D99" s="73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E99" s="73"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="61" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>319</v>
       </c>
       <c r="C100" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="72">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E100" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" s="29">
+        <v>0</v>
+      </c>
+      <c r="D101" s="143">
+        <v>0</v>
+      </c>
+      <c r="E101" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" s="29">
+        <v>0</v>
+      </c>
+      <c r="D102" s="143">
+        <v>16</v>
+      </c>
+      <c r="E102" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C103" s="29">
+        <v>0</v>
+      </c>
+      <c r="D103" s="143">
+        <v>20</v>
+      </c>
+      <c r="E103" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C104" s="29">
+        <v>0</v>
+      </c>
+      <c r="D104" s="143">
+        <v>22</v>
+      </c>
+      <c r="E104" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="29">
+        <v>0</v>
+      </c>
+      <c r="D105" s="73">
+        <v>24</v>
+      </c>
+      <c r="E105" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" s="29">
+        <v>0</v>
+      </c>
+      <c r="D106" s="72">
+        <v>21</v>
+      </c>
+      <c r="E106" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="29">
+        <v>0</v>
+      </c>
+      <c r="D107" s="73">
+        <v>24</v>
+      </c>
+      <c r="E107" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="29">
+        <v>0</v>
+      </c>
+      <c r="D108" s="143">
+        <v>0</v>
+      </c>
+      <c r="E108" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="29">
+        <v>0</v>
+      </c>
+      <c r="D109" s="143">
+        <v>14</v>
+      </c>
+      <c r="E109" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="29">
+        <v>0</v>
+      </c>
+      <c r="D110" s="143">
+        <v>19</v>
+      </c>
+      <c r="E110" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="29">
+        <v>0</v>
+      </c>
+      <c r="D111" s="143">
+        <v>22</v>
+      </c>
+      <c r="E111" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C112" s="29">
+        <v>0</v>
+      </c>
+      <c r="D112" s="72">
+        <v>20</v>
+      </c>
+      <c r="E112" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" s="29">
+        <v>0</v>
+      </c>
+      <c r="D113" s="73">
+        <v>20</v>
+      </c>
+      <c r="E113" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="29">
+        <v>0</v>
+      </c>
+      <c r="D114" s="143">
+        <v>0</v>
+      </c>
+      <c r="E114" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" s="29">
+        <v>0</v>
+      </c>
+      <c r="D115" s="143">
+        <v>12</v>
+      </c>
+      <c r="E115" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C116" s="29">
+        <v>0</v>
+      </c>
+      <c r="D116" s="143">
+        <v>15</v>
+      </c>
+      <c r="E116" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117" s="29">
+        <v>0</v>
+      </c>
+      <c r="D117" s="143">
+        <v>23</v>
+      </c>
+      <c r="E117" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" s="29">
+        <v>0</v>
+      </c>
+      <c r="D118" s="72">
+        <v>22</v>
+      </c>
+      <c r="E118" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="29">
+        <v>0</v>
+      </c>
+      <c r="D119" s="73">
+        <v>17</v>
+      </c>
+      <c r="E119" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" s="29">
+        <v>0</v>
+      </c>
+      <c r="D120" s="72">
+        <v>23</v>
+      </c>
+      <c r="E120" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C121" s="29">
+        <v>0</v>
+      </c>
+      <c r="D121" s="73">
+        <v>21</v>
+      </c>
+      <c r="E121" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="29">
+        <v>0</v>
+      </c>
+      <c r="D122" s="72">
+        <v>20</v>
+      </c>
+      <c r="E122" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="29">
+        <v>0</v>
+      </c>
+      <c r="D123" s="73">
+        <v>20</v>
+      </c>
+      <c r="E123" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="29">
+        <v>0</v>
+      </c>
+      <c r="D124" s="143">
+        <v>10</v>
+      </c>
+      <c r="E124" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="29">
+        <v>0</v>
+      </c>
+      <c r="D125" s="143">
+        <v>16</v>
+      </c>
+      <c r="E125" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="29">
+        <v>0</v>
+      </c>
+      <c r="D126" s="143">
+        <v>20</v>
+      </c>
+      <c r="E126" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" s="29">
+        <v>0</v>
+      </c>
+      <c r="D127" s="143">
+        <v>22</v>
+      </c>
+      <c r="E127" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" s="29">
+        <v>0</v>
+      </c>
+      <c r="D128" s="72">
+        <v>25</v>
+      </c>
+      <c r="E128" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="30">
+        <v>0</v>
+      </c>
+      <c r="D129" s="73">
+        <v>22</v>
+      </c>
+      <c r="E129" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" s="29">
+        <v>0</v>
+      </c>
+      <c r="D130" s="72">
+        <v>25</v>
+      </c>
+      <c r="E130" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" s="30">
+        <v>0</v>
+      </c>
+      <c r="D131" s="73">
+        <v>25</v>
+      </c>
+      <c r="E131" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="29">
+        <v>0</v>
+      </c>
+      <c r="D132" s="72">
+        <v>46</v>
+      </c>
+      <c r="E132" s="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" s="30">
-        <v>1</v>
-      </c>
-      <c r="D101" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="29">
-        <v>1</v>
-      </c>
-      <c r="D102" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C103" s="30">
-        <v>1</v>
-      </c>
-      <c r="D103" s="73">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C104" s="29">
-        <v>1</v>
-      </c>
-      <c r="D104" s="72">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="30">
-        <v>1</v>
-      </c>
-      <c r="D105" s="73">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C106" s="29">
-        <v>1</v>
-      </c>
-      <c r="D106" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107" s="30">
-        <v>1</v>
-      </c>
-      <c r="D107" s="73">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C108" s="29">
-        <v>1</v>
-      </c>
-      <c r="D108" s="72">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="30">
-        <v>1</v>
-      </c>
-      <c r="D109" s="73">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C110" s="29">
-        <v>1</v>
-      </c>
-      <c r="D110" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C111" s="30">
-        <v>1</v>
-      </c>
-      <c r="D111" s="73">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="29">
-        <v>1</v>
-      </c>
-      <c r="D112" s="72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C113" s="30">
-        <v>1</v>
-      </c>
-      <c r="D113" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C114" s="29">
-        <v>1</v>
-      </c>
-      <c r="D114" s="72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="30">
-        <v>1</v>
-      </c>
-      <c r="D115" s="73">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="29">
-        <v>1</v>
-      </c>
-      <c r="D116" s="72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="30">
-        <v>1</v>
-      </c>
-      <c r="D117" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="29">
-        <v>1</v>
-      </c>
-      <c r="D118" s="72">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="30">
-        <v>1</v>
-      </c>
-      <c r="D119" s="73">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="29">
-        <v>1</v>
-      </c>
-      <c r="D120" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B121" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="30">
-        <v>1</v>
-      </c>
-      <c r="D121" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="29">
-        <v>1</v>
-      </c>
-      <c r="D122" s="72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="30">
-        <v>1</v>
-      </c>
-      <c r="D123" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="29">
-        <v>1</v>
-      </c>
-      <c r="D124" s="72">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="30">
-        <v>1</v>
-      </c>
-      <c r="D125" s="73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="29">
-        <v>1</v>
-      </c>
-      <c r="D126" s="72">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="30">
-        <v>1</v>
-      </c>
-      <c r="D127" s="73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="29">
-        <v>1</v>
-      </c>
-      <c r="D128" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="30">
-        <v>1</v>
-      </c>
-      <c r="D129" s="73">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="29">
-        <v>1</v>
-      </c>
-      <c r="D130" s="72">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="30">
-        <v>1</v>
-      </c>
-      <c r="D131" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" s="29">
-        <v>1</v>
-      </c>
-      <c r="D132" s="72">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="62" t="s">
-        <v>278</v>
-      </c>
       <c r="B133" s="25" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C133" s="30">
         <v>1</v>
       </c>
       <c r="D133" s="73">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E133" s="73"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="61" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C134" s="29">
         <v>1</v>
@@ -19613,874 +20005,2500 @@
       <c r="D134" s="72">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="72"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="62" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C135" s="30">
         <v>1</v>
       </c>
       <c r="D135" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E135" s="73"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="61" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C136" s="29">
         <v>1</v>
       </c>
       <c r="D136" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E136" s="72"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="62" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C137" s="30">
         <v>1</v>
       </c>
       <c r="D137" s="73">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E137" s="73"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="61" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C138" s="29">
         <v>1</v>
       </c>
       <c r="D138" s="72">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E138" s="72"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="62" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C139" s="30">
         <v>1</v>
       </c>
       <c r="D139" s="73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E139" s="73"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="61" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C140" s="29">
         <v>1</v>
       </c>
       <c r="D140" s="72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E140" s="72"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="62" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="C141" s="30">
         <v>1</v>
       </c>
       <c r="D141" s="73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E141" s="73"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="61" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C142" s="29">
         <v>1</v>
       </c>
       <c r="D142" s="72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E142" s="72"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="62" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C143" s="30">
         <v>1</v>
       </c>
       <c r="D143" s="73">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E143" s="73"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="61" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C144" s="29">
         <v>1</v>
       </c>
       <c r="D144" s="72">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E144" s="72"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="62" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C145" s="30">
         <v>1</v>
       </c>
       <c r="D145" s="73">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E145" s="73"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="61" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C146" s="29">
         <v>1</v>
       </c>
       <c r="D146" s="72">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E146" s="72"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="62" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C147" s="30">
         <v>1</v>
       </c>
       <c r="D147" s="73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E147" s="73"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="61" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C148" s="29">
         <v>1</v>
       </c>
       <c r="D148" s="72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="62" t="s">
-        <v>288</v>
+        <v>27</v>
+      </c>
+      <c r="E148" s="72"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="141" t="s">
+        <v>272</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="30">
-        <v>1</v>
-      </c>
-      <c r="D149" s="73">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" s="29">
-        <v>1</v>
-      </c>
-      <c r="D150" s="72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="142">
+        <v>0</v>
+      </c>
+      <c r="D149" s="143">
+        <v>0</v>
+      </c>
+      <c r="E149" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="142">
+        <v>0</v>
+      </c>
+      <c r="D150" s="143">
+        <v>16</v>
+      </c>
+      <c r="E150" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="142">
+        <v>0</v>
+      </c>
+      <c r="D151" s="143">
+        <v>16</v>
+      </c>
+      <c r="E151" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152" s="142">
+        <v>0</v>
+      </c>
+      <c r="D152" s="143">
+        <v>20</v>
+      </c>
+      <c r="E152" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="142">
+        <v>0</v>
+      </c>
+      <c r="D153" s="143">
+        <v>0</v>
+      </c>
+      <c r="E153" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" s="142">
+        <v>0</v>
+      </c>
+      <c r="D154" s="143">
+        <v>15</v>
+      </c>
+      <c r="E154" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" s="142">
+        <v>0</v>
+      </c>
+      <c r="D155" s="143">
+        <v>18</v>
+      </c>
+      <c r="E155" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="142">
+        <v>0</v>
+      </c>
+      <c r="D156" s="143">
+        <v>25</v>
+      </c>
+      <c r="E156" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="142">
+        <v>0</v>
+      </c>
+      <c r="D157" s="143">
+        <v>0</v>
+      </c>
+      <c r="E157" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="142">
+        <v>0</v>
+      </c>
+      <c r="D158" s="143">
+        <v>13</v>
+      </c>
+      <c r="E158" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" s="142">
+        <v>0</v>
+      </c>
+      <c r="D159" s="143">
+        <v>17</v>
+      </c>
+      <c r="E159" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" s="142">
+        <v>0</v>
+      </c>
+      <c r="D160" s="143">
+        <v>22</v>
+      </c>
+      <c r="E160" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="141" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="30">
-        <v>1</v>
-      </c>
-      <c r="D151" s="73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="29">
-        <v>1</v>
-      </c>
-      <c r="D152" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="B153" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="30">
-        <v>1</v>
-      </c>
-      <c r="D153" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="29">
-        <v>1</v>
-      </c>
-      <c r="D154" s="72">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="62" t="s">
+      <c r="B161" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="142">
+        <v>0</v>
+      </c>
+      <c r="D161" s="143">
+        <v>12</v>
+      </c>
+      <c r="E161" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="142">
+        <v>0</v>
+      </c>
+      <c r="D162" s="143">
+        <v>15</v>
+      </c>
+      <c r="E162" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="142">
+        <v>0</v>
+      </c>
+      <c r="D163" s="143">
+        <v>19</v>
+      </c>
+      <c r="E163" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" s="142">
+        <v>0</v>
+      </c>
+      <c r="D164" s="143">
+        <v>21</v>
+      </c>
+      <c r="E164" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="B155" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C155" s="30">
-        <v>1</v>
-      </c>
-      <c r="D155" s="73">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C156" s="29">
-        <v>1</v>
-      </c>
-      <c r="D156" s="72">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B157" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C157" s="30">
-        <v>1</v>
-      </c>
-      <c r="D157" s="73">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C158" s="29">
-        <v>1</v>
-      </c>
-      <c r="D158" s="72">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C159" s="30">
-        <v>1</v>
-      </c>
-      <c r="D159" s="73">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C160" s="29">
-        <v>1</v>
-      </c>
-      <c r="D160" s="72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C161" s="30">
-        <v>1</v>
-      </c>
-      <c r="D161" s="73">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C162" s="29">
-        <v>1</v>
-      </c>
-      <c r="D162" s="72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C163" s="30">
-        <v>1</v>
-      </c>
-      <c r="D163" s="73">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C164" s="29">
-        <v>1</v>
-      </c>
-      <c r="D164" s="72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="62" t="s">
-        <v>293</v>
-      </c>
       <c r="B165" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C165" s="30">
         <v>1</v>
       </c>
       <c r="D165" s="73">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E165" s="73"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C166" s="29">
         <v>1</v>
       </c>
       <c r="D166" s="72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E166" s="72"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="62" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C167" s="30">
         <v>1</v>
       </c>
       <c r="D167" s="73">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E167" s="73"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="61" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C168" s="29">
         <v>1</v>
       </c>
       <c r="D168" s="72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E168" s="72"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="62" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C169" s="30">
         <v>1</v>
       </c>
       <c r="D169" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E169" s="73"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="61" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C170" s="29">
         <v>1</v>
       </c>
       <c r="D170" s="72">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E170" s="72"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="62" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C171" s="30">
         <v>1</v>
       </c>
       <c r="D171" s="73">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E171" s="73"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="61" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C172" s="29">
         <v>1</v>
       </c>
       <c r="D172" s="72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E172" s="72"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="62" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C173" s="30">
         <v>1</v>
       </c>
       <c r="D173" s="73">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E173" s="73"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C174" s="29">
         <v>1</v>
       </c>
       <c r="D174" s="72">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E174" s="72"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="62" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C175" s="30">
         <v>1</v>
       </c>
       <c r="D175" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E175" s="73"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="61" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C176" s="29">
         <v>1</v>
       </c>
       <c r="D176" s="72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E176" s="72"/>
+    </row>
+    <row r="177" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="62" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C177" s="30">
         <v>1</v>
       </c>
       <c r="D177" s="73">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E177" s="73"/>
+    </row>
+    <row r="178" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="61" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C178" s="29">
         <v>1</v>
       </c>
       <c r="D178" s="72">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E178" s="72"/>
+      <c r="J178" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="K178" s="121" t="s">
+        <v>448</v>
+      </c>
+      <c r="L178" s="122" t="s">
+        <v>440</v>
+      </c>
+      <c r="M178" s="122" t="s">
+        <v>441</v>
+      </c>
+      <c r="N178" s="122" t="s">
+        <v>442</v>
+      </c>
+      <c r="O178" s="122" t="s">
+        <v>443</v>
+      </c>
+      <c r="P178" s="122" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q178" s="122" t="s">
+        <v>445</v>
+      </c>
+      <c r="R178" s="122" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="62" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="C179" s="30">
         <v>1</v>
       </c>
       <c r="D179" s="73">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E179" s="73"/>
+      <c r="J179" s="121" t="s">
+        <v>449</v>
+      </c>
+      <c r="K179" s="122">
+        <v>20</v>
+      </c>
+      <c r="L179" s="122"/>
+      <c r="M179" s="122"/>
+      <c r="N179" s="122"/>
+      <c r="O179" s="122"/>
+      <c r="P179" s="122"/>
+      <c r="Q179" s="122">
+        <v>0</v>
+      </c>
+      <c r="R179" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="61" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="C180" s="29">
         <v>1</v>
       </c>
       <c r="D180" s="72">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E180" s="72"/>
+      <c r="J180" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="K180" s="122">
+        <v>50</v>
+      </c>
+      <c r="L180" s="122"/>
+      <c r="M180" s="122"/>
+      <c r="N180" s="122"/>
+      <c r="O180" s="122"/>
+      <c r="P180" s="122"/>
+      <c r="Q180" s="122">
+        <v>0</v>
+      </c>
+      <c r="R180" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="62" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="C181" s="30">
         <v>1</v>
       </c>
       <c r="D181" s="73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E181" s="73"/>
+      <c r="J181" s="121" t="s">
+        <v>449</v>
+      </c>
+      <c r="K181" s="122">
+        <v>100</v>
+      </c>
+      <c r="L181" s="122"/>
+      <c r="M181" s="122"/>
+      <c r="N181" s="122"/>
+      <c r="O181" s="122"/>
+      <c r="P181" s="122"/>
+      <c r="Q181" s="122">
+        <v>0</v>
+      </c>
+      <c r="R181" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="61" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="C182" s="29">
         <v>1</v>
       </c>
       <c r="D182" s="72">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E182" s="72"/>
+      <c r="J182" s="121" t="s">
+        <v>449</v>
+      </c>
+      <c r="K182" s="122">
+        <v>134</v>
+      </c>
+      <c r="L182" s="122"/>
+      <c r="M182" s="122"/>
+      <c r="N182" s="122"/>
+      <c r="O182" s="122"/>
+      <c r="P182" s="122"/>
+      <c r="Q182" s="122">
+        <v>0</v>
+      </c>
+      <c r="R182" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="62" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C183" s="30">
         <v>1</v>
       </c>
       <c r="D183" s="73">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E183" s="73"/>
+      <c r="J183" s="121" t="s">
+        <v>450</v>
+      </c>
+      <c r="K183" s="122">
+        <v>20</v>
+      </c>
+      <c r="L183" s="122"/>
+      <c r="M183" s="122"/>
+      <c r="N183" s="122"/>
+      <c r="O183" s="122"/>
+      <c r="P183" s="122"/>
+      <c r="Q183" s="122">
+        <v>0</v>
+      </c>
+      <c r="R183" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="61" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C184" s="29">
         <v>1</v>
       </c>
       <c r="D184" s="72">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E184" s="72"/>
+      <c r="J184" s="121" t="s">
+        <v>450</v>
+      </c>
+      <c r="K184" s="122">
+        <v>50</v>
+      </c>
+      <c r="L184" s="122"/>
+      <c r="M184" s="122"/>
+      <c r="N184" s="122"/>
+      <c r="O184" s="122"/>
+      <c r="P184" s="122"/>
+      <c r="Q184" s="122">
+        <v>0</v>
+      </c>
+      <c r="R184" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="62" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C185" s="30">
         <v>1</v>
       </c>
       <c r="D185" s="73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E185" s="73"/>
+      <c r="J185" s="121" t="s">
+        <v>450</v>
+      </c>
+      <c r="K185" s="122">
+        <v>100</v>
+      </c>
+      <c r="L185" s="122"/>
+      <c r="M185" s="122"/>
+      <c r="N185" s="122"/>
+      <c r="O185" s="122"/>
+      <c r="P185" s="122"/>
+      <c r="Q185" s="122">
+        <v>0</v>
+      </c>
+      <c r="R185" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="61" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C186" s="29">
         <v>1</v>
       </c>
       <c r="D186" s="72">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E186" s="72"/>
+      <c r="J186" s="121" t="s">
+        <v>450</v>
+      </c>
+      <c r="K186" s="122">
+        <v>134</v>
+      </c>
+      <c r="L186" s="122"/>
+      <c r="M186" s="122"/>
+      <c r="N186" s="122"/>
+      <c r="O186" s="122"/>
+      <c r="P186" s="122"/>
+      <c r="Q186" s="122">
+        <v>0</v>
+      </c>
+      <c r="R186" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="62" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C187" s="30">
         <v>1</v>
       </c>
       <c r="D187" s="73">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E187" s="73"/>
+      <c r="J187" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="K187" s="122">
+        <v>20</v>
+      </c>
+      <c r="L187" s="122"/>
+      <c r="M187" s="122"/>
+      <c r="N187" s="122"/>
+      <c r="O187" s="122"/>
+      <c r="P187" s="122"/>
+      <c r="Q187" s="122">
+        <v>0</v>
+      </c>
+      <c r="R187" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C188" s="29">
         <v>1</v>
       </c>
       <c r="D188" s="72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E188" s="72"/>
+      <c r="J188" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="K188" s="122">
+        <v>50</v>
+      </c>
+      <c r="L188" s="122"/>
+      <c r="M188" s="122"/>
+      <c r="N188" s="122"/>
+      <c r="O188" s="122"/>
+      <c r="P188" s="122"/>
+      <c r="Q188" s="122">
+        <v>0</v>
+      </c>
+      <c r="R188" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="62" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C189" s="30">
         <v>1</v>
       </c>
       <c r="D189" s="73">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E189" s="73"/>
+      <c r="J189" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="K189" s="122">
+        <v>100</v>
+      </c>
+      <c r="L189" s="122"/>
+      <c r="M189" s="122"/>
+      <c r="N189" s="122"/>
+      <c r="O189" s="122"/>
+      <c r="P189" s="122"/>
+      <c r="Q189" s="122">
+        <v>0</v>
+      </c>
+      <c r="R189" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="61" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C190" s="29">
         <v>1</v>
       </c>
       <c r="D190" s="72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E190" s="72"/>
+      <c r="J190" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="K190" s="122">
+        <v>134</v>
+      </c>
+      <c r="L190" s="122"/>
+      <c r="M190" s="122"/>
+      <c r="N190" s="122"/>
+      <c r="O190" s="122"/>
+      <c r="P190" s="122"/>
+      <c r="Q190" s="122">
+        <v>0</v>
+      </c>
+      <c r="R190" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="62" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C191" s="30">
         <v>1</v>
       </c>
       <c r="D191" s="73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E191" s="73"/>
+      <c r="J191" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="K191" s="122">
+        <v>20</v>
+      </c>
+      <c r="L191" s="122"/>
+      <c r="M191" s="122"/>
+      <c r="N191" s="122"/>
+      <c r="O191" s="122"/>
+      <c r="P191" s="122"/>
+      <c r="Q191" s="122">
+        <v>0</v>
+      </c>
+      <c r="R191" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="61" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C192" s="29">
         <v>1</v>
       </c>
       <c r="D192" s="72">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E192" s="72"/>
+      <c r="J192" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="K192" s="122">
+        <v>50</v>
+      </c>
+      <c r="L192" s="122"/>
+      <c r="M192" s="122"/>
+      <c r="N192" s="122"/>
+      <c r="O192" s="122"/>
+      <c r="P192" s="122"/>
+      <c r="Q192" s="122">
+        <v>0</v>
+      </c>
+      <c r="R192" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="62" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C193" s="30">
         <v>1</v>
       </c>
       <c r="D193" s="73">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E193" s="73"/>
+      <c r="J193" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="K193" s="122">
+        <v>100</v>
+      </c>
+      <c r="L193" s="122"/>
+      <c r="M193" s="122"/>
+      <c r="N193" s="122"/>
+      <c r="O193" s="122"/>
+      <c r="P193" s="122"/>
+      <c r="Q193" s="122">
+        <v>0</v>
+      </c>
+      <c r="R193" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="61" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C194" s="29">
         <v>1</v>
       </c>
       <c r="D194" s="72">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E194" s="72"/>
+      <c r="J194" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="K194" s="122">
+        <v>134</v>
+      </c>
+      <c r="L194" s="122"/>
+      <c r="M194" s="122"/>
+      <c r="N194" s="122"/>
+      <c r="O194" s="122"/>
+      <c r="P194" s="122"/>
+      <c r="Q194" s="122">
+        <v>0</v>
+      </c>
+      <c r="R194" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="62" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C195" s="30">
         <v>1</v>
       </c>
       <c r="D195" s="73">
+        <v>42</v>
+      </c>
+      <c r="E195" s="73"/>
+    </row>
+    <row r="196" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="29">
+        <v>1</v>
+      </c>
+      <c r="D196" s="72">
+        <v>38</v>
+      </c>
+      <c r="E196" s="72"/>
+    </row>
+    <row r="197" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="30">
+        <v>1</v>
+      </c>
+      <c r="D197" s="73">
+        <v>38</v>
+      </c>
+      <c r="E197" s="73"/>
+    </row>
+    <row r="198" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="29">
+        <v>1</v>
+      </c>
+      <c r="D198" s="72">
+        <v>40</v>
+      </c>
+      <c r="E198" s="72"/>
+    </row>
+    <row r="199" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="30">
+        <v>1</v>
+      </c>
+      <c r="D199" s="73">
+        <v>42</v>
+      </c>
+      <c r="E199" s="73"/>
+    </row>
+    <row r="200" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="29">
+        <v>1</v>
+      </c>
+      <c r="D200" s="72">
+        <v>43</v>
+      </c>
+      <c r="E200" s="72"/>
+    </row>
+    <row r="201" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="30">
+        <v>1</v>
+      </c>
+      <c r="D201" s="73">
+        <v>47</v>
+      </c>
+      <c r="E201" s="73"/>
+    </row>
+    <row r="202" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="29">
+        <v>1</v>
+      </c>
+      <c r="D202" s="72">
+        <v>42</v>
+      </c>
+      <c r="E202" s="72"/>
+    </row>
+    <row r="203" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B203" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="30">
+        <v>1</v>
+      </c>
+      <c r="D203" s="73">
+        <v>40</v>
+      </c>
+      <c r="E203" s="73"/>
+    </row>
+    <row r="204" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="29">
+        <v>1</v>
+      </c>
+      <c r="D204" s="72">
+        <v>48</v>
+      </c>
+      <c r="E204" s="72"/>
+    </row>
+    <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="30">
+        <v>1</v>
+      </c>
+      <c r="D205" s="73">
+        <v>40</v>
+      </c>
+      <c r="E205" s="73"/>
+    </row>
+    <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C206" s="29">
+        <v>1</v>
+      </c>
+      <c r="D206" s="72">
+        <v>45</v>
+      </c>
+      <c r="E206" s="72"/>
+    </row>
+    <row r="207" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="30">
+        <v>1</v>
+      </c>
+      <c r="D207" s="73">
+        <v>47</v>
+      </c>
+      <c r="E207" s="73"/>
+    </row>
+    <row r="208" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C208" s="29">
+        <v>1</v>
+      </c>
+      <c r="D208" s="72">
         <v>52</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="74" t="s">
+      <c r="E208" s="72"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="30">
+        <v>1</v>
+      </c>
+      <c r="D209" s="73">
+        <v>42</v>
+      </c>
+      <c r="E209" s="73"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210" s="29">
+        <v>1</v>
+      </c>
+      <c r="D210" s="72">
+        <v>52</v>
+      </c>
+      <c r="E210" s="72"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" s="30">
+        <v>1</v>
+      </c>
+      <c r="D211" s="73">
+        <v>50</v>
+      </c>
+      <c r="E211" s="73"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" s="29">
+        <v>1</v>
+      </c>
+      <c r="D212" s="72">
+        <v>48</v>
+      </c>
+      <c r="E212" s="72"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="30">
+        <v>1</v>
+      </c>
+      <c r="D213" s="73">
+        <v>46</v>
+      </c>
+      <c r="E213" s="73"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" s="29">
+        <v>1</v>
+      </c>
+      <c r="D214" s="72">
+        <v>47</v>
+      </c>
+      <c r="E214" s="72"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B215" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" s="30">
+        <v>1</v>
+      </c>
+      <c r="D215" s="73">
+        <v>45</v>
+      </c>
+      <c r="E215" s="73"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" s="29">
+        <v>1</v>
+      </c>
+      <c r="D216" s="72">
+        <v>43</v>
+      </c>
+      <c r="E216" s="72"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="30">
+        <v>1</v>
+      </c>
+      <c r="D217" s="73">
+        <v>52</v>
+      </c>
+      <c r="E217" s="73"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B196" s="75" t="s">
+      <c r="B218" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" s="29">
+        <v>1</v>
+      </c>
+      <c r="D218" s="72">
+        <v>43</v>
+      </c>
+      <c r="E218" s="72"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B219" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C219" s="142">
+        <v>0</v>
+      </c>
+      <c r="D219" s="143">
+        <v>0</v>
+      </c>
+      <c r="E219" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C220" s="142">
+        <v>0</v>
+      </c>
+      <c r="D220" s="143">
+        <v>16</v>
+      </c>
+      <c r="E220" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C221" s="142">
+        <v>0</v>
+      </c>
+      <c r="D221" s="143">
+        <v>20</v>
+      </c>
+      <c r="E221" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C222" s="142">
+        <v>0</v>
+      </c>
+      <c r="D222" s="143">
+        <v>20</v>
+      </c>
+      <c r="E222" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C223" s="142">
+        <v>0</v>
+      </c>
+      <c r="D223" s="143">
+        <v>0</v>
+      </c>
+      <c r="E223" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C224" s="142">
+        <v>0</v>
+      </c>
+      <c r="D224" s="143">
+        <v>15</v>
+      </c>
+      <c r="E224" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C225" s="142">
+        <v>0</v>
+      </c>
+      <c r="D225" s="143">
+        <v>19</v>
+      </c>
+      <c r="E225" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C226" s="142">
+        <v>0</v>
+      </c>
+      <c r="D226" s="143">
+        <v>22</v>
+      </c>
+      <c r="E226" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C227" s="142">
+        <v>0</v>
+      </c>
+      <c r="D227" s="143">
+        <v>0</v>
+      </c>
+      <c r="E227" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B228" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C228" s="142">
+        <v>0</v>
+      </c>
+      <c r="D228" s="143">
+        <v>12</v>
+      </c>
+      <c r="E228" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B229" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C229" s="142">
+        <v>0</v>
+      </c>
+      <c r="D229" s="143">
+        <v>18</v>
+      </c>
+      <c r="E229" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B230" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C230" s="142">
+        <v>0</v>
+      </c>
+      <c r="D230" s="143">
+        <v>21</v>
+      </c>
+      <c r="E230" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B231" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C231" s="142">
+        <v>0</v>
+      </c>
+      <c r="D231" s="143">
+        <v>20</v>
+      </c>
+      <c r="E231" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B232" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C232" s="142">
+        <v>0</v>
+      </c>
+      <c r="D232" s="143">
+        <v>16</v>
+      </c>
+      <c r="E232" s="144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B233" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C233" s="142">
+        <v>0</v>
+      </c>
+      <c r="D233" s="143">
+        <v>20</v>
+      </c>
+      <c r="E233" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B234" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C234" s="142">
+        <v>0</v>
+      </c>
+      <c r="D234" s="143">
+        <v>23</v>
+      </c>
+      <c r="E234" s="144">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B235" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C235" s="30">
+        <v>1</v>
+      </c>
+      <c r="D235" s="73">
+        <v>56</v>
+      </c>
+      <c r="E235" s="73"/>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C236" s="29">
+        <v>1</v>
+      </c>
+      <c r="D236" s="72">
+        <v>63</v>
+      </c>
+      <c r="E236" s="72"/>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B237" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C237" s="30">
+        <v>1</v>
+      </c>
+      <c r="D237" s="73">
+        <v>53</v>
+      </c>
+      <c r="E237" s="73"/>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C238" s="29">
+        <v>1</v>
+      </c>
+      <c r="D238" s="72">
+        <v>52</v>
+      </c>
+      <c r="E238" s="72"/>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B239" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C239" s="30">
+        <v>1</v>
+      </c>
+      <c r="D239" s="73">
+        <v>47</v>
+      </c>
+      <c r="E239" s="73"/>
+    </row>
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B240" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C240" s="29">
+        <v>1</v>
+      </c>
+      <c r="D240" s="72">
+        <v>45</v>
+      </c>
+      <c r="E240" s="72"/>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C241" s="30">
+        <v>1</v>
+      </c>
+      <c r="D241" s="73">
+        <v>60</v>
+      </c>
+      <c r="E241" s="73"/>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C242" s="29">
+        <v>1</v>
+      </c>
+      <c r="D242" s="72">
+        <v>50</v>
+      </c>
+      <c r="E242" s="72"/>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C243" s="30">
+        <v>1</v>
+      </c>
+      <c r="D243" s="73">
+        <v>62</v>
+      </c>
+      <c r="E243" s="73"/>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C244" s="29">
+        <v>1</v>
+      </c>
+      <c r="D244" s="72">
+        <v>47</v>
+      </c>
+      <c r="E244" s="72"/>
+    </row>
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C245" s="30">
+        <v>1</v>
+      </c>
+      <c r="D245" s="73">
+        <v>43</v>
+      </c>
+      <c r="E245" s="73"/>
+    </row>
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C246" s="29">
+        <v>1</v>
+      </c>
+      <c r="D246" s="72">
+        <v>48</v>
+      </c>
+      <c r="E246" s="72"/>
+    </row>
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C247" s="30">
+        <v>1</v>
+      </c>
+      <c r="D247" s="73">
+        <v>51</v>
+      </c>
+      <c r="E247" s="73"/>
+    </row>
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B248" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C248" s="29">
+        <v>1</v>
+      </c>
+      <c r="D248" s="72">
+        <v>45</v>
+      </c>
+      <c r="E248" s="72"/>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C249" s="30">
+        <v>1</v>
+      </c>
+      <c r="D249" s="73">
+        <v>52</v>
+      </c>
+      <c r="E249" s="73"/>
+    </row>
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C250" s="29">
+        <v>1</v>
+      </c>
+      <c r="D250" s="72">
+        <v>55</v>
+      </c>
+      <c r="E250" s="72"/>
+    </row>
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C251" s="30">
+        <v>1</v>
+      </c>
+      <c r="D251" s="73">
+        <v>44</v>
+      </c>
+      <c r="E251" s="73"/>
+    </row>
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C252" s="29">
+        <v>1</v>
+      </c>
+      <c r="D252" s="72">
+        <v>50</v>
+      </c>
+      <c r="E252" s="72"/>
+    </row>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C253" s="30">
+        <v>1</v>
+      </c>
+      <c r="D253" s="73">
+        <v>48</v>
+      </c>
+      <c r="E253" s="73"/>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B254" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C254" s="29">
+        <v>1</v>
+      </c>
+      <c r="D254" s="72">
+        <v>53</v>
+      </c>
+      <c r="E254" s="72"/>
+    </row>
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C255" s="30">
+        <v>1</v>
+      </c>
+      <c r="D255" s="73">
+        <v>52</v>
+      </c>
+      <c r="E255" s="73"/>
+    </row>
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C256" s="29">
+        <v>1</v>
+      </c>
+      <c r="D256" s="72">
+        <v>50</v>
+      </c>
+      <c r="E256" s="72"/>
+    </row>
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C257" s="30">
+        <v>1</v>
+      </c>
+      <c r="D257" s="73">
+        <v>60</v>
+      </c>
+      <c r="E257" s="73"/>
+    </row>
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C258" s="29">
+        <v>1</v>
+      </c>
+      <c r="D258" s="72">
+        <v>42</v>
+      </c>
+      <c r="E258" s="72"/>
+    </row>
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C259" s="30">
+        <v>1</v>
+      </c>
+      <c r="D259" s="73">
+        <v>37</v>
+      </c>
+      <c r="E259" s="73"/>
+    </row>
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C260" s="29">
+        <v>1</v>
+      </c>
+      <c r="D260" s="72">
+        <v>60</v>
+      </c>
+      <c r="E260" s="72"/>
+    </row>
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C261" s="30">
+        <v>1</v>
+      </c>
+      <c r="D261" s="73">
+        <v>50</v>
+      </c>
+      <c r="E261" s="73"/>
+    </row>
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B262" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C262" s="29">
+        <v>1</v>
+      </c>
+      <c r="D262" s="72">
+        <v>41</v>
+      </c>
+      <c r="E262" s="72"/>
+    </row>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C196" s="76">
+      <c r="C263" s="30">
         <v>1</v>
       </c>
-      <c r="D196" s="77">
+      <c r="D263" s="73">
+        <v>49</v>
+      </c>
+      <c r="E263" s="73"/>
+    </row>
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C264" s="29">
+        <v>1</v>
+      </c>
+      <c r="D264" s="72">
+        <v>55</v>
+      </c>
+      <c r="E264" s="72"/>
+    </row>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" s="30">
+        <v>1</v>
+      </c>
+      <c r="D265" s="73">
+        <v>50</v>
+      </c>
+      <c r="E265" s="73"/>
+    </row>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266" s="29">
+        <v>1</v>
+      </c>
+      <c r="D266" s="72">
+        <v>49</v>
+      </c>
+      <c r="E266" s="72"/>
+    </row>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" s="30">
+        <v>1</v>
+      </c>
+      <c r="D267" s="73">
+        <v>58</v>
+      </c>
+      <c r="E267" s="73"/>
+    </row>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B268" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C268" s="29">
+        <v>1</v>
+      </c>
+      <c r="D268" s="72">
+        <v>47</v>
+      </c>
+      <c r="E268" s="72"/>
+    </row>
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="30">
+        <v>1</v>
+      </c>
+      <c r="D269" s="73">
+        <v>58</v>
+      </c>
+      <c r="E269" s="73"/>
+    </row>
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" s="29">
+        <v>1</v>
+      </c>
+      <c r="D270" s="72">
+        <v>47</v>
+      </c>
+      <c r="E270" s="72"/>
+    </row>
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" s="30">
+        <v>1</v>
+      </c>
+      <c r="D271" s="73">
+        <v>52</v>
+      </c>
+      <c r="E271" s="73"/>
+    </row>
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="29">
+        <v>1</v>
+      </c>
+      <c r="D272" s="72">
+        <v>52</v>
+      </c>
+      <c r="E272" s="72"/>
+    </row>
+    <row r="273" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" s="30">
+        <v>1</v>
+      </c>
+      <c r="D273" s="73">
+        <v>41</v>
+      </c>
+      <c r="E273" s="73"/>
+    </row>
+    <row r="274" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B274" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" s="29">
+        <v>1</v>
+      </c>
+      <c r="D274" s="72">
+        <v>55</v>
+      </c>
+      <c r="E274" s="72"/>
+    </row>
+    <row r="275" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="30">
+        <v>1</v>
+      </c>
+      <c r="D275" s="73">
+        <v>52</v>
+      </c>
+      <c r="E275" s="73"/>
+    </row>
+    <row r="276" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B276" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="76">
+        <v>1</v>
+      </c>
+      <c r="D276" s="77">
         <v>39</v>
       </c>
+      <c r="E276" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
